--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="619" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A65FDE2-137E-A34B-B42E-BB955C99A5BF}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F31855-C380-9847-863C-AF61CE8B6C22}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="4" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
     <sheet name="AdminDivs" sheetId="6" r:id="rId2"/>
     <sheet name="SampleDesc" sheetId="7" r:id="rId3"/>
-    <sheet name="Bolivia" sheetId="1" state="hidden" r:id="rId4"/>
-    <sheet name="Colombia" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="Ecuador" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="Peru" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Table_A" sheetId="8" r:id="rId4"/>
+    <sheet name="Table_B" sheetId="9" r:id="rId5"/>
+    <sheet name="Bolivia" sheetId="1" state="hidden" r:id="rId6"/>
+    <sheet name="Colombia" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Ecuador" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="Peru" sheetId="4" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="207">
   <si>
     <t>Sample Size</t>
   </si>
@@ -539,13 +541,136 @@
   </si>
   <si>
     <t>%%%</t>
+  </si>
+  <si>
+    <t>elegible_household</t>
+  </si>
+  <si>
+    <t>refusals</t>
+  </si>
+  <si>
+    <t>break_off</t>
+  </si>
+  <si>
+    <t>non_contact</t>
+  </si>
+  <si>
+    <t>inelegible_household</t>
+  </si>
+  <si>
+    <t>no_elegible</t>
+  </si>
+  <si>
+    <t>quota_filled</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Nationally representative</t>
+  </si>
+  <si>
+    <t>Face-to-face</t>
+  </si>
+  <si>
+    <t>Datum International</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>About Brazil Market Research</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd.</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>CID Gallup</t>
+  </si>
+  <si>
+    <t>The Bahamas</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>D3: Designs, Data, Decisions</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Mercaplan</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Panama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,8 +728,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,8 +792,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF05B42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -656,12 +807,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -710,6 +913,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +967,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
@@ -2826,6 +3041,627 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>6204</v>
+      </c>
+      <c r="C2">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="30">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1553</v>
+      </c>
+      <c r="C3">
+        <v>896</v>
+      </c>
+      <c r="D3">
+        <v>451</v>
+      </c>
+      <c r="E3">
+        <v>206</v>
+      </c>
+      <c r="F3">
+        <v>1028</v>
+      </c>
+      <c r="G3">
+        <v>355</v>
+      </c>
+      <c r="H3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>3233</v>
+      </c>
+      <c r="C4">
+        <v>1161</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2810</v>
+      </c>
+      <c r="C5">
+        <v>1157</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>1579</v>
+      </c>
+      <c r="F5">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955972DF-9C94-C142-B548-E13B733338FE}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="35">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="34">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A8" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A10" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A13" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="34">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A15" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A20" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="34">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A21" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="34">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A22" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="34">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A23" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A24" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A26" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A27" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="35">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8924A71-BA49-4EF2-A583-E5C119517806}">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -3074,7 +3910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B094D6-FCFF-4B3F-8157-EE7DA482D702}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -3358,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5646A9CD-758C-42C5-B58A-1B2FEF976F16}">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -3647,7 +4483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627D3E6B-CCDA-4A25-9566-3D28FC062E70}">
   <dimension ref="A1:G48"/>
   <sheetViews>
@@ -4054,26 +4890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4316,32 +5132,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4358,4 +5169,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F31855-C380-9847-863C-AF61CE8B6C22}"/>
+  <xr:revisionPtr revIDLastSave="638" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1200B1C3-184A-8D44-95CD-4BA1A1969BEB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="4" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="208">
   <si>
     <t>Sample Size</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>Panama</t>
+  </si>
+  <si>
+    <t>Ecuadorian</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1538,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>118</v>
@@ -3171,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955972DF-9C94-C142-B548-E13B733338FE}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4890,6 +4893,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -5132,15 +5144,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5153,6 +5156,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5171,27 +5182,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="638" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1200B1C3-184A-8D44-95CD-4BA1A1969BEB}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{990CD519-4854-0048-AA25-3F9B696BFAFA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="212">
   <si>
     <t>Sample Size</t>
   </si>
@@ -138,33 +138,15 @@
     <t xml:space="preserve">Sample Sub-Units 1 </t>
   </si>
   <si>
-    <t>cities</t>
-  </si>
-  <si>
     <t>Sample Sub-Units 2</t>
   </si>
   <si>
-    <t>segments</t>
-  </si>
-  <si>
     <t>regions</t>
   </si>
   <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Sample Sub-Units 3</t>
   </si>
   <si>
-    <t>neighborhoods</t>
-  </si>
-  <si>
-    <t>provinces</t>
-  </si>
-  <si>
     <t>Cantón</t>
   </si>
   <si>
@@ -387,48 +369,15 @@
     <t>region</t>
   </si>
   <si>
-    <t>Sample Sub-Units 1</t>
-  </si>
-  <si>
     <t>Polling Company Location</t>
   </si>
   <si>
     <t>Santa Cruz, Bolivia</t>
   </si>
   <si>
-    <t>Bogotá D.C., Colombia</t>
-  </si>
-  <si>
-    <t>Florida, USA</t>
-  </si>
-  <si>
-    <t>San Isidro, Peru</t>
-  </si>
-  <si>
     <t>Historical Data</t>
   </si>
   <si>
-    <t>Data for Bolivia, Colombia, and Peru was collected in 2013, 2016, 2018, and 2022. Data for Ecuador was collected in 2012, 2014, 2017, and 2022.</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>OptEnumerators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerators worked in six groups of four to five interviewers with at least one supervisor per group. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerators worked in ten groups of four to five interviewers with one supervisor per group. </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -441,27 +390,15 @@
     <t>FW Dates</t>
   </si>
   <si>
-    <t>2020 projected population figures from the National Statistics Institute</t>
-  </si>
-  <si>
     <t>ProjPop</t>
   </si>
   <si>
-    <t>2022 projected population figures from the National Administrative Department of Statistics (DANE)</t>
-  </si>
-  <si>
-    <t>2021-2022 projected population figures from the National Institute of Statistics and Census (INEC)</t>
-  </si>
-  <si>
     <t>SurveyLang</t>
   </si>
   <si>
     <t>English and Spanish</t>
   </si>
   <si>
-    <t>Prob Sample</t>
-  </si>
-  <si>
     <t>Bolivia, Ecuador, and Peru</t>
   </si>
   <si>
@@ -501,15 +438,6 @@
     <t>Ethnicity</t>
   </si>
   <si>
-    <t>2022 projected population figures from the National Institute of Statistics and Informatics (INEI)</t>
-  </si>
-  <si>
-    <t>Need to collect further information.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 3% of all interviews in the field. During data processing, 300 interviews (approximately 30% of the sample) were backchecked via telephone by the central office. Additional quality control measures included GPS validation of all sampling segment interviews, checks for abnormal answer patterns, and photo verification. After quality control, 50 interviews were rejected from the final sample. Interviews averaged 45 minutes in length and ranged from 27 to 90 minutes.</t>
-  </si>
-  <si>
     <t>The supervisory team directly oversaw 40% of all interviews in the field. During data processing, 50% of the interviews conducted in each city were verified by the central office. Any interview with abnormal audio, answer patterns, or duration was backchecked via telephone. After quality control, 59 interviews were rejected from the final sample. Interviews averaged 40 minutes in length and ranged from 19 to 93 minutes.</t>
   </si>
   <si>
@@ -519,30 +447,9 @@
     <t>Quality Control</t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. Within cities, neighborhood blocks were selected using probability proportional to size sampling. In rural areas, vereda zones, or sub-municipalities, were selected using probability proportional to size sampling. Each sampling unit was then selected randomly. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t>Sampling</t>
   </si>
   <si>
-    <t xml:space="preserve">Zones, regions, and provinces were selected to achieve a nationally representative sample of the country. Within urban districts, “census areas” were selected using probability proportional to size sampling. In rural areas, “populated centers” were selected using probability proportional to size sampling. Within each enumeration area, sampling units were then selected randomly , according to socioeconomic level. Within the sampled segments, survey administrators performed a systematic random route to sample households and randomly selected respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. Within cities, neighborhood blocks were selected using probability proportional to size sampling. Each sampling unit was then selected randomly, and between five and ten interviews were assigned to each unit. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions, provinces, cities, cantóns, and parishes were selected to achieve a nationally representative sample of the country. Within selected parishes, neighborhoods were chosen according to quotas set for age, gender, and socioeconomic level. Within urban parishes, sampling units were randomly selected. In rural parishes, surveyors selected the most central sampling unit and selected additional sampling units from the surrounding area, moving in a clockwise direction. Ten interviews were assigned to each unit. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
-    <t>Footnote</t>
-  </si>
-  <si>
-    <t>*Polling company listed 17 regions in Peru, but two (Loreto and San Martino) were substituted due to security, inaccessibility (potential manual change: add all where applicable?)</t>
-  </si>
-  <si>
-    <t>%%%</t>
-  </si>
-  <si>
     <t>elegible_household</t>
   </si>
   <si>
@@ -576,9 +483,6 @@
     <t>Nationally representative</t>
   </si>
   <si>
-    <t>Face-to-face</t>
-  </si>
-  <si>
     <t>Datum International</t>
   </si>
   <si>
@@ -667,6 +571,115 @@
   </si>
   <si>
     <t>Ecuadorian</t>
+  </si>
+  <si>
+    <t>Interviewing</t>
+  </si>
+  <si>
+    <t>Capture Consulting based the sampling frame on the 2020 projected population figures from the National Statistics Institute, acquiring a proportionally stratified sample by department, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments and cities were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. In urban neighborhoods, enumeration areas were randomly selected. In rural neighborhoods, surveyors constructed the first enumeration area around a central point and selected additional sampling units from the surrounding area, moving in a clockwise direction. The number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>In total, 71 interviewers worked on this project, including 45 female interviewers. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 30% of all interviews in the field. During data processing, 300 interviews (approximately 30% of the sample) were backchecked via telephone by the central office. Additional quality control measures included GPS validation of all sampling segment interviews, checks for abnormal answer patterns, and photo verification. After quality control, 50 interviews were rejected from the final sample. Interviews averaged 45 minutes in length and ranged from 27 to 90 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Bolivia, Colombia, and Peru was collected in 2013, 2016, 2018, and 2022. Data for Ecuador was collected in 2012, 2014, 2017, and 2022</t>
+  </si>
+  <si>
+    <t>Bogotá, Colombia</t>
+  </si>
+  <si>
+    <t>Tempo Group based the sampling frame on the 2022 projected population figures from the National Administrative Department of Statistics (DANE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>In total, 42 interviewers worked on this project, including 28 female interviewers. Enumerators worked in ten groups of four to five interviewers with one supervisor per group. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>Florida, U.S.A.</t>
+  </si>
+  <si>
+    <t>StatMark Group based the sampling frame on the 2021-2022 projected population figures from the National Institute of Statistics and Census (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions, provinces, and cantons were selected to achieve a nationally representative sample of the country. Within cantons, parishes were selected as the primary sampling unit according to quotas set for age, gender, socioeconomic level, and geographical units. Within urban parishes, enumeration areas were randomly selected. In rural parishes, surveyors constructed the first enumeration area around a central neighborhood and selected additional sampling units from the surrounding area, moving in a clockwise direction. Ten interviews were assigned to each enumeration area. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household. </t>
+  </si>
+  <si>
+    <t>In total, 28 interviewers worked on this project, including 18 female interviewers. Enumerators worked in six groups of four to five interviewers with at one supervisor per group. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A.</t>
+  </si>
+  <si>
+    <t>Lima, Peru</t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A. based the sampling frame on 2017 census figures from the National Institute of Statistics and Information (INEI) and 2020 voter statistics from the National Office of Electoral Processes (ONPE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>Most respondents (78%) identified themselves as Mestizo, followed by White (13%) and Indigenous (5%).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Districts were selected as the primary sampling unit according to quotas for age, gender, geographic distribution, and socioeconomic level. Within urban and rural districts, “census areas” and “populated centers,” respectively, were randomly selected as enumeration areas using probability proportionate to size sampling . The number of enumeration areas assigned to each district was determined by the relative population of each district. Within each enumeration area, survey administrators performed a systematic random route to sample households and randomly selected respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  
+Due to a lack of accessibility, the Loreto and San Martín regions of the Peruvian Amazon were excluded from the study. Loreto and San Martín were replaced by the eastern regions of Ucayali and Madre de Dios, located in the Amazon rainforest and Amazon basin, respectively. </t>
+  </si>
+  <si>
+    <t>In total, 94 interviewers worked on this project, including 77 female interviewers. Enumerators worked in 33 regional teams; 19 interviewers were assigned to the Lima and Callao regions and 32 groups of two to three enumerators worked throughout the remaining regions. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw approximately 9% of all interviews in the field. During data processing, 356 interviews (approximately 35% of the sample) were selected for audio review by the central office and 86 interviews (approximately 8% of the sample) were backchecked via telephone. Interviews averaged 38 minutes in length. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. In city districts, neighborhoods served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each city. Within each neighborhood, blocks were selected as enumeration areas using simple random sampling. In rural areas, veredas, or municipalities, served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each area. Within each vereda, zones were selected as enumeration areas using simple random sampling. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>Face-to-Face</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Datum International S.A.</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>all nine</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>major provinces</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>Twenty-nine percent (29%) of the interviews took place in Santa Cruz, followed by 25% in La Paz, 18% in Cochabamba, and the remaining 28% in other regions</t>
+  </si>
+  <si>
+    <t>Forty-one percent (41%) of the interviews took place in the Central region, followed by 35% in the Western region and 24% in the Caribbean region</t>
+  </si>
+  <si>
+    <t>Fifty-four percent (54%) of the interviews took place in the Sierra region and the remaining 46% took place in the Costa region</t>
+  </si>
+  <si>
+    <t>Thirty-nine percent (39%) of the interviews took place in Lima, followed by 24% in the Northern region, 17% in the Southern region, 11% in the Central region, and the remaining 8% in the Eastern region</t>
   </si>
 </sst>
 </file>
@@ -752,7 +765,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,12 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -883,14 +890,10 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,26 +904,14 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -932,19 +923,36 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1269,392 +1277,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="13.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="13"/>
-    <col min="4" max="4" width="11.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="13" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="13"/>
-    <col min="10" max="10" width="22.83203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="33.5" style="13" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="13"/>
-    <col min="13" max="13" width="7.1640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="36.1640625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.33203125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="30.1640625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="59.1640625" style="23" customWidth="1"/>
-    <col min="23" max="23" width="70.33203125" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="19" width="35.83203125" style="13" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16">
+    <row r="1" spans="1:23">
       <c r="A1" s="10" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" ht="125" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="21">
+        <v>115</v>
+      </c>
+      <c r="C2" s="22">
+        <v>77</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="125" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21">
+        <v>115</v>
+      </c>
+      <c r="C3" s="22">
+        <v>77</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="125" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="21">
+        <v>115</v>
+      </c>
+      <c r="C4" s="22">
+        <v>77</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1005</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" ht="128">
-      <c r="A2" s="13">
+    </row>
+    <row r="5" spans="1:23" ht="125" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="21">
         <v>115</v>
       </c>
-      <c r="B2" s="13">
+      <c r="C5" s="22">
         <v>77</v>
       </c>
-      <c r="C2" s="15">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="D5" s="21">
+        <v>1029</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="21">
         <v>2022</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="G5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="I5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S5" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="13">
-        <v>71</v>
-      </c>
-      <c r="N2" s="13">
-        <v>45</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R2" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="128">
-      <c r="A3" s="13">
-        <v>115</v>
-      </c>
-      <c r="B3" s="13">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="6">
-        <v>42</v>
-      </c>
-      <c r="N3" s="6">
-        <v>28</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R3" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="160">
-      <c r="A4" s="13">
-        <v>115</v>
-      </c>
-      <c r="B4" s="13">
-        <v>77</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1005</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2022</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M4" s="13">
-        <v>28</v>
-      </c>
-      <c r="N4" s="13">
-        <v>18</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="W4" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="144">
-      <c r="A5" s="13">
-        <v>115</v>
-      </c>
-      <c r="B5" s="13">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1036</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2022</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="13">
-        <v>94</v>
-      </c>
-      <c r="N5" s="13">
-        <v>77</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1663,8 +1594,8 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD1048576 A1:K5 AB1:XFD1 R2:XFD5">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <conditionalFormatting sqref="A1:K5 A6:XFD1048576 R1:XFD5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="6">
@@ -1672,18 +1603,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q5">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:AA1">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1694,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1732,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="13">
-        <v>9</v>
+      <c r="D2" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1746,241 +1669,102 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="D4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="23">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="D6" s="31" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="11">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11" t="s">
         <v>36</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>207</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>36</v>
+      <c r="D9" s="23">
+        <v>15</v>
       </c>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11">
-        <v>15</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11">
-        <v>41</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11">
-        <v>116</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1990,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2008,13 +1792,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2022,12 +1806,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="17">
+        <v>42</v>
+      </c>
+      <c r="D2" s="16">
         <f>285/1000</f>
         <v>0.28499999999999998</v>
       </c>
@@ -2037,30 +1821,30 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="17">
+        <v>43</v>
+      </c>
+      <c r="D3" s="16">
         <f>254/1000</f>
         <v>0.254</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="17">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
@@ -2070,12 +1854,12 @@
         <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="17">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16">
         <f>55/1000</f>
         <v>5.5E-2</v>
       </c>
@@ -2085,12 +1869,12 @@
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="17">
+        <v>46</v>
+      </c>
+      <c r="D6" s="16">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
@@ -2100,12 +1884,12 @@
         <v>9</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="17">
+        <v>47</v>
+      </c>
+      <c r="D7" s="16">
         <f>76/1000</f>
         <v>7.5999999999999998E-2</v>
       </c>
@@ -2115,12 +1899,12 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="17">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -2130,17 +1914,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="17">
+        <v>49</v>
+      </c>
+      <c r="D9" s="16">
         <f>43/1000</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2148,43 +1932,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="17">
+        <v>51</v>
+      </c>
+      <c r="D10" s="16">
         <f>15/1000</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="64">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.53</v>
-      </c>
+      <c r="B11" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.47</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2192,13 +1975,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.5</v>
+        <v>54</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2206,12 +1989,12 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="17">
+        <v>56</v>
+      </c>
+      <c r="D14" s="16">
         <v>0.5</v>
       </c>
     </row>
@@ -2220,13 +2003,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>57</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2234,13 +2017,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="17">
-        <v>7.5999999999999998E-2</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="16">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2248,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.105</v>
+        <v>60</v>
+      </c>
+      <c r="D17" s="16">
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2262,101 +2045,100 @@
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="E18" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.26500000000000001</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.26500000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0.127</v>
-      </c>
+      <c r="D21" s="16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D22" s="16">
-        <v>0.184</v>
-      </c>
-      <c r="F22" s="21"/>
+        <v>0.127</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="17">
+        <v>66</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.184</v>
+      </c>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="16">
         <v>0.81499999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="12">
-        <f>412/1000</f>
-        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2364,14 +2146,14 @@
         <v>13</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" s="12">
-        <f>350/1000</f>
-        <v>0.35</v>
+        <f>412/1000</f>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2379,14 +2161,14 @@
         <v>13</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D26" s="12">
-        <f>238/1000</f>
-        <v>0.23799999999999999</v>
+        <f>350/1000</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2394,41 +2176,40 @@
         <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D27" s="12">
-        <v>0.76300000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="11" t="s">
+        <f>238/1000</f>
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="64">
+      <c r="A28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0.23699999999999999</v>
-      </c>
+      <c r="B28" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D29" s="12">
-        <v>0.48699999999999999</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2436,13 +2217,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D30" s="12">
-        <v>0.51300000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2450,13 +2231,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D31" s="12">
-        <v>7.0000000000000001E-3</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2464,13 +2245,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D32" s="12">
-        <v>8.5000000000000006E-2</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2478,13 +2259,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D33" s="12">
-        <v>0.12</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2492,13 +2273,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D34" s="12">
-        <v>0.38</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2506,13 +2287,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D35" s="12">
-        <v>0.21199999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2520,13 +2301,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D36" s="12">
-        <v>7.1999999999999995E-2</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2534,13 +2315,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D37" s="12">
-        <v>0.12</v>
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2548,13 +2329,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" s="12">
-        <v>0.21200000000000002</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2562,56 +2343,56 @@
         <v>13</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D39" s="12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.21200000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.79</v>
       </c>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="17">
-        <v>0.46</v>
-      </c>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0.64</v>
+        <v>71</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.54</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2619,41 +2400,39 @@
         <v>17</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="48">
+      <c r="A44" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0.49399999999999999</v>
-      </c>
+      <c r="B44" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0.50600000000000001</v>
+        <v>53</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0.64</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2661,13 +2440,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>54</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0.36</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2675,13 +2454,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="17">
-        <v>0.14000000000000001</v>
+        <v>56</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2689,13 +2468,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0.15</v>
+        <v>57</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2703,13 +2482,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="17">
-        <v>0.39</v>
+        <v>59</v>
+      </c>
+      <c r="D49" s="16">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2717,13 +2496,13 @@
         <v>17</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0.25800000000000001</v>
+        <v>60</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2731,13 +2510,13 @@
         <v>17</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="17">
-        <v>0.05</v>
+        <v>61</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2745,13 +2524,13 @@
         <v>17</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>62</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.39</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2759,70 +2538,70 @@
         <v>17</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="17">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E53" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0.25800000000000001</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="16">
         <v>0.70099999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="12">
-        <v>0.38669999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0.24390000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0.17</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2830,13 +2609,13 @@
         <v>21</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="19">
-        <v>8.4500000000000006E-2</v>
+        <v>96</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.38669999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2844,13 +2623,13 @@
         <v>21</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D59" s="12">
-        <v>0.11459999999999999</v>
+        <v>0.24390000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2858,13 +2637,13 @@
         <v>21</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>59</v>
+        <v>97</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="D60" s="12">
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2872,13 +2651,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0.23</v>
+        <v>99</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="18">
+        <v>8.4500000000000006E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2886,42 +2665,39 @@
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="D62" s="12">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="11" t="s">
+        <v>0.11459999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="80">
+      <c r="A63" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0.51</v>
-      </c>
-      <c r="E63" s="16"/>
+      <c r="B63" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D64" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2929,13 +2705,13 @@
         <v>21</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D65" s="12">
-        <v>9.7000000000000003E-2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2943,13 +2719,13 @@
         <v>21</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D66" s="12">
-        <v>0.497</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2957,28 +2733,28 @@
         <v>21</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D67" s="12">
-        <v>0.155</v>
-      </c>
-      <c r="E67" s="21"/>
+        <v>0.51</v>
+      </c>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D68" s="12">
-        <v>0.126</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2986,13 +2762,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D69" s="12">
-        <v>5.1999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3000,13 +2776,13 @@
         <v>21</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D70" s="12">
-        <v>6.2E-2</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3014,29 +2790,86 @@
         <v>21</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D71" s="12">
-        <v>0.60199999999999998</v>
-      </c>
+        <v>0.155</v>
+      </c>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="12">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="12">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E72" s="21"/>
+      <c r="E76" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,25 +2891,25 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3089,7 +2922,7 @@
       <c r="C2">
         <v>6000</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="24">
         <v>200</v>
       </c>
       <c r="E2">
@@ -3172,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955972DF-9C94-C142-B548-E13B733338FE}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3184,479 +3017,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="28">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A8" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A13" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="28">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A15" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="28">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A21" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="28">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A22" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="28">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A24" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="29">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A26" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="B27" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1">
+      <c r="A29" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="34">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="35">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="34">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="35">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="35">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A19" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="34">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A21" s="33" t="s">
+      <c r="B29" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="34">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="34">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A23" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="35">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A24" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="35">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A25" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A26" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A27" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A28" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="35">
-        <v>2000</v>
+      <c r="E29" s="29">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -3686,7 +3536,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3764,70 +3614,70 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>500</v>
@@ -3835,7 +3685,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>500</v>
@@ -3843,12 +3693,12 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3856,7 +3706,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>76</v>
@@ -3864,7 +3714,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>105</v>
@@ -3872,7 +3722,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>381</v>
@@ -3880,7 +3730,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>265</v>
@@ -3888,7 +3738,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3896,7 +3746,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>127</v>
@@ -3904,7 +3754,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3785,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4008,7 +3858,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4016,30 +3866,30 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5">
         <f>412/1000</f>
@@ -4048,7 +3898,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5">
         <f>350/1000</f>
@@ -4057,7 +3907,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5">
         <f>238/1000</f>
@@ -4066,12 +3916,12 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>0.76300000000000001</v>
@@ -4079,7 +3929,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5">
         <v>0.23699999999999999</v>
@@ -4087,17 +3937,17 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5">
         <v>0.48699999999999999</v>
@@ -4105,7 +3955,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5">
         <v>0.51300000000000001</v>
@@ -4113,13 +3963,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5">
         <v>7.0000000000000001E-3</v>
@@ -4127,13 +3977,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C39" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E39" s="7">
         <f>SUM(C38:C40)</f>
@@ -4142,13 +3992,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5">
         <v>0.12</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E40" s="7">
         <f>SUM(C41:C44)</f>
@@ -4157,7 +4007,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5">
         <v>0.38</v>
@@ -4165,7 +4015,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5">
         <v>0.21199999999999999</v>
@@ -4173,7 +4023,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5">
         <v>7.1999999999999995E-2</v>
@@ -4181,7 +4031,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5">
         <v>0.12</v>
@@ -4189,7 +4039,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4069,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4235,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4289,7 +4139,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4300,7 +4150,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -4308,33 +4158,33 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B18" s="5">
         <f>543/1005</f>
@@ -4343,7 +4193,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5">
         <f>462/1005</f>
@@ -4352,12 +4202,12 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B21" s="5">
         <f>643/1005</f>
@@ -4366,7 +4216,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5">
         <f>362/1005</f>
@@ -4375,17 +4225,17 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5">
         <f>496/1005</f>
@@ -4394,7 +4244,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5">
         <f>509/1005</f>
@@ -4403,12 +4253,12 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5">
         <v>3.003003003003003E-3</v>
@@ -4416,7 +4266,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5">
         <v>0.14114114114114115</v>
@@ -4424,7 +4274,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5">
         <v>0.15115115115115116</v>
@@ -4434,12 +4284,12 @@
         <v>0.2952952952952953</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5">
         <v>0.39239239239239238</v>
@@ -4449,12 +4299,12 @@
         <v>0.7047047047047047</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5">
         <v>0.25925925925925924</v>
@@ -4462,7 +4312,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B42" s="5">
         <v>5.0050050050050053E-2</v>
@@ -4470,7 +4320,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B43" s="5">
         <v>3.003003003003003E-3</v>
@@ -4478,7 +4328,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4508,7 +4358,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4578,7 +4428,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -4597,33 +4447,33 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B18" s="5">
         <f>8/1029</f>
@@ -4633,7 +4483,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5">
         <f>175/1029</f>
@@ -4642,7 +4492,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5">
         <f>118/1029</f>
@@ -4651,7 +4501,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5">
         <f>251/1029</f>
@@ -4660,7 +4510,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5">
         <f>398/1029</f>
@@ -4669,12 +4519,12 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7">
         <v>0.77</v>
@@ -4682,7 +4532,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7">
         <v>0.23</v>
@@ -4690,17 +4540,17 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B37" s="5">
         <f>500/1029</f>
@@ -4709,7 +4559,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B38" s="5">
         <f>529/1029</f>
@@ -4718,12 +4568,12 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B40" s="5">
         <v>8.0312195121951205E-3</v>
@@ -4742,7 +4592,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B41" s="5">
         <v>9.7378536585365855E-2</v>
@@ -4761,7 +4611,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B42" s="5">
         <v>0.49893951219512195</v>
@@ -4771,7 +4621,7 @@
         <v>0.60434926829268298</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>49.7</v>
@@ -4787,7 +4637,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B43" s="5">
         <v>0.15560487804878048</v>
@@ -4797,7 +4647,7 @@
         <v>0.39654146341463414</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>15.5</v>
@@ -4813,7 +4663,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B44" s="5">
         <v>0.12649170731707315</v>
@@ -4832,7 +4682,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B45" s="5">
         <v>5.220292682926829E-2</v>
@@ -4851,7 +4701,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B46" s="5">
         <v>6.2241951219512197E-2</v>
@@ -4883,7 +4733,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4893,12 +4743,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5145,20 +4997,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5183,18 +5042,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{990CD519-4854-0048-AA25-3F9B696BFAFA}"/>
+  <xr:revisionPtr revIDLastSave="790" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC1BEC2-D825-1F4E-81E2-BC606E243CCA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="386">
   <si>
     <t>Sample Size</t>
   </si>
@@ -680,13 +680,538 @@
   </si>
   <si>
     <t>Thirty-nine percent (39%) of the interviews took place in Lima, followed by 24% in the Northern region, 17% in the Southern region, 11% in the Central region, and the remaining 8% in the Eastern region</t>
+  </si>
+  <si>
+    <t>Southern Cone and Brazil</t>
+  </si>
+  <si>
+    <t>Argentinian</t>
+  </si>
+  <si>
+    <t>Florida, U.S.A</t>
+  </si>
+  <si>
+    <t>StatMark Group based the sampling frame on population figures gathered between 2019 and 2022 by the National Institute of Statistics and Census (INDEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (65%) identified themselves as White, followed by Mestizo (32%). </t>
+  </si>
+  <si>
+    <t>Most respondents (68%) reported that they had received a middle school diploma or less, and the remaining 32% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions, districts, and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities and towns, census blocks were selected as the primary sampling unit using probability proportional to size sampling and five interviews were assigned to each unit. Within each sampling unit, survey administrators randomly selected a street block and performed a systematic random route to sample households, using a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>In total, 30 interviewers worked on this project, including 25 female interviewers. Enumerators worked in six regional teams with one supervisor per group. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 26% of all interviews in the field. During data processing, 158 interviews (approximately 21% of the sample) were selected for audio review by the central office and 42 interviews (approximately 6% of the sample) were backchecked via telephone. After quality control, 37 interviews were rejected from the final sample. Interviews averaged 39 minutes in length and ranged from 19 to 98 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Argentina was collected in 2013, 2016, 2018, and 2022. Data for Brazil was collected in 2011, 2014, 2017, and 2022. Data for Paraguay was collected in 2021</t>
+  </si>
+  <si>
+    <t>Brazil and Paraguay</t>
+  </si>
+  <si>
+    <t>Brazilian</t>
+  </si>
+  <si>
+    <t>Fortaleza, Brazil</t>
+  </si>
+  <si>
+    <t>About Brazil Market Research based the sampling frame on the most recent population figures from the Brazilian Institute of Geography and Statistics (IBGE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English and Portuguese </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-three percent (43%) of respondents identified themselves as White, followed by Mixed Race, (35%), and Black (20%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (76%) reported that they had received at least a high school diploma or vocational degree, and the remaining 24% of respondents received a middle school diploma or less. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and states were selected to achieve a nationally representative sample of the country. Within municipalities, census sectors were randomly selected, and the number of census sectors assigned to each municipality was proportionate to each municipality’s population. Within each census sector, survey administrators performed a systematic random route based on listed addresses to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>In total, 87 interviewers worked on this project, including 47 female interviewers. Enumerators worked in 18 groups of four to five interviewers. Interviews were conducted in Portuguese.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The supervisory team directly oversaw 11% of all interviews in the field. During data processing, 160 interviews (approximately 14% of the sample) were selected for audio review by local supervision teams and 194 (approximately 18% of the sample) were selected for audio review by the central office. All interviews under 30 minutes were reviewed in full and disqualified if not properly conducted. After quality control, 180 interviews were rejected from the final sample. Interviews averaged 45 minutes in length and ranged from 28 to 101 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Argentina was collected in 2013, 2016, 2018, and 2022. Data for Brazil was collected in 2011, 2014, 2017, and 2022. Data for Paraguay was collected in 2021.</t>
+  </si>
+  <si>
+    <t>Argentina and Paraguay</t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A. and BM Business Partners</t>
+  </si>
+  <si>
+    <t>April and June 2021</t>
+  </si>
+  <si>
+    <t>Paraguayan</t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A./BM Business Partners based the sampling frame on the most recent census figures from the National Institute of Statistics (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (86%) identified themselves as White, followed by Mestizo (12%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (55%) reported that they had received at least a high school diploma or vocational degree, and the remaining 45% of respondents received a middle school diploma or less. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments and districts were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. In urban areas, each enumeration area consisted of a randomly selected block. In rural areas, enumeration areas started at a randomly selected street. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  
+Due to a lack of accessibility, three surveys were conducted in the city of Filadelfia, located in the Boquerón Department, instead of in Fuerte Olimpo, located in the Alto Paraguay department. Both cities are located in the Chaco region of Paraguay. </t>
+  </si>
+  <si>
+    <t>In total, 11 interviewers worked on this project, including 6 female interviewers. Enumerators worked in two groups of five and six interviewers each. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 15% interviews in the field. During data processing, 50 interviews (approximately 5% of the sample) were backchecked via telephone. After quality control, 20 interviews were rejected from the final sample. Additional quality control measures included checks for abnormal answer patterns. Interviews averaged 25 minutes in length and ranged from 19 to 80 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Argentina was collected in 2013, 2016, 2018, and 2022. Data for Brazil was collected in 2011, 2014, 2017, and 2022</t>
+  </si>
+  <si>
+    <t>Argentina and Brazil</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>17 departments and one capital district</t>
+  </si>
+  <si>
+    <t>departments and districts</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Cuyo</t>
+  </si>
+  <si>
+    <t>Litoral</t>
+  </si>
+  <si>
+    <t>NOA</t>
+  </si>
+  <si>
+    <t>Pampeana</t>
+  </si>
+  <si>
+    <t>Patagonia</t>
+  </si>
+  <si>
+    <t>Forty percent (40%) of the interviews took place in the Centro region, followed by 20% in NOA, 11% n Litoral, 11% in Pampeana, 10% in Cuyo, and 9% in Patagonia</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Fifty-four percent (54%) of the interviews took place in the Southeast, followed by 21% in the Northeast, 15% in the South, 7% in the North, and 3% in the Midwest</t>
+  </si>
+  <si>
+    <t>Alto Paraná</t>
+  </si>
+  <si>
+    <t>Amambay</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>Boquerón</t>
+  </si>
+  <si>
+    <t>Caaguazú</t>
+  </si>
+  <si>
+    <t>Caazapá</t>
+  </si>
+  <si>
+    <t>Cañindeyu</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Cordillera</t>
+  </si>
+  <si>
+    <t>Guairá</t>
+  </si>
+  <si>
+    <t>Itapúa</t>
+  </si>
+  <si>
+    <t>Misiones</t>
+  </si>
+  <si>
+    <t>Ñeembucú</t>
+  </si>
+  <si>
+    <t>Paraguarí</t>
+  </si>
+  <si>
+    <t>Presidente Hayes</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>Thirty percent (30%) of the interviews took place in the Central Department, followed by 12% in Alto Paraná, 9% Itapúa, 8% in Caaguazú, and the remaining 41% in other regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMR Insights Ltd. </t>
+  </si>
+  <si>
+    <t>Greater Antilles, The Bahamas, and the Guianas</t>
+  </si>
+  <si>
+    <t>Bahamian</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on the 2010 census figures from the Bahamas National Statistical Institute, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (35%) identified themselves as White, followed by Mixed Race (35%), and Black (20%). </t>
+  </si>
+  <si>
+    <t>Most respondents (96%) reported that they had received at least a high school diploma or  vocational degree and the remaining 3% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given The Bahamas’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 19 interviewers worked on this project, including 13 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (approximately 30% of the sample) were backchecked via telephone. After quality control, 21 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 52 minutes in length and ranged from 49 to 88 minutes. </t>
+  </si>
+  <si>
+    <t>Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
+  </si>
+  <si>
+    <t>the Dominican Republic, Guyana, Haiti, Jamaica, and Suriname</t>
+  </si>
+  <si>
+    <t>Dominican</t>
+  </si>
+  <si>
+    <t>San José, Costa Rica</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2018 population figures from the National Statistics Office of Dominican Republic (ONE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than one-quarter of all respondents (27%) identified themselves as Mestizo, followed by Mulatto (24%) and White (20%). </t>
+  </si>
+  <si>
+    <t>Most respondents (52%) reported that they had received up to a middle school diploma, and the remaining 48% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>Regions, provinces, and municipalities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Districts were then selected as the primary sampling unit using probability proportionate to size sampling. Within cities and towns, enumeration areas were selected at the cantón, or neighborhood, level via systematic random sampling based on the population of each area. Within the sampled segments, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 52 interviewers worked on this project, including 31 female interviewers. Enumerators worked in ten groups of five to six interviewers with one to two supervisors per group. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 43% of all interviews in the field. During data processing, 621 interviews (approximately 62% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 53 minutes in length and ranged from 45 to 100 minutes.</t>
+  </si>
+  <si>
+    <t>Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
+  </si>
+  <si>
+    <t>The Bahamas, Guyana, Haiti, Jamaica, and Suriname</t>
+  </si>
+  <si>
+    <t>2018 / 2022</t>
+  </si>
+  <si>
+    <t>Guyanese individual</t>
+  </si>
+  <si>
+    <t>StatMark Group based the sampling frame on 2012 population figures from the Bureau of Statistics of Guyana, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty percent (39%) of respondents identified themselves as Afro-Guyanese, followed by Mixed-Race (26%) and Indo-Guyanese (23%). </t>
+  </si>
+  <si>
+    <t>Most respondents (55%) reported that they had received at least a high school diploma or  vocational degree and the remaining 42% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Regions and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities, neighborhoods were selected as primary sampling units using probability proportional to size sampling. Street blocks within the primary sampling units were selected at random, and each house within the selected segment was approached. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 21 interviewers worked on this project, all of whom were female. Enumerators worked in five groups of three to five interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw or backchecked via telephone 150 interviews (approximately 30% of the total sample). Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal answer patterns. Interviews averaged 41 minutes in length and ranged from 21 to 108 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Guyana, The Bahamas, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
+  </si>
+  <si>
+    <t>The Bahamas, the Dominican Republic, Haiti, Jamaica, and Suriname</t>
+  </si>
+  <si>
+    <t>Haitian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CID Gallup based the sampling frame on the 2022 projected population figures from the United Nations Economic Commission for Latin America and the Caribbean (ECLAC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization
+</t>
+  </si>
+  <si>
+    <t>English and Haitian Creole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (99%) identified themselves as Nwa, or Haitian Creole.  </t>
+  </si>
+  <si>
+    <t>Most respondents (73%) reported that they had received up to a middle school diploma, and the remaining 26% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>Regions and communes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within communes, populated areas were selected as the primary sampling unit using probability proportional to size sampling. Enumeration areas were then randomly selected at the neighborhood level. Within the sampled segments, survey administrators performed a systematic random route around a central point of reference to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 32 interviewers worked on this project, including 15 female interviewers. Enumerators worked in eight groups of four interviewers with one supervisor each. Interviews were conducted in Haitian Creole.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 31% of all interviews in the field. During data processing, 253 interviews (approximately 50% of the sample) were selected for audio review by the central office. Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. Interviews averaged 42 minutes in length and ranged from 33 to 76 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Haiti was collected in 2021 and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
+  </si>
+  <si>
+    <t>The Bahamas, the Dominican Republic, Guyana, Jamaica, and Suriname</t>
+  </si>
+  <si>
+    <t>Jamaican</t>
+  </si>
+  <si>
+    <t>StatMark Group based the sampling frame on 2018 census figures from the Statistical Institute of Jamaica (STATIN), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (82%) identified themselves as Afro-Jamaican, followed by Mixed Race (14%).   </t>
+  </si>
+  <si>
+    <t>Most respondents (77%) reported that they had received at least a high school diploma or  vocational degree and the remaining 19% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities, parishes were selected as primary sampling units using probability proportional to size sampling. Neighborhoods within the primary sampling units were selected at random, and each house within the selected segment was approached. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household. </t>
+  </si>
+  <si>
+    <t>In total, 39 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 19 groups of five interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw or backchecked via telephone 300 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. After  quality control, 69 interviews were rejected from the final sample Interviews averaged 40 minutes in length and ranged from 20 to 99 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022</t>
+  </si>
+  <si>
+    <t>The Bahamas, the Dominican Republic, Guyana, Haiti, and Suriname</t>
+  </si>
+  <si>
+    <t>Surinamese individual</t>
+  </si>
+  <si>
+    <t>Virginia, U.S.A</t>
+  </si>
+  <si>
+    <t>D3: Designs, Data, Decisions based the sampling frame on 2012 population figures from the General Statistics Bureau of Suriname, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>English and Dutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-quarter of all respondents (25%) identified themselves as Maroon, followed by Creole (23%) and Mixed Race (18%). </t>
+  </si>
+  <si>
+    <t>Most respondents (67%) reported that they had received a middle school diploma or less, and the remaining 33% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>Districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Due to accessibility issues, the district of Sipaliwini was excluded from the sampling frame. Within districts, communes were selected as the primary sampling unit using probability proportionate to size sampling. Individual sampling segments  were then selected randomly. Within the sampled segments, survey administrators performed a systematic random route to sample households and used survey software to randomly select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 19 interviewers worked on this project, including 18 female interviewers. In addition, five fieldwork supervisors and one country lead worked on this project. Interviews were conducted in Dutch. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw at least two interviews per interview in the field. During data processing, 80 interviews (approximately 16% of the sample) were selected for audio review by the central office. Additional quality control measures included GPS validation, data checks, and checks for abnormal answer patterns. Interviews averaged 52 minutes in length and ranged from 29 to 84 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Suriname, The Bahamas, and Guyana was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
+  </si>
+  <si>
+    <t>The Bahamas, the Dominican Republic, Guyana, Haiti, and Jamaica</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Grand Bahama Island</t>
+  </si>
+  <si>
+    <t>Abaco</t>
+  </si>
+  <si>
+    <t>Seventy-eight percent (78%) of the interviews took place in Nassau, followed by 16% in Grand Bahama Island and 6% in Abaco</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Ozama</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Cibao North</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Valdesia</t>
+  </si>
+  <si>
+    <t>Region 4</t>
+  </si>
+  <si>
+    <t>Cibao South</t>
+  </si>
+  <si>
+    <t>Region 5</t>
+  </si>
+  <si>
+    <t>Cibao Northeast</t>
+  </si>
+  <si>
+    <t>Region 6</t>
+  </si>
+  <si>
+    <t>Yuma</t>
+  </si>
+  <si>
+    <t>Region 7</t>
+  </si>
+  <si>
+    <t>Higuamo</t>
+  </si>
+  <si>
+    <t>Region 8</t>
+  </si>
+  <si>
+    <t>Cibao Northwest</t>
+  </si>
+  <si>
+    <t>Region 9</t>
+  </si>
+  <si>
+    <t>Enriquillo</t>
+  </si>
+  <si>
+    <t>Region 10</t>
+  </si>
+  <si>
+    <t>El Valle</t>
+  </si>
+  <si>
+    <t>Thirty-seven percent (37%) of the interviews took place in Ozama, followed by Cibao North (16%), Valdesia (10%), Cibao South (8%), and the remaining 29% in other regions</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>New Amsterdam</t>
+  </si>
+  <si>
+    <t>Linden</t>
+  </si>
+  <si>
+    <t>Seventy-three percent (73%) of the interviews took place in Georgetown, followed by 14% in New Amsterdam and 13% in Linden</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Thirty-seven percent (37%) of the interviews took place in the Capital region, followed by 22% in the Central region, 22% in the North region, and 20% in the South region</t>
+  </si>
+  <si>
+    <t>Middlesex</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Forty-six percent (46%) of the interviews took place in Middlesex, followed by 31% in Surrey and 23% in Cornwall</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>Wanica</t>
+  </si>
+  <si>
+    <t>Nickerie</t>
+  </si>
+  <si>
+    <t>Commewijne</t>
+  </si>
+  <si>
+    <t>Saramacca</t>
+  </si>
+  <si>
+    <t>Marowijne</t>
+  </si>
+  <si>
+    <t>Brokopondo</t>
+  </si>
+  <si>
+    <t>Coronie</t>
+  </si>
+  <si>
+    <t>Thirty-eight percent (38%) of the interviews took place in Paramaribo, followed by 33% in Wanica, 7% in Nickerie, and the remaining 22% in other regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +1288,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -874,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -947,6 +1479,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,10 +1813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="A1:S1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1586,6 +2125,537 @@
       </c>
       <c r="S5" s="21" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="126" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="13">
+        <v>115</v>
+      </c>
+      <c r="C6" s="13">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13">
+        <v>759</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="126" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="13">
+        <v>115</v>
+      </c>
+      <c r="C7" s="13">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1109</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="126" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="13">
+        <v>88</v>
+      </c>
+      <c r="C8" s="13">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="126" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="21">
+        <v>172</v>
+      </c>
+      <c r="C9" s="21">
+        <v>122</v>
+      </c>
+      <c r="D9" s="21">
+        <v>500</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="126" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="21">
+        <v>172</v>
+      </c>
+      <c r="C10" s="21">
+        <v>122</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1002</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2022</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="126" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="21">
+        <v>172</v>
+      </c>
+      <c r="C11" s="21">
+        <v>122</v>
+      </c>
+      <c r="D11" s="21">
+        <v>500</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="126" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="21">
+        <v>172</v>
+      </c>
+      <c r="C12" s="21">
+        <v>122</v>
+      </c>
+      <c r="D12" s="21">
+        <v>507</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2022</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="126" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="21">
+        <v>172</v>
+      </c>
+      <c r="C13" s="21">
+        <v>122</v>
+      </c>
+      <c r="D13" s="21">
+        <v>531</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2022</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="126" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="21">
+        <v>172</v>
+      </c>
+      <c r="C14" s="21">
+        <v>122</v>
+      </c>
+      <c r="D14" s="21">
+        <v>502</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2022</v>
+      </c>
+      <c r="G14" s="21">
+        <v>2022</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1617,15 +2687,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A24" sqref="A24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="13"/>
@@ -1766,6 +2836,263 @@
       </c>
       <c r="E9" s="11"/>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="11">
+        <v>26</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" s="11">
+        <v>15</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="13">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1774,15 +3101,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="13"/>
     <col min="3" max="3" width="38.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
@@ -2871,6 +4199,2587 @@
       </c>
       <c r="E76" s="19"/>
     </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="13">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="13">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="64">
+      <c r="A83" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="13">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="13">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="13">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="13">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="13">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="13">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="64">
+      <c r="A102" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="11">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="11">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="11">
+        <v>5.4495912806539508E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="11">
+        <v>9.5367847411444148E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0.13805631244323344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="11">
+        <v>0.48228882833787468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="11">
+        <v>0.21616712079927339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="11">
+        <v>5.8128973660308808E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="11">
+        <v>4.5413260672116261E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="11">
+        <v>0.23887375113533152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0.76112624886466851</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="13">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="13">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" s="13">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D119" s="13">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="13">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" s="13">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" s="13">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D124" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D125" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" s="13">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127" s="13">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D128" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" s="13">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D130" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="64">
+      <c r="A133" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="13">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="13">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="13">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" s="13">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="13">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="13">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" s="13">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D141" s="13">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" s="13">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="13">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="13">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" s="13">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D147" s="11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D148" s="11">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="48">
+      <c r="A150" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" s="11">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="11">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" s="11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D155" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D156" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" s="11">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D162" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D163" s="11">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D164" s="13">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="13">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D166" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D168" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D169" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D170" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D171" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D172" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D173" s="13">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="64">
+      <c r="A174" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" s="13">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" s="13">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="13">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" s="13">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D179" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D180" s="13">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D181" s="13">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D182" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" s="13">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D184" s="13">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D185" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D186" s="13">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D187" s="13">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D188" s="11">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D189" s="11">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D190" s="11">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="48">
+      <c r="A191" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D192" s="11">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" s="11">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D194" s="11">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D195" s="11">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D196" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="11">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D198" s="11">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" s="11">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" s="11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D201" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D202" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D203" s="11">
+        <v>0.41600000000000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D204" s="11">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D205" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" s="13">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D207" s="13">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" s="13">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="64">
+      <c r="A209" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D210" s="13">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="13">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D212" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" s="13">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D214" s="13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D215" s="13">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D216" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D217" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D219" s="13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D220" s="13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D221" s="13">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D222" s="13">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D223" s="11">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D224" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D225" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="48">
+      <c r="A226" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C226" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D226" s="11"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D227" s="11">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" s="11">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D229" s="11">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D230" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D232" s="11">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D233" s="11">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D234" s="11">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D236" s="11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D237" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D238" s="11">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D239" s="11">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D240" s="13">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D241" s="13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D242" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D243" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D244" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D245" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D246" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D247" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D248" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="64">
+      <c r="A249" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D250" s="13">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D251" s="13">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D252" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D253" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D254" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D255" s="13">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D256" s="13">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D257" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D259" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D260" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D261" s="13">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D262" s="13">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2878,10 +6787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2996,6 +6905,42 @@
       </c>
       <c r="H5">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>3252</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1321</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>1881</v>
+      </c>
+      <c r="F6">
+        <v>317</v>
+      </c>
+      <c r="G6">
+        <v>137</v>
+      </c>
+      <c r="H6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4743,17 +8688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4996,6 +8930,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5006,23 +8951,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5041,6 +8969,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="790" documentId="8_{D6C07217-55F6-40ED-9D1A-2B0BF938B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC1BEC2-D825-1F4E-81E2-BC606E243CCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73E658D-04A1-5645-AFE5-63DD6A87EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -3103,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A229" workbookViewId="0">
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
@@ -6789,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6924,10 +6924,10 @@
         <v>1881</v>
       </c>
       <c r="F6">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="G6">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>180</v>
@@ -6937,10 +6937,28 @@
       <c r="A7" t="s">
         <v>148</v>
       </c>
+      <c r="B7">
+        <v>393</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>133</v>
+      </c>
+      <c r="E7">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>150</v>
+      </c>
+      <c r="B8">
+        <v>3500</v>
+      </c>
+      <c r="C8">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
@@ -8688,6 +8706,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -8930,41 +8968,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8987,9 +8994,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73E658D-04A1-5645-AFE5-63DD6A87EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9314C-EB72-604E-B743-0D49ECC8B04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -634,9 +634,6 @@
     <t xml:space="preserve">The supervisory team directly oversaw approximately 9% of all interviews in the field. During data processing, 356 interviews (approximately 35% of the sample) were selected for audio review by the central office and 86 interviews (approximately 8% of the sample) were backchecked via telephone. Interviews averaged 38 minutes in length. </t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. In city districts, neighborhoods served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each city. Within each neighborhood, blocks were selected as enumeration areas using simple random sampling. In rural areas, veredas, or municipalities, served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each area. Within each vereda, zones were selected as enumeration areas using simple random sampling. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t>Face-to-Face</t>
   </si>
   <si>
@@ -1205,6 +1202,9 @@
   </si>
   <si>
     <t>Thirty-eight percent (38%) of the interviews took place in Paramaribo, followed by 33% in Wanica, 7% in Nickerie, and the remaining 22% in other regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. In city districts, neighborhoods served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each city. Within each neighborhood, blocks were selected as enumeration areas using simple random sampling. In rural areas, &lt;i&gt; veredas &lt;/i&gt;, or municipalities, served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each area. Within each vereda, zones were selected as enumeration areas using simple random sampling. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
   </si>
 </sst>
 </file>
@@ -1815,11 +1815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1994,7 +1994,7 @@
         <v>123</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>184</v>
@@ -2150,40 +2150,40 @@
         <v>16</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="21" t="s">
         <v>214</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>215</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>117</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="O6" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="P6" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="S6" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="126" customHeight="1">
@@ -2209,40 +2209,40 @@
         <v>16</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="N7" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="O7" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="P7" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="126" customHeight="1">
@@ -2259,49 +2259,49 @@
         <v>1000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" s="13">
         <v>2021</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>117</v>
       </c>
       <c r="M8" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="P8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="S8" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="126" customHeight="1">
@@ -2318,7 +2318,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="21">
         <v>2022</v>
@@ -2327,40 +2327,40 @@
         <v>20</v>
       </c>
       <c r="H9" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>279</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>157</v>
       </c>
       <c r="K9" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="O9" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>287</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
@@ -2386,40 +2386,40 @@
         <v>2022</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I10" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="21" t="s">
         <v>290</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>291</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>117</v>
       </c>
       <c r="M10" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="S10" s="21" t="s">
         <v>297</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="126" customHeight="1">
@@ -2442,43 +2442,43 @@
         <v>2022</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="21" t="s">
+      <c r="L11" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="O11" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="S11" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="126" customHeight="1">
@@ -2504,40 +2504,40 @@
         <v>2022</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="K12" s="21" t="s">
+      <c r="L12" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="M12" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="N12" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="O12" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="Q12" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="S12" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="126" customHeight="1">
@@ -2563,40 +2563,40 @@
         <v>2022</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I13" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="K13" s="21" t="s">
+      <c r="L13" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="M13" s="21" t="s">
+      <c r="N13" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="O13" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="P13" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="Q13" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="S13" s="21" t="s">
         <v>326</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="126" customHeight="1">
@@ -2622,40 +2622,40 @@
         <v>2022</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I14" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="K14" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="P14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>337</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2731,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2745,7 +2745,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2759,7 +2759,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -2789,7 +2789,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2800,10 +2800,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>205</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2817,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -2847,7 +2847,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2861,7 +2861,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -2887,10 +2887,10 @@
         <v>101</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -2902,7 +2902,7 @@
         <v>107</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="13">
         <v>17</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>107</v>
@@ -2930,13 +2930,13 @@
         <v>32</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>101</v>
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -2971,7 +2971,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -2988,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -3000,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D21" s="11">
         <v>26</v>
@@ -3018,7 +3018,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3029,7 +3029,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -3046,7 +3046,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -3058,7 +3058,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D25" s="11">
         <v>15</v>
@@ -3076,7 +3076,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3087,7 +3087,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D27" s="13">
         <v>28</v>
@@ -3103,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
@@ -3279,7 +3279,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="16"/>
       <c r="G11" s="37"/>
@@ -3522,7 +3522,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -3745,7 +3745,7 @@
         <v>142</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="16"/>
     </row>
@@ -4010,7 +4010,7 @@
         <v>142</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -4207,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D77" s="13">
         <v>0.39500000000000002</v>
@@ -4221,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D78" s="13">
         <v>0.1</v>
@@ -4235,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" s="13">
         <v>0.107</v>
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D80" s="13">
         <v>0.2</v>
@@ -4263,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D81" s="13">
         <v>0.11</v>
@@ -4277,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D82" s="13">
         <v>9.1999999999999998E-2</v>
@@ -4291,7 +4291,7 @@
         <v>142</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4484,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D97" s="11">
         <v>0.54</v>
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D98" s="11">
         <v>0.21</v>
@@ -4540,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D101" s="11">
         <v>0.03</v>
@@ -4554,7 +4554,7 @@
         <v>142</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D102" s="11"/>
     </row>
@@ -4748,7 +4748,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D116" s="13">
         <v>0.115</v>
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D117" s="13">
         <v>2.4E-2</v>
@@ -4776,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D118" s="13">
         <v>7.0999999999999994E-2</v>
@@ -4790,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" s="13">
         <v>1.2E-2</v>
@@ -4804,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" s="13">
         <v>7.8E-2</v>
@@ -4818,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D121" s="13">
         <v>2.6000000000000002E-2</v>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D122" s="13">
         <v>3.2000000000000001E-2</v>
@@ -4860,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D124" s="13">
         <v>3.5000000000000003E-2</v>
@@ -4874,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D125" s="13">
         <v>4.2999999999999997E-2</v>
@@ -4888,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D126" s="13">
         <v>3.1E-2</v>
@@ -4902,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D127" s="13">
         <v>8.5000000000000006E-2</v>
@@ -4916,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D128" s="13">
         <v>1.7999999999999999E-2</v>
@@ -4930,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D129" s="13">
         <v>1.2E-2</v>
@@ -4944,7 +4944,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D130" s="13">
         <v>3.5999999999999997E-2</v>
@@ -4958,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D131" s="13">
         <v>1.7999999999999999E-2</v>
@@ -4972,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D132" s="13">
         <v>6.0999999999999999E-2</v>
@@ -4986,7 +4986,7 @@
         <v>142</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5173,13 +5173,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D147" s="11">
         <v>0.78</v>
@@ -5187,13 +5187,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D148" s="11">
         <v>0.16</v>
@@ -5201,13 +5201,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D149" s="11">
         <v>0.06</v>
@@ -5215,19 +5215,19 @@
     </row>
     <row r="150" spans="1:4" ht="48">
       <c r="A150" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>52</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>52</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>55</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>55</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>58</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>58</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>58</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>58</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>58</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>58</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>58</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>58</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>58</v>
@@ -5412,10 +5412,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="D164" s="13">
         <v>0.37</v>
@@ -5426,10 +5426,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="D165" s="13">
         <v>0.16</v>
@@ -5440,10 +5440,10 @@
         <v>162</v>
       </c>
       <c r="B166" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="D166" s="13">
         <v>0.1</v>
@@ -5454,10 +5454,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="D167" s="13">
         <v>0.08</v>
@@ -5468,10 +5468,10 @@
         <v>162</v>
       </c>
       <c r="B168" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C168" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="D168" s="13">
         <v>0.06</v>
@@ -5482,10 +5482,10 @@
         <v>162</v>
       </c>
       <c r="B169" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C169" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>357</v>
       </c>
       <c r="D169" s="13">
         <v>0.06</v>
@@ -5496,10 +5496,10 @@
         <v>162</v>
       </c>
       <c r="B170" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="D170" s="13">
         <v>0.06</v>
@@ -5510,10 +5510,10 @@
         <v>162</v>
       </c>
       <c r="B171" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="D171" s="13">
         <v>0.04</v>
@@ -5524,10 +5524,10 @@
         <v>162</v>
       </c>
       <c r="B172" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="D172" s="13">
         <v>0.04</v>
@@ -5538,10 +5538,10 @@
         <v>162</v>
       </c>
       <c r="B173" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="D173" s="13">
         <v>3.1E-2</v>
@@ -5555,7 +5555,7 @@
         <v>142</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5748,7 +5748,7 @@
         <v>96</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D188" s="11">
         <v>0.73</v>
@@ -5762,7 +5762,7 @@
         <v>98</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D189" s="11">
         <v>0.14199999999999999</v>
@@ -5773,10 +5773,10 @@
         <v>163</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D190" s="11">
         <v>0.128</v>
@@ -5790,7 +5790,7 @@
         <v>142</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D191" s="11"/>
     </row>
@@ -5984,7 +5984,7 @@
         <v>96</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D205" s="13">
         <v>0.36899999999999999</v>
@@ -6040,7 +6040,7 @@
         <v>142</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6230,10 +6230,10 @@
         <v>165</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D223" s="11">
         <v>0.45800000000000002</v>
@@ -6244,10 +6244,10 @@
         <v>165</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D224" s="11">
         <v>0.31</v>
@@ -6258,10 +6258,10 @@
         <v>165</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D225" s="11">
         <v>0.23</v>
@@ -6275,7 +6275,7 @@
         <v>142</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D226" s="11"/>
     </row>
@@ -6469,7 +6469,7 @@
         <v>96</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D240" s="13">
         <v>0.38</v>
@@ -6483,7 +6483,7 @@
         <v>98</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D241" s="13">
         <v>0.33</v>
@@ -6497,7 +6497,7 @@
         <v>97</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D242" s="13">
         <v>7.0000000000000007E-2</v>
@@ -6511,7 +6511,7 @@
         <v>99</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D243" s="13">
         <v>0.06</v>
@@ -6525,7 +6525,7 @@
         <v>100</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D244" s="13">
         <v>0.05</v>
@@ -6539,7 +6539,7 @@
         <v>102</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D245" s="13">
         <v>0.04</v>
@@ -6553,7 +6553,7 @@
         <v>103</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D246" s="13">
         <v>0.04</v>
@@ -6567,7 +6567,7 @@
         <v>104</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D247" s="13">
         <v>0.03</v>
@@ -6581,7 +6581,7 @@
         <v>105</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D248" s="13">
         <v>0.01</v>
@@ -6595,7 +6595,7 @@
         <v>142</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6789,7 +6789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7007,7 +7007,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="29">
         <v>1000</v>
@@ -7024,7 +7024,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="29">
         <v>1000</v>
@@ -7041,7 +7041,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="29">
         <v>1005</v>
@@ -7058,7 +7058,7 @@
         <v>146</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="29">
         <v>1029</v>
@@ -7075,7 +7075,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="28">
         <v>759</v>
@@ -7092,7 +7092,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="29">
         <v>1109</v>
@@ -7106,10 +7106,10 @@
         <v>145</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="29">
         <v>1000</v>
@@ -7126,7 +7126,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="28">
         <v>500</v>
@@ -7143,7 +7143,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="28">
         <v>500</v>
@@ -7160,7 +7160,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="28">
         <v>500</v>
@@ -7177,7 +7177,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="28">
         <v>500</v>
@@ -7194,7 +7194,7 @@
         <v>152</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="28">
         <v>499</v>
@@ -7211,7 +7211,7 @@
         <v>152</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="28">
         <v>500</v>
@@ -7228,7 +7228,7 @@
         <v>152</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="28">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         <v>160</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="29">
         <v>1001</v>
@@ -7262,7 +7262,7 @@
         <v>152</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="28">
         <v>500</v>
@@ -7279,7 +7279,7 @@
         <v>160</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="29">
         <v>1002</v>
@@ -7296,7 +7296,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="28">
         <v>500</v>
@@ -7313,7 +7313,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="28">
         <v>507</v>
@@ -7330,7 +7330,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="28">
         <v>531</v>
@@ -7347,7 +7347,7 @@
         <v>167</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="28">
         <v>522</v>
@@ -7364,7 +7364,7 @@
         <v>160</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="29">
         <v>1500</v>
@@ -7381,7 +7381,7 @@
         <v>160</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" s="29">
         <v>1002</v>
@@ -7398,7 +7398,7 @@
         <v>160</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" s="29">
         <v>2010</v>
@@ -7415,7 +7415,7 @@
         <v>172</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="29">
         <v>2002</v>
@@ -7432,7 +7432,7 @@
         <v>172</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" s="29">
         <v>2000</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>145</v>
@@ -7449,7 +7449,7 @@
         <v>160</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="29">
         <v>1014</v>
@@ -7466,7 +7466,7 @@
         <v>160</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" s="29">
         <v>2023</v>
@@ -8706,15 +8706,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -8723,6 +8714,15 @@
     <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8969,14 +8969,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -8989,6 +8981,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9314C-EB72-604E-B743-0D49ECC8B04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086020BD-301C-6A4B-8658-102CCB7257E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="388">
   <si>
     <t>Sample Size</t>
   </si>
@@ -610,9 +610,6 @@
   </si>
   <si>
     <t>In total, 28 interviewers worked on this project, including 18 female interviewers. Enumerators worked in six groups of four to five interviewers with at one supervisor per group. Interviews were conducted in Spanish.</t>
-  </si>
-  <si>
-    <t>Datum Internacional S.A.</t>
   </si>
   <si>
     <t>Lima, Peru</t>
@@ -746,9 +743,6 @@
     <t>Argentina and Paraguay</t>
   </si>
   <si>
-    <t>Datum Internacional S.A. and BM Business Partners</t>
-  </si>
-  <si>
     <t>April and June 2021</t>
   </si>
   <si>
@@ -1205,6 +1199,18 @@
   </si>
   <si>
     <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. In city districts, neighborhoods served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each city. Within each neighborhood, blocks were selected as enumeration areas using simple random sampling. In rural areas, &lt;i&gt; veredas &lt;/i&gt;, or municipalities, served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each area. Within each vereda, zones were selected as enumeration areas using simple random sampling. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>Captura Consulting</t>
+  </si>
+  <si>
+    <t>Tempo Group SA</t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A./BM Business Partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum Internacional S.A. </t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1822,10 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1905,7 +1911,7 @@
         <v>1000</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="F2" s="21">
         <v>2022</v>
@@ -1964,7 +1970,7 @@
         <v>1000</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="F3" s="30">
         <v>2022</v>
@@ -1994,7 +2000,7 @@
         <v>123</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>184</v>
@@ -2082,7 +2088,7 @@
         <v>1029</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>189</v>
+        <v>387</v>
       </c>
       <c r="F5" s="21">
         <v>2022</v>
@@ -2097,28 +2103,28 @@
         <v>22</v>
       </c>
       <c r="J5" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>190</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>191</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>117</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>126</v>
       </c>
       <c r="O5" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="R5" s="22" t="s">
         <v>181</v>
@@ -2150,40 +2156,40 @@
         <v>16</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>117</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="O6" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="P6" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="S6" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="126" customHeight="1">
@@ -2209,40 +2215,40 @@
         <v>16</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="N7" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="O7" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="P7" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="126" customHeight="1">
@@ -2259,49 +2265,49 @@
         <v>1000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="F8" s="13">
         <v>2021</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>117</v>
       </c>
       <c r="M8" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="O8" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="P8" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="S8" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="126" customHeight="1">
@@ -2318,7 +2324,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" s="21">
         <v>2022</v>
@@ -2327,40 +2333,40 @@
         <v>20</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>157</v>
       </c>
       <c r="K9" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="O9" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
@@ -2386,40 +2392,40 @@
         <v>2022</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I10" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>288</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>290</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>117</v>
       </c>
       <c r="M10" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="O10" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="S10" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="126" customHeight="1">
@@ -2442,43 +2448,43 @@
         <v>2022</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="L11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="O11" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="S11" s="21" t="s">
         <v>305</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="126" customHeight="1">
@@ -2504,40 +2510,40 @@
         <v>2022</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="K12" s="21" t="s">
+      <c r="M12" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="N12" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="O12" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="Q12" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="S12" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="126" customHeight="1">
@@ -2563,40 +2569,40 @@
         <v>2022</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I13" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K13" s="21" t="s">
+      <c r="N13" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="M13" s="21" t="s">
+      <c r="O13" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="P13" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="Q13" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="S13" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="126" customHeight="1">
@@ -2622,40 +2628,40 @@
         <v>2022</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I14" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="P14" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>335</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2737,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2745,7 +2751,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2759,7 +2765,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -2789,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2800,10 +2806,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2817,7 +2823,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -2847,7 +2853,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2861,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2875,7 +2881,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -2887,10 +2893,10 @@
         <v>101</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -2902,7 +2908,7 @@
         <v>107</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2913,7 +2919,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D15" s="13">
         <v>17</v>
@@ -2921,7 +2927,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>107</v>
@@ -2930,13 +2936,13 @@
         <v>32</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>101</v>
@@ -2945,7 +2951,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -2971,7 +2977,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -2988,7 +2994,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -3000,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D21" s="11">
         <v>26</v>
@@ -3018,7 +3024,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3029,7 +3035,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -3046,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -3058,7 +3064,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" s="11">
         <v>15</v>
@@ -3076,7 +3082,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3087,7 +3093,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D27" s="13">
         <v>28</v>
@@ -3279,7 +3285,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="16"/>
       <c r="G11" s="37"/>
@@ -3522,7 +3528,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -3745,7 +3751,7 @@
         <v>142</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="16"/>
     </row>
@@ -4010,7 +4016,7 @@
         <v>142</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -4207,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D77" s="13">
         <v>0.39500000000000002</v>
@@ -4221,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" s="13">
         <v>0.1</v>
@@ -4235,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D79" s="13">
         <v>0.107</v>
@@ -4249,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D80" s="13">
         <v>0.2</v>
@@ -4263,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" s="13">
         <v>0.11</v>
@@ -4277,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D82" s="13">
         <v>9.1999999999999998E-2</v>
@@ -4291,7 +4297,7 @@
         <v>142</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4484,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D97" s="11">
         <v>0.54</v>
@@ -4498,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D98" s="11">
         <v>0.21</v>
@@ -4540,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D101" s="11">
         <v>0.03</v>
@@ -4554,7 +4560,7 @@
         <v>142</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D102" s="11"/>
     </row>
@@ -4748,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D116" s="13">
         <v>0.115</v>
@@ -4762,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D117" s="13">
         <v>2.4E-2</v>
@@ -4776,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D118" s="13">
         <v>7.0999999999999994E-2</v>
@@ -4790,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D119" s="13">
         <v>1.2E-2</v>
@@ -4804,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D120" s="13">
         <v>7.8E-2</v>
@@ -4818,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D121" s="13">
         <v>2.6000000000000002E-2</v>
@@ -4832,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D122" s="13">
         <v>3.2000000000000001E-2</v>
@@ -4860,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D124" s="13">
         <v>3.5000000000000003E-2</v>
@@ -4874,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D125" s="13">
         <v>4.2999999999999997E-2</v>
@@ -4888,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D126" s="13">
         <v>3.1E-2</v>
@@ -4902,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D127" s="13">
         <v>8.5000000000000006E-2</v>
@@ -4916,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D128" s="13">
         <v>1.7999999999999999E-2</v>
@@ -4930,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D129" s="13">
         <v>1.2E-2</v>
@@ -4944,7 +4950,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D130" s="13">
         <v>3.5999999999999997E-2</v>
@@ -4958,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D131" s="13">
         <v>1.7999999999999999E-2</v>
@@ -4972,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D132" s="13">
         <v>6.0999999999999999E-2</v>
@@ -4986,7 +4992,7 @@
         <v>142</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5173,13 +5179,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D147" s="11">
         <v>0.78</v>
@@ -5187,13 +5193,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D148" s="11">
         <v>0.16</v>
@@ -5201,13 +5207,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D149" s="11">
         <v>0.06</v>
@@ -5215,19 +5221,19 @@
     </row>
     <row r="150" spans="1:4" ht="48">
       <c r="A150" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>52</v>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>52</v>
@@ -5255,7 +5261,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>55</v>
@@ -5269,7 +5275,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>55</v>
@@ -5283,7 +5289,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>58</v>
@@ -5297,7 +5303,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>58</v>
@@ -5311,7 +5317,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>58</v>
@@ -5325,7 +5331,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>58</v>
@@ -5339,7 +5345,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>58</v>
@@ -5353,7 +5359,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>58</v>
@@ -5367,7 +5373,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>58</v>
@@ -5381,7 +5387,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>58</v>
@@ -5395,7 +5401,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>58</v>
@@ -5412,10 +5418,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D164" s="13">
         <v>0.37</v>
@@ -5426,10 +5432,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D165" s="13">
         <v>0.16</v>
@@ -5440,10 +5446,10 @@
         <v>162</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D166" s="13">
         <v>0.1</v>
@@ -5454,10 +5460,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D167" s="13">
         <v>0.08</v>
@@ -5468,10 +5474,10 @@
         <v>162</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D168" s="13">
         <v>0.06</v>
@@ -5482,10 +5488,10 @@
         <v>162</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D169" s="13">
         <v>0.06</v>
@@ -5496,10 +5502,10 @@
         <v>162</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D170" s="13">
         <v>0.06</v>
@@ -5510,10 +5516,10 @@
         <v>162</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D171" s="13">
         <v>0.04</v>
@@ -5524,10 +5530,10 @@
         <v>162</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D172" s="13">
         <v>0.04</v>
@@ -5538,10 +5544,10 @@
         <v>162</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D173" s="13">
         <v>3.1E-2</v>
@@ -5555,7 +5561,7 @@
         <v>142</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5748,7 +5754,7 @@
         <v>96</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D188" s="11">
         <v>0.73</v>
@@ -5762,7 +5768,7 @@
         <v>98</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D189" s="11">
         <v>0.14199999999999999</v>
@@ -5773,10 +5779,10 @@
         <v>163</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D190" s="11">
         <v>0.128</v>
@@ -5790,7 +5796,7 @@
         <v>142</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D191" s="11"/>
     </row>
@@ -5984,7 +5990,7 @@
         <v>96</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D205" s="13">
         <v>0.36899999999999999</v>
@@ -6040,7 +6046,7 @@
         <v>142</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6230,10 +6236,10 @@
         <v>165</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D223" s="11">
         <v>0.45800000000000002</v>
@@ -6244,10 +6250,10 @@
         <v>165</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D224" s="11">
         <v>0.31</v>
@@ -6258,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D225" s="11">
         <v>0.23</v>
@@ -6275,7 +6281,7 @@
         <v>142</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D226" s="11"/>
     </row>
@@ -6469,7 +6475,7 @@
         <v>96</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D240" s="13">
         <v>0.38</v>
@@ -6483,7 +6489,7 @@
         <v>98</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D241" s="13">
         <v>0.33</v>
@@ -6497,7 +6503,7 @@
         <v>97</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D242" s="13">
         <v>7.0000000000000007E-2</v>
@@ -6511,7 +6517,7 @@
         <v>99</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D243" s="13">
         <v>0.06</v>
@@ -6525,7 +6531,7 @@
         <v>100</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D244" s="13">
         <v>0.05</v>
@@ -6539,7 +6545,7 @@
         <v>102</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D245" s="13">
         <v>0.04</v>
@@ -6553,7 +6559,7 @@
         <v>103</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D246" s="13">
         <v>0.04</v>
@@ -6567,7 +6573,7 @@
         <v>104</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D247" s="13">
         <v>0.03</v>
@@ -6581,7 +6587,7 @@
         <v>105</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D248" s="13">
         <v>0.01</v>
@@ -6595,7 +6601,7 @@
         <v>142</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7007,7 +7013,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="29">
         <v>1000</v>
@@ -7024,7 +7030,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="29">
         <v>1000</v>
@@ -7041,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="29">
         <v>1005</v>
@@ -7058,7 +7064,7 @@
         <v>146</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="29">
         <v>1029</v>
@@ -7075,7 +7081,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="28">
         <v>759</v>
@@ -7092,7 +7098,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="29">
         <v>1109</v>
@@ -7106,10 +7112,10 @@
         <v>145</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="29">
         <v>1000</v>
@@ -7126,7 +7132,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="28">
         <v>500</v>
@@ -7143,7 +7149,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="28">
         <v>500</v>
@@ -7160,7 +7166,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="28">
         <v>500</v>
@@ -7177,7 +7183,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="28">
         <v>500</v>
@@ -7194,7 +7200,7 @@
         <v>152</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="28">
         <v>499</v>
@@ -7211,7 +7217,7 @@
         <v>152</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="28">
         <v>500</v>
@@ -7228,7 +7234,7 @@
         <v>152</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="28">
         <v>500</v>
@@ -7245,7 +7251,7 @@
         <v>160</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="29">
         <v>1001</v>
@@ -7262,7 +7268,7 @@
         <v>152</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="28">
         <v>500</v>
@@ -7279,7 +7285,7 @@
         <v>160</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="29">
         <v>1002</v>
@@ -7296,7 +7302,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="28">
         <v>500</v>
@@ -7313,7 +7319,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="28">
         <v>507</v>
@@ -7330,7 +7336,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="28">
         <v>531</v>
@@ -7347,7 +7353,7 @@
         <v>167</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="28">
         <v>522</v>
@@ -7364,7 +7370,7 @@
         <v>160</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="29">
         <v>1500</v>
@@ -7381,7 +7387,7 @@
         <v>160</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="29">
         <v>1002</v>
@@ -7398,7 +7404,7 @@
         <v>160</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="29">
         <v>2010</v>
@@ -7415,7 +7421,7 @@
         <v>172</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E26" s="29">
         <v>2002</v>
@@ -7432,7 +7438,7 @@
         <v>172</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="29">
         <v>2000</v>
@@ -7440,7 +7446,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>145</v>
@@ -7449,7 +7455,7 @@
         <v>160</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="29">
         <v>1014</v>
@@ -7466,7 +7472,7 @@
         <v>160</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E29" s="29">
         <v>2023</v>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086020BD-301C-6A4B-8658-102CCB7257E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D84A917-4440-F24D-B88C-BDA3822885E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16060" windowHeight="18000" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="388">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1821,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6793,10 +6793,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6965,6 +6965,23 @@
       </c>
       <c r="C8">
         <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9">
+        <v>445</v>
+      </c>
+      <c r="C9">
+        <v>284</v>
+      </c>
+      <c r="D9">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8712,26 +8729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -8974,32 +8971,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9016,4 +9008,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D84A917-4440-F24D-B88C-BDA3822885E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67B78A-CD19-824C-9E69-5F9CCA8DF2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16060" windowHeight="18000" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="16880" yWindow="0" windowWidth="11920" windowHeight="18000" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="389">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t xml:space="preserve">Datum Internacional S.A. </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -6793,10 +6796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6982,6 +6985,281 @@
       </c>
       <c r="E9">
         <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10">
+        <v>793</v>
+      </c>
+      <c r="C10">
+        <v>516</v>
+      </c>
+      <c r="D10">
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <v>186</v>
+      </c>
+      <c r="F10">
+        <v>143</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11">
+        <v>1761</v>
+      </c>
+      <c r="C11">
+        <v>1745</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12">
+        <v>285</v>
+      </c>
+      <c r="C12">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>3287</v>
+      </c>
+      <c r="C13">
+        <v>3224</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>471</v>
+      </c>
+      <c r="C15">
+        <v>293</v>
+      </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16">
+        <v>447</v>
+      </c>
+      <c r="C16">
+        <v>268</v>
+      </c>
+      <c r="D16">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17">
+        <v>393</v>
+      </c>
+      <c r="C17">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18">
+        <v>405</v>
+      </c>
+      <c r="C18">
+        <v>248</v>
+      </c>
+      <c r="D18">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19">
+        <v>379</v>
+      </c>
+      <c r="C19">
+        <v>243</v>
+      </c>
+      <c r="D19">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20">
+        <v>382</v>
+      </c>
+      <c r="C20">
+        <v>243</v>
+      </c>
+      <c r="D20">
+        <v>68</v>
+      </c>
+      <c r="E20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21">
+        <v>381</v>
+      </c>
+      <c r="C21">
+        <v>253</v>
+      </c>
+      <c r="D21">
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>706</v>
+      </c>
+      <c r="C22">
+        <v>468</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>173</v>
+      </c>
+      <c r="F22">
+        <v>150</v>
+      </c>
+      <c r="G22">
+        <v>69</v>
+      </c>
+      <c r="H22">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -8729,6 +9007,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -8971,15 +9258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8992,6 +9270,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9006,14 +9292,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67B78A-CD19-824C-9E69-5F9CCA8DF2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C4DE6-8553-A945-8FE2-4C49D197FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="0" windowWidth="11920" windowHeight="18000" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="16880" yWindow="500" windowWidth="11920" windowHeight="15700" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="388">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1211,9 +1211,6 @@
   </si>
   <si>
     <t xml:space="preserve">Datum Internacional S.A. </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -6798,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7112,9 +7109,6 @@
       </c>
       <c r="G14">
         <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9007,12 +9001,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9259,20 +9255,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9297,18 +9300,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C4DE6-8553-A945-8FE2-4C49D197FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB62E5-0DA3-BD45-A4D2-D6EBDF19F9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="500" windowWidth="11920" windowHeight="15700" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="392">
   <si>
     <t>Sample Size</t>
   </si>
@@ -885,12 +885,6 @@
     <t>English</t>
   </si>
   <si>
-    <t xml:space="preserve">Most respondents (35%) identified themselves as White, followed by Mixed Race (35%), and Black (20%). </t>
-  </si>
-  <si>
-    <t>Most respondents (96%) reported that they had received at least a high school diploma or  vocational degree and the remaining 3% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
     <t>Given The Bahamas’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
   </si>
   <si>
@@ -915,15 +909,6 @@
     <t>CID Gallup based the sampling frame on 2018 population figures from the National Statistics Office of Dominican Republic (ONE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
   </si>
   <si>
-    <t xml:space="preserve">More than one-quarter of all respondents (27%) identified themselves as Mestizo, followed by Mulatto (24%) and White (20%). </t>
-  </si>
-  <si>
-    <t>Most respondents (52%) reported that they had received up to a middle school diploma, and the remaining 48% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <t>Regions, provinces, and municipalities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Districts were then selected as the primary sampling unit using probability proportionate to size sampling. Within cities and towns, enumeration areas were selected at the cantón, or neighborhood, level via systematic random sampling based on the population of each area. Within the sampled segments, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t>In total, 52 interviewers worked on this project, including 31 female interviewers. Enumerators worked in ten groups of five to six interviewers with one to two supervisors per group. Interviews were conducted in Spanish.</t>
   </si>
   <si>
@@ -936,30 +921,12 @@
     <t>The Bahamas, Guyana, Haiti, Jamaica, and Suriname</t>
   </si>
   <si>
-    <t>2018 / 2022</t>
-  </si>
-  <si>
-    <t>Guyanese individual</t>
-  </si>
-  <si>
     <t>StatMark Group based the sampling frame on 2012 population figures from the Bureau of Statistics of Guyana, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
   </si>
   <si>
-    <t xml:space="preserve">Thirty percent (39%) of respondents identified themselves as Afro-Guyanese, followed by Mixed-Race (26%) and Indo-Guyanese (23%). </t>
-  </si>
-  <si>
-    <t>Most respondents (55%) reported that they had received at least a high school diploma or  vocational degree and the remaining 42% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Regions and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities, neighborhoods were selected as primary sampling units using probability proportional to size sampling. Street blocks within the primary sampling units were selected at random, and each house within the selected segment was approached. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t>In total, 21 interviewers worked on this project, all of whom were female. Enumerators worked in five groups of three to five interviewers. Interviews were conducted in English.</t>
   </si>
   <si>
-    <t>The supervisory team directly oversaw or backchecked via telephone 150 interviews (approximately 30% of the total sample). Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal answer patterns. Interviews averaged 41 minutes in length and ranged from 21 to 108 minutes.</t>
-  </si>
-  <si>
     <t>Data for Guyana, The Bahamas, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
   </si>
   <si>
@@ -969,10 +936,6 @@
     <t>Haitian</t>
   </si>
   <si>
-    <t xml:space="preserve">CID Gallup based the sampling frame on the 2022 projected population figures from the United Nations Economic Commission for Latin America and the Caribbean (ECLAC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization
-</t>
-  </si>
-  <si>
     <t>English and Haitian Creole</t>
   </si>
   <si>
@@ -982,9 +945,6 @@
     <t>Most respondents (73%) reported that they had received up to a middle school diploma, and the remaining 26% of respondents received at least a high school diploma or vocational degree.</t>
   </si>
   <si>
-    <t>Regions and communes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within communes, populated areas were selected as the primary sampling unit using probability proportional to size sampling. Enumeration areas were then randomly selected at the neighborhood level. Within the sampled segments, survey administrators performed a systematic random route around a central point of reference to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t>In total, 32 interviewers worked on this project, including 15 female interviewers. Enumerators worked in eight groups of four interviewers with one supervisor each. Interviews were conducted in Haitian Creole.</t>
   </si>
   <si>
@@ -1006,15 +966,6 @@
     <t xml:space="preserve">Most respondents (82%) identified themselves as Afro-Jamaican, followed by Mixed Race (14%).   </t>
   </si>
   <si>
-    <t>Most respondents (77%) reported that they had received at least a high school diploma or  vocational degree and the remaining 19% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities, parishes were selected as primary sampling units using probability proportional to size sampling. Neighborhoods within the primary sampling units were selected at random, and each house within the selected segment was approached. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household. </t>
-  </si>
-  <si>
-    <t>In total, 39 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 19 groups of five interviewers. Interviews were conducted in English.</t>
-  </si>
-  <si>
     <t>The supervisory team directly oversaw or backchecked via telephone 300 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. After  quality control, 69 interviews were rejected from the final sample Interviews averaged 40 minutes in length and ranged from 20 to 99 minutes.</t>
   </si>
   <si>
@@ -1024,33 +975,15 @@
     <t>The Bahamas, the Dominican Republic, Guyana, Haiti, and Suriname</t>
   </si>
   <si>
-    <t>Surinamese individual</t>
-  </si>
-  <si>
     <t>Virginia, U.S.A</t>
   </si>
   <si>
-    <t>D3: Designs, Data, Decisions based the sampling frame on 2012 population figures from the General Statistics Bureau of Suriname, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
     <t>English and Dutch</t>
   </si>
   <si>
-    <t xml:space="preserve">One-quarter of all respondents (25%) identified themselves as Maroon, followed by Creole (23%) and Mixed Race (18%). </t>
-  </si>
-  <si>
-    <t>Most respondents (67%) reported that they had received a middle school diploma or less, and the remaining 33% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <t>Districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Due to accessibility issues, the district of Sipaliwini was excluded from the sampling frame. Within districts, communes were selected as the primary sampling unit using probability proportionate to size sampling. Individual sampling segments  were then selected randomly. Within the sampled segments, survey administrators performed a systematic random route to sample households and used survey software to randomly select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t xml:space="preserve">In total, 19 interviewers worked on this project, including 18 female interviewers. In addition, five fieldwork supervisors and one country lead worked on this project. Interviews were conducted in Dutch. </t>
   </si>
   <si>
-    <t>The supervisory team directly oversaw at least two interviews per interview in the field. During data processing, 80 interviews (approximately 16% of the sample) were selected for audio review by the central office. Additional quality control measures included GPS validation, data checks, and checks for abnormal answer patterns. Interviews averaged 52 minutes in length and ranged from 29 to 84 minutes.</t>
-  </si>
-  <si>
     <t>Data for Suriname, The Bahamas, and Guyana was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
   </si>
   <si>
@@ -1211,6 +1144,85 @@
   </si>
   <si>
     <t xml:space="preserve">Datum Internacional S.A. </t>
+  </si>
+  <si>
+    <t>between July and August 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-nine percent (49%) of respondents identified themselves as Afro-Bahamian or “Other,” followed by Indigenous (39%) and Mixed (12%). </t>
+  </si>
+  <si>
+    <t>Most respondents (97%) reported that they had received at least a high school diploma or  vocational degree and the remaining 3% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>between June and July 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than one-quarter (27%) of all respondents identified themselves as Mestizo, followed by Mulatto (24%) and White (20%). </t>
+  </si>
+  <si>
+    <t>More than half of all respondents (52%) reported that they had received up to a middle school diploma, and the remaining 48% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Municipalities were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks selected via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on the relative population size of each municipality. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>Guyanese respondent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty percent (39%) of respondents identified themselves as Afro-Guyanese, followed by Mixed Race (26%) and Indo-Guyanese (23%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than half of all respondents (57%) reported that they received at least a high school diploma or vocational degree and the remaining 43% of respondents received up to a middle school diploma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and metropolitan areas were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within metropolitan areas, towns and neighborhoods were selected as primary sampling units using probability proportional to size sampling. Street blocks within the primary sampling units were selected at random, and each house within the selected enumeration area was approached. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw or backchecked via telephone 150 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. Interviews averaged 41 minutes in length and ranged from 21 to 108 minutes.</t>
+  </si>
+  <si>
+    <t>in June 2022</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on the 2022 projected population figures from the Latin American and Caribbean Demographic Center (CELADE) of the United Nations Economic Commission for Latin America and the Caribbean (CEPAL), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions, arrondissements, and communes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within communes, populated areas were selected as the primary sampling unit using probability proportional to size sampling. Enumeration areas were then randomly selected at the neighborhood level. Within each enumeration area, survey administrators performed a systematic random route around a central point of reference to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>between June and August 2022</t>
+  </si>
+  <si>
+    <t>Most respondents (80%) reported that they received at least a high school diploma or vocational degree and the remaining 20% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and parishes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within parishes, cities were then selected as primary sampling units using probability proportional to size sampling. Neighborhood blocks within the primary sampling units were selected at random, and each house within the selected enumeration area was approached. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>In total, 39 interviewers worked on this project, including 28 female interviewers. Enumerators worked in groups of five interviewers each. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>between May and June 2022</t>
+  </si>
+  <si>
+    <t>Surinamese respondent</t>
+  </si>
+  <si>
+    <t>D3: Designs, Data, Decisions based the sampling frame on 2012 population figures from the General Statistics Bureau of Suriname, acquiring a proportionally stratified sample by district, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-quarter (25%) of all respondents identified themselves as Maroon, followed by Creole (23%) and Mixed Race (18%). </t>
+  </si>
+  <si>
+    <t>Most respondents (67%) reported that they had received up to a middle school diploma, and the remaining 33% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Districts and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities and towns, communes were selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas were then selected randomly. Within each enumeration area, survey administrators performed a systematic random route to sample households and used survey software to randomly select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  
+Due to accessibility issues, the district of Sipaliwini was excluded from the sampling frame. Within the Brokopondo district, the Brokopondo Centrum and Brownsweg communes were replaced Klaaskreek and Marchallkreek due to flooding that made the original areas inaccessible. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw at least two interviews per interviewer in the field. During data processing, 80 interviews (approximately 16% of the sample) were selected for audio review by the central office. Additional quality control measures included GPS validation, data checks, and checks for abnormal answer patterns. Interviews averaged 52 minutes in length and ranged from 29 to 104 minutes.</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1489,12 +1501,65 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1821,11 +1886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1911,7 +1976,7 @@
         <v>1000</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="F2" s="21">
         <v>2022</v>
@@ -1970,7 +2035,7 @@
         <v>1000</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="F3" s="30">
         <v>2022</v>
@@ -2000,7 +2065,7 @@
         <v>123</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>184</v>
@@ -2088,7 +2153,7 @@
         <v>1029</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="F5" s="21">
         <v>2022</v>
@@ -2265,7 +2330,7 @@
         <v>1000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="F8" s="13">
         <v>2021</v>
@@ -2320,7 +2385,7 @@
       <c r="C9" s="21">
         <v>122</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>500</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -2330,7 +2395,7 @@
         <v>2022</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>275</v>
@@ -2348,29 +2413,29 @@
         <v>278</v>
       </c>
       <c r="M9" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O9" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="R9" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="41" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="21">
@@ -2379,57 +2444,57 @@
       <c r="C10" s="21">
         <v>122</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="41">
         <v>1002</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="41" t="s">
         <v>160</v>
       </c>
       <c r="F10" s="21">
         <v>2022</v>
       </c>
-      <c r="G10" s="21">
-        <v>2022</v>
+      <c r="G10" s="21" t="s">
+        <v>369</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>288</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>117</v>
       </c>
       <c r="M10" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="R10" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="S10" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="11" spans="1:23" ht="126" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>163</v>
       </c>
       <c r="B11" s="21">
@@ -2438,53 +2503,53 @@
       <c r="C11" s="21">
         <v>122</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="42">
         <v>500</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="21">
         <v>2022</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>296</v>
+      <c r="G11" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>297</v>
+      <c r="I11" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>212</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>278</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>300</v>
+        <v>374</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>375</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="126" customHeight="1">
@@ -2497,53 +2562,53 @@
       <c r="C12" s="21">
         <v>122</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="41">
         <v>507</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="41" t="s">
         <v>160</v>
       </c>
       <c r="F12" s="21">
         <v>2022</v>
       </c>
-      <c r="G12" s="21">
-        <v>2022</v>
+      <c r="G12" s="44" t="s">
+        <v>378</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>275</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>287</v>
+        <v>295</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>285</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>310</v>
+        <v>297</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>298</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="126" customHeight="1">
@@ -2556,63 +2621,64 @@
       <c r="C13" s="21">
         <v>122</v>
       </c>
-      <c r="D13" s="21">
-        <v>531</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="22">
+        <v>1001</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="21">
         <v>2022</v>
       </c>
-      <c r="G13" s="21">
-        <v>2022</v>
+      <c r="G13" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>275</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="J13" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="J13" s="40" t="s">
         <v>212</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L13" s="21" t="s">
         <v>278</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>319</v>
+        <v>305</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>382</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="126" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="21">
-        <v>172</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B14" s="45">
+        <f>172-5</f>
+        <v>167</v>
+      </c>
+      <c r="C14" s="45">
         <v>122</v>
       </c>
       <c r="D14" s="21">
@@ -2624,65 +2690,110 @@
       <c r="F14" s="21">
         <v>2022</v>
       </c>
-      <c r="G14" s="21">
-        <v>2022</v>
+      <c r="G14" s="21" t="s">
+        <v>385</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>275</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>330</v>
+        <v>388</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>389</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" priority="7">
+    <cfRule type="expression" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K5 A6:XFD1048576 R1:XFD5">
-    <cfRule type="expression" dxfId="1" priority="5">
+  <conditionalFormatting sqref="A1:K5 A6:XFD8 R1:XFD5 A15:XFD1048576 T9:XFD14">
+    <cfRule type="expression" dxfId="6" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:Q5">
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:S14 K9:M14 A9:I14">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:Q5">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2927,7 +3038,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>107</v>
@@ -2942,7 +3053,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>101</v>
@@ -2977,7 +3088,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -3006,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D21" s="11">
         <v>26</v>
@@ -3024,7 +3135,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3035,7 +3146,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -3064,7 +3175,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D25" s="11">
         <v>15</v>
@@ -3093,7 +3204,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D27" s="13">
         <v>28</v>
@@ -5179,13 +5290,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D147" s="11">
         <v>0.78</v>
@@ -5193,13 +5304,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D148" s="11">
         <v>0.16</v>
@@ -5207,13 +5318,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D149" s="11">
         <v>0.06</v>
@@ -5221,19 +5332,19 @@
     </row>
     <row r="150" spans="1:4" ht="48">
       <c r="A150" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>52</v>
@@ -5247,7 +5358,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>52</v>
@@ -5261,7 +5372,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>55</v>
@@ -5275,7 +5386,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>55</v>
@@ -5289,7 +5400,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>58</v>
@@ -5303,7 +5414,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>58</v>
@@ -5317,7 +5428,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>58</v>
@@ -5331,7 +5442,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>58</v>
@@ -5345,7 +5456,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>58</v>
@@ -5359,7 +5470,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>58</v>
@@ -5373,7 +5484,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>58</v>
@@ -5387,7 +5498,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>58</v>
@@ -5401,7 +5512,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>58</v>
@@ -5418,10 +5529,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="D164" s="13">
         <v>0.37</v>
@@ -5432,10 +5543,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D165" s="13">
         <v>0.16</v>
@@ -5446,10 +5557,10 @@
         <v>162</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D166" s="13">
         <v>0.1</v>
@@ -5460,10 +5571,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="D167" s="13">
         <v>0.08</v>
@@ -5474,10 +5585,10 @@
         <v>162</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D168" s="13">
         <v>0.06</v>
@@ -5488,10 +5599,10 @@
         <v>162</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D169" s="13">
         <v>0.06</v>
@@ -5502,10 +5613,10 @@
         <v>162</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="D170" s="13">
         <v>0.06</v>
@@ -5516,10 +5627,10 @@
         <v>162</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D171" s="13">
         <v>0.04</v>
@@ -5530,10 +5641,10 @@
         <v>162</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="D172" s="13">
         <v>0.04</v>
@@ -5544,10 +5655,10 @@
         <v>162</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D173" s="13">
         <v>3.1E-2</v>
@@ -5561,7 +5672,7 @@
         <v>142</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5754,7 +5865,7 @@
         <v>96</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="D188" s="11">
         <v>0.73</v>
@@ -5768,7 +5879,7 @@
         <v>98</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D189" s="11">
         <v>0.14199999999999999</v>
@@ -5779,10 +5890,10 @@
         <v>163</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="D190" s="11">
         <v>0.128</v>
@@ -5796,7 +5907,7 @@
         <v>142</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D191" s="11"/>
     </row>
@@ -5990,7 +6101,7 @@
         <v>96</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="D205" s="13">
         <v>0.36899999999999999</v>
@@ -6046,7 +6157,7 @@
         <v>142</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6236,10 +6347,10 @@
         <v>165</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="D223" s="11">
         <v>0.45800000000000002</v>
@@ -6250,10 +6361,10 @@
         <v>165</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="D224" s="11">
         <v>0.31</v>
@@ -6264,10 +6375,10 @@
         <v>165</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D225" s="11">
         <v>0.23</v>
@@ -6281,7 +6392,7 @@
         <v>142</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="D226" s="11"/>
     </row>
@@ -6475,7 +6586,7 @@
         <v>96</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D240" s="13">
         <v>0.38</v>
@@ -6489,7 +6600,7 @@
         <v>98</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="D241" s="13">
         <v>0.33</v>
@@ -6503,7 +6614,7 @@
         <v>97</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="D242" s="13">
         <v>7.0000000000000007E-2</v>
@@ -6517,7 +6628,7 @@
         <v>99</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D243" s="13">
         <v>0.06</v>
@@ -6531,7 +6642,7 @@
         <v>100</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D244" s="13">
         <v>0.05</v>
@@ -6545,7 +6656,7 @@
         <v>102</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="D245" s="13">
         <v>0.04</v>
@@ -6559,7 +6670,7 @@
         <v>103</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D246" s="13">
         <v>0.04</v>
@@ -6573,7 +6684,7 @@
         <v>104</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="D247" s="13">
         <v>0.03</v>
@@ -6587,7 +6698,7 @@
         <v>105</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="D248" s="13">
         <v>0.01</v>
@@ -6601,7 +6712,7 @@
         <v>142</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6795,7 +6906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -6969,7 +7080,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B9">
         <v>445</v>
@@ -9001,14 +9112,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9255,27 +9364,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9300,9 +9402,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB62E5-0DA3-BD45-A4D2-D6EBDF19F9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5A628-96CF-DE4A-BCA9-DBACD32E3D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="386">
   <si>
     <t>Sample Size</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Tempo Group</t>
   </si>
   <si>
-    <t>May and June 2022</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -414,21 +411,6 @@
     <t>Peers</t>
   </si>
   <si>
-    <t xml:space="preserve">Most respondents (79%) reported that they had received at least a high school diploma or vocational degree, and the remaining 21% of respondents received a middle school diploma or less. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (82%) reported that they had received at least a high school diploma or vocational degree, and the remaining 18% of respondents received a middle school diploma or less. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (70%) reported that they had received at least a high school diploma or vocational degree, and the remaining 29% of respondents received a middle school diploma or less. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (60%) reported that they had received a middle school diploma or less, and the remaining 40% of respondents received at least a high school diploma or vocational degree. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almost half of all respondents (49%) identified themselves as Mestizo, followed by Aymara (22%) and Quechua (21%). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Most respondents (81%) identified themselves as Mestizo, followed by White (5%) and Afro-Ecuadoran (4%). </t>
   </si>
   <si>
@@ -576,19 +558,10 @@
     <t>Interviewing</t>
   </si>
   <si>
-    <t>Capture Consulting based the sampling frame on the 2020 projected population figures from the National Statistics Institute, acquiring a proportionally stratified sample by department, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departments and cities were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. In urban neighborhoods, enumeration areas were randomly selected. In rural neighborhoods, surveyors constructed the first enumeration area around a central point and selected additional sampling units from the surrounding area, moving in a clockwise direction. The number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t>In total, 71 interviewers worked on this project, including 45 female interviewers. Interviews were conducted in Spanish.</t>
   </si>
   <si>
     <t>The supervisory team directly oversaw 30% of all interviews in the field. During data processing, 300 interviews (approximately 30% of the sample) were backchecked via telephone by the central office. Additional quality control measures included GPS validation of all sampling segment interviews, checks for abnormal answer patterns, and photo verification. After quality control, 50 interviews were rejected from the final sample. Interviews averaged 45 minutes in length and ranged from 27 to 90 minutes.</t>
-  </si>
-  <si>
-    <t>Data for Bolivia, Colombia, and Peru was collected in 2013, 2016, 2018, and 2022. Data for Ecuador was collected in 2012, 2014, 2017, and 2022</t>
   </si>
   <si>
     <t>Bogotá, Colombia</t>
@@ -691,9 +664,6 @@
     <t xml:space="preserve">Most respondents (65%) identified themselves as White, followed by Mestizo (32%). </t>
   </si>
   <si>
-    <t>Most respondents (68%) reported that they had received a middle school diploma or less, and the remaining 32% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regions, districts, and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within cities and towns, census blocks were selected as the primary sampling unit using probability proportional to size sampling and five interviews were assigned to each unit. Within each sampling unit, survey administrators randomly selected a street block and performed a systematic random route to sample households, using a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
   </si>
   <si>
@@ -703,9 +673,6 @@
     <t>The supervisory team directly oversaw 26% of all interviews in the field. During data processing, 158 interviews (approximately 21% of the sample) were selected for audio review by the central office and 42 interviews (approximately 6% of the sample) were backchecked via telephone. After quality control, 37 interviews were rejected from the final sample. Interviews averaged 39 minutes in length and ranged from 19 to 98 minutes.</t>
   </si>
   <si>
-    <t>Data for Argentina was collected in 2013, 2016, 2018, and 2022. Data for Brazil was collected in 2011, 2014, 2017, and 2022. Data for Paraguay was collected in 2021</t>
-  </si>
-  <si>
     <t>Brazil and Paraguay</t>
   </si>
   <si>
@@ -722,9 +689,6 @@
   </si>
   <si>
     <t xml:space="preserve">Forty-three percent (43%) of respondents identified themselves as White, followed by Mixed Race, (35%), and Black (20%). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (76%) reported that they had received at least a high school diploma or vocational degree, and the remaining 24% of respondents received a middle school diploma or less. </t>
   </si>
   <si>
     <t xml:space="preserve">Regions and states were selected to achieve a nationally representative sample of the country. Within municipalities, census sectors were randomly selected, and the number of census sectors assigned to each municipality was proportionate to each municipality’s population. Within each census sector, survey administrators performed a systematic random route based on listed addresses to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
@@ -737,15 +701,9 @@
 The supervisory team directly oversaw 11% of all interviews in the field. During data processing, 160 interviews (approximately 14% of the sample) were selected for audio review by local supervision teams and 194 (approximately 18% of the sample) were selected for audio review by the central office. All interviews under 30 minutes were reviewed in full and disqualified if not properly conducted. After quality control, 180 interviews were rejected from the final sample. Interviews averaged 45 minutes in length and ranged from 28 to 101 minutes.</t>
   </si>
   <si>
-    <t>Data for Argentina was collected in 2013, 2016, 2018, and 2022. Data for Brazil was collected in 2011, 2014, 2017, and 2022. Data for Paraguay was collected in 2021.</t>
-  </si>
-  <si>
     <t>Argentina and Paraguay</t>
   </si>
   <si>
-    <t>April and June 2021</t>
-  </si>
-  <si>
     <t>Paraguayan</t>
   </si>
   <si>
@@ -753,9 +711,6 @@
   </si>
   <si>
     <t xml:space="preserve">Most respondents (86%) identified themselves as White, followed by Mestizo (12%). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (55%) reported that they had received at least a high school diploma or vocational degree, and the remaining 45% of respondents received a middle school diploma or less. </t>
   </si>
   <si>
     <t xml:space="preserve">Departments and districts were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. In urban areas, each enumeration area consisted of a randomly selected block. In rural areas, enumeration areas started at a randomly selected street. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  
@@ -768,9 +723,6 @@
     <t>The supervisory team directly oversaw 15% interviews in the field. During data processing, 50 interviews (approximately 5% of the sample) were backchecked via telephone. After quality control, 20 interviews were rejected from the final sample. Additional quality control measures included checks for abnormal answer patterns. Interviews averaged 25 minutes in length and ranged from 19 to 80 minutes.</t>
   </si>
   <si>
-    <t>Data for Argentina was collected in 2013, 2016, 2018, and 2022. Data for Brazil was collected in 2011, 2014, 2017, and 2022</t>
-  </si>
-  <si>
     <t>Argentina and Brazil</t>
   </si>
   <si>
@@ -894,9 +846,6 @@
     <t xml:space="preserve">The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (approximately 30% of the sample) were backchecked via telephone. After quality control, 21 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 52 minutes in length and ranged from 49 to 88 minutes. </t>
   </si>
   <si>
-    <t>Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
-  </si>
-  <si>
     <t>the Dominican Republic, Guyana, Haiti, Jamaica, and Suriname</t>
   </si>
   <si>
@@ -915,9 +864,6 @@
     <t>The supervisory team directly oversaw 43% of all interviews in the field. During data processing, 621 interviews (approximately 62% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 53 minutes in length and ranged from 45 to 100 minutes.</t>
   </si>
   <si>
-    <t>Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
-  </si>
-  <si>
     <t>The Bahamas, Guyana, Haiti, Jamaica, and Suriname</t>
   </si>
   <si>
@@ -927,9 +873,6 @@
     <t>In total, 21 interviewers worked on this project, all of whom were female. Enumerators worked in five groups of three to five interviewers. Interviews were conducted in English.</t>
   </si>
   <si>
-    <t>Data for Guyana, The Bahamas, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
-  </si>
-  <si>
     <t>The Bahamas, the Dominican Republic, Haiti, Jamaica, and Suriname</t>
   </si>
   <si>
@@ -951,9 +894,6 @@
     <t>The supervisory team directly oversaw 31% of all interviews in the field. During data processing, 253 interviews (approximately 50% of the sample) were selected for audio review by the central office. Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. Interviews averaged 42 minutes in length and ranged from 33 to 76 minutes.</t>
   </si>
   <si>
-    <t>Data for Haiti was collected in 2021 and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
-  </si>
-  <si>
     <t>The Bahamas, the Dominican Republic, Guyana, Jamaica, and Suriname</t>
   </si>
   <si>
@@ -969,9 +909,6 @@
     <t>The supervisory team directly oversaw or backchecked via telephone 300 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. After  quality control, 69 interviews were rejected from the final sample Interviews averaged 40 minutes in length and ranged from 20 to 99 minutes.</t>
   </si>
   <si>
-    <t>Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022</t>
-  </si>
-  <si>
     <t>The Bahamas, the Dominican Republic, Guyana, Haiti, and Suriname</t>
   </si>
   <si>
@@ -984,9 +921,6 @@
     <t xml:space="preserve">In total, 19 interviewers worked on this project, including 18 female interviewers. In addition, five fieldwork supervisors and one country lead worked on this project. Interviews were conducted in Dutch. </t>
   </si>
   <si>
-    <t>Data for Suriname, The Bahamas, and Guyana was collected in 2016, 2018, and 2022. Data for the Dominican Republic was collected in 2013, 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2011, 2014, 2017, 2019, and 2022</t>
-  </si>
-  <si>
     <t>The Bahamas, the Dominican Republic, Guyana, Haiti, and Jamaica</t>
   </si>
   <si>
@@ -1131,19 +1065,10 @@
     <t>Thirty-eight percent (38%) of the interviews took place in Paramaribo, followed by 33% in Wanica, 7% in Nickerie, and the remaining 22% in other regions</t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. In city districts, neighborhoods served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each city. Within each neighborhood, blocks were selected as enumeration areas using simple random sampling. In rural areas, &lt;i&gt; veredas &lt;/i&gt;, or municipalities, served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each area. Within each vereda, zones were selected as enumeration areas using simple random sampling. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t>Captura Consulting</t>
   </si>
   <si>
     <t>Tempo Group SA</t>
-  </si>
-  <si>
-    <t>Datum Internacional S.A./BM Business Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum Internacional S.A. </t>
   </si>
   <si>
     <t>between July and August 2022</t>
@@ -1223,13 +1148,114 @@
   </si>
   <si>
     <t>The supervisory team directly oversaw at least two interviews per interviewer in the field. During data processing, 80 interviews (approximately 16% of the sample) were selected for audio review by the central office. Additional quality control measures included GPS validation, data checks, and checks for abnormal answer patterns. Interviews averaged 52 minutes in length and ranged from 29 to 104 minutes.</t>
+  </si>
+  <si>
+    <t>Captura Consulting based the sampling frame on the 2020 projected population figures from the National Statistics Institute, acquiring a proportionally stratified sample by department, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost half (49%) of all respondents identified themselves as Mestizo, followed by Aymara (22%) and Quechua (21%). </t>
+  </si>
+  <si>
+    <t>Most respondents (82%) reported that they had received at least a high school diploma or vocational degree, and the remaining 18% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments and cities were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>Data for Bolivia, Colombia, and Peru was collected in 2016, 2018, and 2022. Data for Ecuador was collected in 2014, 2017, and 2022.</t>
+  </si>
+  <si>
+    <t>Most respondents (79%) reported that they had received at least a high school diploma or vocational degree, and the remaining 21% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regions and cities were selected to achieve a nationally representative sample of the country. In city districts, neighborhoods served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each city. Within each neighborhood, blocks were selected as enumeration areas using simple random sampling. In rural areas, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>veredas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or municipalities, served as the primary sampling unit and were randomly selected based on relative population sizes and the socioeconomic level distribution within each area. Within each </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vereda, zones were selected as enumeration areas using simple random sampling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Data for Bolivia, Colombia, and Peru was collected in 2016, 2018, and 2022. Data for Ecuador was collected in 2014, 2017, and 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (70%) reported that they had received at least a high school diploma or vocational degree, and the remaining 29% of respondents received up to a middle school diploma. </t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (60%) reported that they had received up to a middle school diploma, and the remaining 40% of respondents received at least a high school diploma or vocational degree. </t>
+  </si>
+  <si>
+    <t>Data for the Dominican Republic was collected in 2016, 2018, and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2014, 2017, 2019, and 2022</t>
+  </si>
+  <si>
+    <t>Most respondents (68%) reported that they had received up to a middle school diploma, and the remaining 32% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>Data for Argentina was collected in 2016, 2018, and 2022. Data for Brazil was collected in 2014, 2017, and 2022. Data for Paraguay was collected in 2021</t>
+  </si>
+  <si>
+    <t>Most respondents (76%) reported that they had received at least a high school diploma or vocational degree, and the remaining 24% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Datum Internacional S.A. and BM Business Partners</t>
+  </si>
+  <si>
+    <t>between April and June 2021</t>
+  </si>
+  <si>
+    <t>Lima, Peru and Montevideo, Uruguay, respectively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than half (55%) of all respondents reported that they had received at least a high school diploma or vocational degree, and the remaining 45% of respondents received a middle school diploma or less. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1336,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1424,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1473,9 +1513,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1519,12 +1556,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1887,10 +1984,10 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:S14"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1904,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
@@ -1916,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>3</v>
@@ -1928,34 +2025,34 @@
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
@@ -1963,421 +2060,421 @@
       <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:23" ht="125" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="13">
         <v>115</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="13">
         <v>77</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="45">
         <v>1000</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="13">
         <v>2022</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>109</v>
+      <c r="J2" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="K2" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="125" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13">
+        <v>115</v>
+      </c>
+      <c r="C3" s="13">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="125" customHeight="1">
+      <c r="A4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13">
+        <v>115</v>
+      </c>
+      <c r="C4" s="13">
+        <v>77</v>
+      </c>
+      <c r="D4" s="45">
+        <v>1005</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="L4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="O4" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P4" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q4" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="125" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13">
+        <v>115</v>
+      </c>
+      <c r="C5" s="13">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1029</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="K5" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="S2" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="125" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="L5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="126" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="47">
         <v>115</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C6" s="47">
         <v>77</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D6" s="48">
+        <v>759</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="48">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="126" customHeight="1">
+      <c r="A7" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="47">
+        <v>115</v>
+      </c>
+      <c r="C7" s="47">
+        <v>77</v>
+      </c>
+      <c r="D7" s="51">
+        <v>1109</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="126" customHeight="1">
+      <c r="A8" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="47">
+        <v>88</v>
+      </c>
+      <c r="C8" s="47">
+        <v>69</v>
+      </c>
+      <c r="D8" s="49">
         <v>1000</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="F3" s="30">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="125" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="21">
-        <v>115</v>
-      </c>
-      <c r="C4" s="22">
-        <v>77</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1005</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="21">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="125" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="21">
-        <v>115</v>
-      </c>
-      <c r="C5" s="22">
-        <v>77</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1029</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="F5" s="21">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="126" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="13">
-        <v>115</v>
-      </c>
-      <c r="C6" s="13">
-        <v>77</v>
-      </c>
-      <c r="D6" s="13">
-        <v>759</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="R6" s="21" t="s">
+      <c r="E8" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="48">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="J8" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="K8" s="39" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="126" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="13">
-        <v>115</v>
-      </c>
-      <c r="C7" s="13">
-        <v>77</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1109</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="L8" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="N8" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="P8" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="Q8" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="R8" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="S8" s="47" t="s">
         <v>225</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="126" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="13">
-        <v>88</v>
-      </c>
-      <c r="C8" s="13">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="126" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B9" s="21">
         <v>172</v>
@@ -2389,54 +2486,54 @@
         <v>500</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F9" s="21">
         <v>2022</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>368</v>
+        <v>342</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>343</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>162</v>
+      <c r="A10" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="B10" s="21">
         <v>172</v>
@@ -2444,58 +2541,58 @@
       <c r="C10" s="21">
         <v>122</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>1002</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>160</v>
+      <c r="E10" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="F10" s="21">
         <v>2022</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>285</v>
+        <v>259</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>371</v>
+        <v>345</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>346</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="126" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B11" s="21">
         <v>172</v>
@@ -2503,58 +2600,58 @@
       <c r="C11" s="21">
         <v>122</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>500</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="21">
         <v>2022</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>366</v>
+      <c r="G11" s="42" t="s">
+        <v>341</v>
       </c>
       <c r="H11" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="126" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B12" s="21">
         <v>172</v>
@@ -2562,58 +2659,58 @@
       <c r="C12" s="21">
         <v>122</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="40">
         <v>507</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>160</v>
+      <c r="E12" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="F12" s="21">
         <v>2022</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="R12" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>301</v>
-      </c>
       <c r="S12" s="21" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="126" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" s="21">
         <v>172</v>
@@ -2625,171 +2722,192 @@
         <v>1001</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="21">
         <v>2022</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>212</v>
+        <v>283</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>382</v>
+        <v>285</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>357</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="126" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="45">
+        <v>160</v>
+      </c>
+      <c r="B14" s="44">
         <f>172-5</f>
         <v>167</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>122</v>
       </c>
       <c r="D14" s="21">
         <v>502</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F14" s="21">
         <v>2022</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>389</v>
+        <v>363</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>364</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" priority="18">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A15:XFD1048576 T2:XFD14">
+    <cfRule type="expression" dxfId="13" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K5 A6:XFD8 R1:XFD5 A15:XFD1048576 T9:XFD14">
-    <cfRule type="expression" dxfId="6" priority="16">
+  <conditionalFormatting sqref="L1:Q1">
+    <cfRule type="expression" dxfId="12" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
+    <cfRule type="expression" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
     <cfRule type="expression" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:Q5">
-    <cfRule type="expression" dxfId="5" priority="14">
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15">
+    <cfRule type="expression" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:S14 K9:M14 A9:I14">
-    <cfRule type="expression" dxfId="4" priority="9">
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6">
+    <cfRule type="expression" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:S8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -2822,19 +2940,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2842,13 +2960,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>199</v>
+        <v>28</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2856,39 +2974,39 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>200</v>
+        <v>28</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="23">
         <v>18</v>
@@ -2897,56 +3015,56 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>202</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="23">
         <v>15</v>
@@ -2955,82 +3073,82 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D15" s="13">
         <v>17</v>
@@ -3038,43 +3156,43 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="13">
         <v>10</v>
@@ -3082,13 +3200,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -3096,28 +3214,28 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D21" s="11">
         <v>26</v>
@@ -3126,27 +3244,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -3154,28 +3272,28 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D25" s="11">
         <v>15</v>
@@ -3184,27 +3302,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D27" s="13">
         <v>28</v>
@@ -3234,16 +3352,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3251,10 +3369,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="16">
         <f>285/1000</f>
@@ -3266,10 +3384,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="16">
         <f>254/1000</f>
@@ -3284,10 +3402,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="16">
         <f>176/1000</f>
@@ -3299,10 +3417,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="16">
         <f>55/1000</f>
@@ -3314,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="16">
         <f>50/1000</f>
@@ -3329,10 +3447,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="16">
         <f>76/1000</f>
@@ -3344,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16">
         <f>46/1000</f>
@@ -3359,17 +3477,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="16">
         <f>43/1000</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3377,39 +3495,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="16">
         <f>15/1000</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="64">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>206</v>
+      <c r="B11" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="16">
         <v>0.53</v>
@@ -3420,10 +3538,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16">
         <v>0.47</v>
@@ -3434,10 +3552,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="16">
         <v>0.5</v>
@@ -3448,10 +3566,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="16">
         <v>0.5</v>
@@ -3462,10 +3580,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="16">
         <v>3.0000000000000001E-3</v>
@@ -3476,10 +3594,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="16">
         <v>7.5999999999999998E-2</v>
@@ -3490,10 +3608,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="16">
         <v>0.105</v>
@@ -3504,10 +3622,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="16">
         <v>0.38100000000000001</v>
@@ -3519,10 +3637,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="16">
         <v>0.26500000000000001</v>
@@ -3533,10 +3651,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="16">
         <v>4.2000000000000003E-2</v>
@@ -3548,10 +3666,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="16">
         <v>0.127</v>
@@ -3562,10 +3680,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="15">
         <v>0.184</v>
@@ -3577,10 +3695,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="16">
         <v>0.81499999999999995</v>
@@ -3588,13 +3706,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="12">
         <f>412/1000</f>
@@ -3603,13 +3721,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="12">
         <f>350/1000</f>
@@ -3618,13 +3736,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="12">
         <f>238/1000</f>
@@ -3632,26 +3750,26 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="64">
-      <c r="A28" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>207</v>
+      <c r="A28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D29" s="12">
         <v>0.76300000000000001</v>
@@ -3659,13 +3777,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="12">
         <v>0.23699999999999999</v>
@@ -3673,13 +3791,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D31" s="12">
         <v>0.48699999999999999</v>
@@ -3687,13 +3805,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="12">
         <v>0.51300000000000001</v>
@@ -3701,13 +3819,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D33" s="12">
         <v>7.0000000000000001E-3</v>
@@ -3715,13 +3833,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="12">
         <v>8.5000000000000006E-2</v>
@@ -3729,13 +3847,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="12">
         <v>0.12</v>
@@ -3743,13 +3861,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="12">
         <v>0.38</v>
@@ -3757,13 +3875,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="12">
         <v>0.21199999999999999</v>
@@ -3771,13 +3889,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="12">
         <v>7.1999999999999995E-2</v>
@@ -3785,13 +3903,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="12">
         <v>0.12</v>
@@ -3799,13 +3917,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="12">
         <v>0.21200000000000002</v>
@@ -3813,13 +3931,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="12">
         <v>0.79</v>
@@ -3828,13 +3946,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="16">
         <v>0.54</v>
@@ -3842,39 +3960,39 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="16">
         <v>0.46</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="48">
-      <c r="A44" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>208</v>
+      <c r="A44" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D45" s="16">
         <v>0.64</v>
@@ -3882,13 +4000,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="16">
         <v>0.36</v>
@@ -3896,13 +4014,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D47" s="16">
         <v>0.49399999999999999</v>
@@ -3910,13 +4028,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="16">
         <v>0.50600000000000001</v>
@@ -3924,13 +4042,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D49" s="16">
         <v>3.0000000000000001E-3</v>
@@ -3938,13 +4056,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="16">
         <v>0.14000000000000001</v>
@@ -3952,13 +4070,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="16">
         <v>0.15</v>
@@ -3966,13 +4084,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="16">
         <v>0.39</v>
@@ -3980,13 +4098,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="16">
         <v>0.25800000000000001</v>
@@ -3994,13 +4112,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="16">
         <v>0.05</v>
@@ -4008,13 +4126,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="16">
         <v>3.0000000000000001E-3</v>
@@ -4022,13 +4140,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="16">
         <v>0.29299999999999998</v>
@@ -4037,13 +4155,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="16">
         <v>0.70099999999999996</v>
@@ -4051,13 +4169,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="12">
         <v>0.38669999999999999</v>
@@ -4065,13 +4183,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="12">
         <v>0.24390000000000001</v>
@@ -4079,13 +4197,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="12">
         <v>0.17</v>
@@ -4093,13 +4211,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="18">
         <v>8.4500000000000006E-2</v>
@@ -4107,39 +4225,39 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="12">
         <v>0.11459999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="80">
-      <c r="A63" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>209</v>
+      <c r="A63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D64" s="12">
         <v>0.77</v>
@@ -4147,13 +4265,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="12">
         <v>0.23</v>
@@ -4161,13 +4279,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D66" s="12">
         <v>0.49</v>
@@ -4175,13 +4293,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="12">
         <v>0.51</v>
@@ -4190,13 +4308,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D68" s="12">
         <v>8.0000000000000002E-3</v>
@@ -4204,13 +4322,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="12">
         <v>9.7000000000000003E-2</v>
@@ -4218,13 +4336,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="12">
         <v>0.497</v>
@@ -4232,13 +4350,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="12">
         <v>0.155</v>
@@ -4247,13 +4365,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="12">
         <v>0.126</v>
@@ -4261,13 +4379,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73" s="12">
         <v>5.1999999999999998E-2</v>
@@ -4275,13 +4393,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74" s="12">
         <v>6.2E-2</v>
@@ -4289,13 +4407,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" s="12">
         <v>0.60199999999999998</v>
@@ -4303,13 +4421,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" s="12">
         <v>0.39500000000000002</v>
@@ -4318,13 +4436,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D77" s="13">
         <v>0.39500000000000002</v>
@@ -4332,13 +4450,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D78" s="13">
         <v>0.1</v>
@@ -4346,13 +4464,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D79" s="13">
         <v>0.107</v>
@@ -4360,13 +4478,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D80" s="13">
         <v>0.2</v>
@@ -4374,13 +4492,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D81" s="13">
         <v>0.11</v>
@@ -4388,13 +4506,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D82" s="13">
         <v>9.1999999999999998E-2</v>
@@ -4402,24 +4520,24 @@
     </row>
     <row r="83" spans="1:4" ht="64">
       <c r="A83" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D84" s="13">
         <v>0.92</v>
@@ -4427,13 +4545,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" s="13">
         <v>0.08</v>
@@ -4441,13 +4559,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D86" s="13">
         <v>0.49099999999999999</v>
@@ -4455,13 +4573,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D87" s="13">
         <v>0.50900000000000001</v>
@@ -4469,13 +4587,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D88" s="13">
         <v>0</v>
@@ -4483,13 +4601,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="13">
         <v>0.17499999999999999</v>
@@ -4497,13 +4615,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" s="13">
         <v>0.50900000000000001</v>
@@ -4511,13 +4629,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D91" s="13">
         <v>5.2999999999999999E-2</v>
@@ -4525,13 +4643,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D92" s="13">
         <v>0.22500000000000001</v>
@@ -4539,13 +4657,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D93" s="13">
         <v>3.3000000000000002E-2</v>
@@ -4553,13 +4671,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D94" s="13">
         <v>5.0000000000000001E-3</v>
@@ -4567,13 +4685,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D95" s="13">
         <v>0.68</v>
@@ -4581,13 +4699,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D96" s="13">
         <v>0.316</v>
@@ -4595,13 +4713,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D97" s="11">
         <v>0.54</v>
@@ -4609,13 +4727,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D98" s="11">
         <v>0.21</v>
@@ -4623,13 +4741,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D99" s="11">
         <v>0.15</v>
@@ -4637,13 +4755,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" s="11">
         <v>7.0000000000000007E-2</v>
@@ -4651,13 +4769,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D101" s="11">
         <v>0.03</v>
@@ -4665,25 +4783,25 @@
     </row>
     <row r="102" spans="1:4" ht="64">
       <c r="A102" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="38" t="s">
-        <v>256</v>
+        <v>136</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="D102" s="11"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D103" s="11">
         <v>0.86099999999999999</v>
@@ -4691,13 +4809,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D104" s="11">
         <v>0.13800000000000001</v>
@@ -4705,13 +4823,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D105" s="11">
         <v>0.47</v>
@@ -4719,13 +4837,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D106" s="11">
         <v>0.53</v>
@@ -4733,13 +4851,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D107" s="11">
         <v>5.4495912806539508E-3</v>
@@ -4747,13 +4865,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D108" s="11">
         <v>9.5367847411444148E-2</v>
@@ -4761,13 +4879,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D109" s="11">
         <v>0.13805631244323344</v>
@@ -4775,13 +4893,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D110" s="11">
         <v>0.48228882833787468</v>
@@ -4789,13 +4907,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D111" s="11">
         <v>0.21616712079927339</v>
@@ -4803,13 +4921,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D112" s="11">
         <v>5.8128973660308808E-2</v>
@@ -4817,13 +4935,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" s="11">
         <v>4.5413260672116261E-3</v>
@@ -4831,13 +4949,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D114" s="11">
         <v>0.23887375113533152</v>
@@ -4845,13 +4963,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D115" s="11">
         <v>0.76112624886466851</v>
@@ -4859,13 +4977,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D116" s="13">
         <v>0.115</v>
@@ -4873,13 +4991,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D117" s="13">
         <v>2.4E-2</v>
@@ -4887,13 +5005,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D118" s="13">
         <v>7.0999999999999994E-2</v>
@@ -4901,13 +5019,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D119" s="13">
         <v>1.2E-2</v>
@@ -4915,13 +5033,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D120" s="13">
         <v>7.8E-2</v>
@@ -4929,13 +5047,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D121" s="13">
         <v>2.6000000000000002E-2</v>
@@ -4943,13 +5061,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D122" s="13">
         <v>3.2000000000000001E-2</v>
@@ -4957,13 +5075,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D123" s="13">
         <v>0.30299999999999999</v>
@@ -4971,13 +5089,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D124" s="13">
         <v>3.5000000000000003E-2</v>
@@ -4985,13 +5103,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D125" s="13">
         <v>4.2999999999999997E-2</v>
@@ -4999,13 +5117,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D126" s="13">
         <v>3.1E-2</v>
@@ -5013,13 +5131,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D127" s="13">
         <v>8.5000000000000006E-2</v>
@@ -5027,13 +5145,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D128" s="13">
         <v>1.7999999999999999E-2</v>
@@ -5041,13 +5159,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D129" s="13">
         <v>1.2E-2</v>
@@ -5055,13 +5173,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D130" s="13">
         <v>3.5999999999999997E-2</v>
@@ -5069,13 +5187,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D131" s="13">
         <v>1.7999999999999999E-2</v>
@@ -5083,13 +5201,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D132" s="13">
         <v>6.0999999999999999E-2</v>
@@ -5097,24 +5215,24 @@
     </row>
     <row r="133" spans="1:4" ht="64">
       <c r="A133" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B134" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D134" s="13">
         <v>0.70099999999999996</v>
@@ -5122,13 +5240,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D135" s="13">
         <v>0.29899999999999999</v>
@@ -5136,13 +5254,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B136" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D136" s="13">
         <v>0.51</v>
@@ -5150,13 +5268,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D137" s="13">
         <v>0.49</v>
@@ -5164,13 +5282,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B138" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D138" s="13">
         <v>1.6E-2</v>
@@ -5178,13 +5296,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D139" s="13">
         <v>0.14199999999999999</v>
@@ -5192,13 +5310,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D140" s="13">
         <v>0.29299999999999998</v>
@@ -5206,13 +5324,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D141" s="13">
         <v>0.27100000000000002</v>
@@ -5220,13 +5338,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D142" s="13">
         <v>0.20100000000000001</v>
@@ -5234,13 +5352,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D143" s="13">
         <v>5.2999999999999999E-2</v>
@@ -5248,13 +5366,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D144" s="13">
         <v>2.3E-2</v>
@@ -5262,13 +5380,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D145" s="13">
         <v>0.45100000000000001</v>
@@ -5276,13 +5394,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D146" s="13">
         <v>0.54800000000000004</v>
@@ -5290,13 +5408,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D147" s="11">
         <v>0.78</v>
@@ -5304,13 +5422,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D148" s="11">
         <v>0.16</v>
@@ -5318,13 +5436,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D149" s="11">
         <v>0.06</v>
@@ -5332,25 +5450,25 @@
     </row>
     <row r="150" spans="1:4" ht="48">
       <c r="A150" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C150" s="38" t="s">
-        <v>320</v>
+        <v>136</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D151" s="11">
         <v>0.82</v>
@@ -5358,13 +5476,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D152" s="11">
         <v>0.18</v>
@@ -5372,13 +5490,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D153" s="11">
         <v>0.49</v>
@@ -5386,13 +5504,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D154" s="11">
         <v>0.51</v>
@@ -5400,13 +5518,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D155" s="11">
         <v>3.0000000000000001E-3</v>
@@ -5414,13 +5532,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D156" s="11">
         <v>0</v>
@@ -5428,13 +5546,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D157" s="11">
         <v>0.03</v>
@@ -5442,13 +5560,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D158" s="11">
         <v>0.67</v>
@@ -5456,13 +5574,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D159" s="11">
         <v>0.17</v>
@@ -5470,13 +5588,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D160" s="11">
         <v>0.04</v>
@@ -5484,13 +5602,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D161" s="11">
         <v>0.08</v>
@@ -5498,13 +5616,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D162" s="11">
         <v>0.03</v>
@@ -5512,13 +5630,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="11" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D163" s="11">
         <v>0.96</v>
@@ -5526,13 +5644,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D164" s="13">
         <v>0.37</v>
@@ -5540,13 +5658,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="D165" s="13">
         <v>0.16</v>
@@ -5554,13 +5672,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D166" s="13">
         <v>0.1</v>
@@ -5568,13 +5686,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D167" s="13">
         <v>0.08</v>
@@ -5582,13 +5700,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D168" s="13">
         <v>0.06</v>
@@ -5596,13 +5714,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="D169" s="13">
         <v>0.06</v>
@@ -5610,13 +5728,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D170" s="13">
         <v>0.06</v>
@@ -5624,13 +5742,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="D171" s="13">
         <v>0.04</v>
@@ -5638,13 +5756,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="D172" s="13">
         <v>0.04</v>
@@ -5652,13 +5770,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D173" s="13">
         <v>3.1E-2</v>
@@ -5666,24 +5784,24 @@
     </row>
     <row r="174" spans="1:4" ht="64">
       <c r="A174" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B175" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D175" s="13">
         <v>0.80900000000000005</v>
@@ -5691,13 +5809,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D176" s="13">
         <v>0.191</v>
@@ -5705,13 +5823,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B177" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D177" s="13">
         <v>0.49</v>
@@ -5719,13 +5837,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D178" s="13">
         <v>0.51</v>
@@ -5733,13 +5851,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B179" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D179" s="13">
         <v>2.8000000000000001E-2</v>
@@ -5747,13 +5865,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D180" s="13">
         <v>0.28599999999999998</v>
@@ -5761,13 +5879,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D181" s="13">
         <v>0.20699999999999999</v>
@@ -5775,13 +5893,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D182" s="13">
         <v>0.2</v>
@@ -5789,13 +5907,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D183" s="13">
         <v>0.25800000000000001</v>
@@ -5803,13 +5921,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D184" s="13">
         <v>1.4E-2</v>
@@ -5817,13 +5935,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D185" s="13">
         <v>6.0000000000000001E-3</v>
@@ -5831,13 +5949,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D186" s="13">
         <v>0.52</v>
@@ -5845,13 +5963,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D187" s="13">
         <v>0.48</v>
@@ -5859,13 +5977,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D188" s="11">
         <v>0.73</v>
@@ -5873,13 +5991,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D189" s="11">
         <v>0.14199999999999999</v>
@@ -5887,13 +6005,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="D190" s="11">
         <v>0.128</v>
@@ -5901,25 +6019,25 @@
     </row>
     <row r="191" spans="1:4" ht="48">
       <c r="A191" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>345</v>
+        <v>136</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="D191" s="11"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C192" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D192" s="11">
         <v>0.73199999999999998</v>
@@ -5927,13 +6045,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D193" s="11">
         <v>0.26800000000000002</v>
@@ -5941,13 +6059,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B194" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D194" s="11">
         <v>0.496</v>
@@ -5955,13 +6073,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D195" s="11">
         <v>0.504</v>
@@ -5969,13 +6087,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B196" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D196" s="11">
         <v>0.17</v>
@@ -5983,13 +6101,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D197" s="11">
         <v>0.122</v>
@@ -5997,13 +6115,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D198" s="11">
         <v>0.124</v>
@@ -6011,13 +6129,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D199" s="11">
         <v>0.41799999999999998</v>
@@ -6025,13 +6143,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D200" s="11">
         <v>9.6000000000000002E-2</v>
@@ -6039,13 +6157,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D201" s="11">
         <v>3.4000000000000002E-2</v>
@@ -6053,13 +6171,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D202" s="11">
         <v>0</v>
@@ -6067,13 +6185,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D203" s="11">
         <v>0.41600000000000004</v>
@@ -6081,13 +6199,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D204" s="11">
         <v>0.54800000000000004</v>
@@ -6095,13 +6213,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D205" s="13">
         <v>0.36899999999999999</v>
@@ -6109,13 +6227,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D206" s="13">
         <v>0.217</v>
@@ -6123,13 +6241,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D207" s="13">
         <v>0.217</v>
@@ -6137,13 +6255,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D208" s="13">
         <v>0.19700000000000001</v>
@@ -6151,24 +6269,24 @@
     </row>
     <row r="209" spans="1:4" ht="64">
       <c r="A209" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B210" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C210" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D210" s="13">
         <v>0.56200000000000006</v>
@@ -6176,13 +6294,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D211" s="13">
         <v>0.438</v>
@@ -6190,13 +6308,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B212" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C212" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D212" s="13">
         <v>0.48699999999999999</v>
@@ -6204,13 +6322,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D213" s="13">
         <v>0.51300000000000001</v>
@@ -6218,13 +6336,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B214" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D214" s="13">
         <v>8.1000000000000003E-2</v>
@@ -6232,13 +6350,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D215" s="13">
         <v>0.28199999999999997</v>
@@ -6246,13 +6364,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D216" s="13">
         <v>0.36899999999999999</v>
@@ -6260,13 +6378,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D217" s="13">
         <v>0.15</v>
@@ -6274,13 +6392,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D218" s="13">
         <v>3.9E-2</v>
@@ -6288,13 +6406,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D219" s="13">
         <v>2E-3</v>
@@ -6302,13 +6420,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D220" s="13">
         <v>6.7000000000000004E-2</v>
@@ -6316,13 +6434,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D221" s="13">
         <v>0.73199999999999998</v>
@@ -6330,13 +6448,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D222" s="13">
         <v>0.25800000000000001</v>
@@ -6344,13 +6462,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D223" s="11">
         <v>0.45800000000000002</v>
@@ -6358,13 +6476,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D224" s="11">
         <v>0.31</v>
@@ -6372,13 +6490,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="D225" s="11">
         <v>0.23</v>
@@ -6386,25 +6504,25 @@
     </row>
     <row r="226" spans="1:4" ht="48">
       <c r="A226" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C226" s="38" t="s">
-        <v>351</v>
+        <v>136</v>
+      </c>
+      <c r="C226" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="D226" s="11"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B227" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C227" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D227" s="11">
         <v>0.53800000000000003</v>
@@ -6412,13 +6530,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D228" s="11">
         <v>0.46200000000000002</v>
@@ -6426,13 +6544,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B229" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D229" s="11">
         <v>0.495</v>
@@ -6440,13 +6558,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D230" s="11">
         <v>0.5</v>
@@ -6454,13 +6572,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B231" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C231" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D231" s="11">
         <v>6.5000000000000002E-2</v>
@@ -6468,13 +6586,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D232" s="11">
         <v>5.0999999999999997E-2</v>
@@ -6482,13 +6600,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D233" s="11">
         <v>7.2999999999999995E-2</v>
@@ -6496,13 +6614,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D234" s="11">
         <v>0.47899999999999998</v>
@@ -6510,13 +6628,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D235" s="11">
         <v>0.23699999999999999</v>
@@ -6524,13 +6642,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D236" s="11">
         <v>5.7000000000000002E-2</v>
@@ -6538,13 +6656,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -6552,13 +6670,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D238" s="11">
         <v>0.189</v>
@@ -6566,13 +6684,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D239" s="11">
         <v>0.77300000000000002</v>
@@ -6580,13 +6698,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D240" s="13">
         <v>0.38</v>
@@ -6594,13 +6712,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="D241" s="13">
         <v>0.33</v>
@@ -6608,13 +6726,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D242" s="13">
         <v>7.0000000000000007E-2</v>
@@ -6622,13 +6740,13 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D243" s="13">
         <v>0.06</v>
@@ -6636,13 +6754,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D244" s="13">
         <v>0.05</v>
@@ -6650,13 +6768,13 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="D245" s="13">
         <v>0.04</v>
@@ -6664,13 +6782,13 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D246" s="13">
         <v>0.04</v>
@@ -6678,13 +6796,13 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D247" s="13">
         <v>0.03</v>
@@ -6692,13 +6810,13 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="D248" s="13">
         <v>0.01</v>
@@ -6706,24 +6824,24 @@
     </row>
     <row r="249" spans="1:4" ht="64">
       <c r="A249" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B250" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C250" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D250" s="13">
         <v>0.66</v>
@@ -6731,13 +6849,13 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D251" s="13">
         <v>0.34</v>
@@ -6745,13 +6863,13 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B252" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D252" s="13">
         <v>0.5</v>
@@ -6759,13 +6877,13 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D253" s="13">
         <v>0.5</v>
@@ -6773,13 +6891,13 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B254" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C254" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D254" s="13">
         <v>6.9000000000000006E-2</v>
@@ -6787,13 +6905,13 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D255" s="13">
         <v>0.224</v>
@@ -6801,13 +6919,13 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D256" s="13">
         <v>0.38100000000000001</v>
@@ -6815,13 +6933,13 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D257" s="13">
         <v>0.28000000000000003</v>
@@ -6829,13 +6947,13 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D258" s="13">
         <v>3.5999999999999997E-2</v>
@@ -6843,13 +6961,13 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D259" s="13">
         <v>7.0000000000000001E-3</v>
@@ -6857,13 +6975,13 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D260" s="13">
         <v>3.0000000000000001E-3</v>
@@ -6871,13 +6989,13 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D261" s="13">
         <v>0.67400000000000004</v>
@@ -6885,13 +7003,13 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D262" s="13">
         <v>0.32600000000000001</v>
@@ -6914,28 +7032,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6957,7 +7075,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1553</v>
@@ -6983,7 +7101,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3233</v>
@@ -7000,7 +7118,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2810</v>
@@ -7026,12 +7144,12 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>3252</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>1321</v>
       </c>
       <c r="D6">
@@ -7052,7 +7170,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>393</v>
@@ -7069,7 +7187,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>3500</v>
@@ -7080,7 +7198,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B9">
         <v>445</v>
@@ -7097,7 +7215,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>793</v>
@@ -7123,7 +7241,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B11">
         <v>1761</v>
@@ -7149,7 +7267,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B12">
         <v>285</v>
@@ -7175,7 +7293,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13">
         <v>3287</v>
@@ -7201,7 +7319,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -7224,7 +7342,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B15">
         <v>471</v>
@@ -7241,7 +7359,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B16">
         <v>447</v>
@@ -7258,7 +7376,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B17">
         <v>393</v>
@@ -7275,7 +7393,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B18">
         <v>405</v>
@@ -7292,7 +7410,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <v>379</v>
@@ -7309,7 +7427,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>382</v>
@@ -7326,7 +7444,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>381</v>
@@ -7343,7 +7461,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B22">
         <v>706</v>
@@ -7390,16 +7508,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
@@ -7407,13 +7525,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E2" s="29">
         <v>1000</v>
@@ -7421,16 +7539,16 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E3" s="29">
         <v>1000</v>
@@ -7438,16 +7556,16 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E4" s="29">
         <v>1005</v>
@@ -7455,16 +7573,16 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E5" s="29">
         <v>1029</v>
@@ -7472,16 +7590,16 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E6" s="28">
         <v>759</v>
@@ -7489,16 +7607,16 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E7" s="29">
         <v>1109</v>
@@ -7506,16 +7624,16 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E8" s="29">
         <v>1000</v>
@@ -7523,16 +7641,16 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E9" s="28">
         <v>500</v>
@@ -7540,16 +7658,16 @@
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E10" s="28">
         <v>500</v>
@@ -7557,16 +7675,16 @@
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E11" s="28">
         <v>500</v>
@@ -7574,16 +7692,16 @@
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E12" s="28">
         <v>500</v>
@@ -7591,16 +7709,16 @@
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E13" s="28">
         <v>499</v>
@@ -7608,16 +7726,16 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E14" s="28">
         <v>500</v>
@@ -7625,16 +7743,16 @@
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E15" s="28">
         <v>500</v>
@@ -7642,16 +7760,16 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E16" s="29">
         <v>1001</v>
@@ -7659,16 +7777,16 @@
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E17" s="28">
         <v>500</v>
@@ -7676,16 +7794,16 @@
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E18" s="29">
         <v>1002</v>
@@ -7693,16 +7811,16 @@
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E19" s="28">
         <v>500</v>
@@ -7710,16 +7828,16 @@
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E20" s="28">
         <v>507</v>
@@ -7727,16 +7845,16 @@
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E21" s="28">
         <v>531</v>
@@ -7744,16 +7862,16 @@
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E22" s="28">
         <v>522</v>
@@ -7761,16 +7879,16 @@
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E23" s="29">
         <v>1500</v>
@@ -7778,16 +7896,16 @@
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E24" s="29">
         <v>1002</v>
@@ -7795,16 +7913,16 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E25" s="29">
         <v>2010</v>
@@ -7812,16 +7930,16 @@
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E26" s="29">
         <v>2002</v>
@@ -7829,16 +7947,16 @@
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E27" s="29">
         <v>2000</v>
@@ -7846,16 +7964,16 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="27" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E28" s="29">
         <v>1014</v>
@@ -7863,16 +7981,16 @@
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E29" s="29">
         <v>2023</v>
@@ -7905,7 +8023,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7958,21 +8076,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -7980,73 +8098,73 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>500</v>
@@ -8054,7 +8172,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>500</v>
@@ -8062,12 +8180,12 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -8075,7 +8193,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>76</v>
@@ -8083,7 +8201,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>105</v>
@@ -8091,7 +8209,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>381</v>
@@ -8099,7 +8217,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>265</v>
@@ -8107,7 +8225,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -8115,7 +8233,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>127</v>
@@ -8123,7 +8241,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -8149,12 +8267,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8197,7 +8315,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8205,60 +8323,60 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5">
         <f>412/1000</f>
@@ -8267,7 +8385,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5">
         <f>350/1000</f>
@@ -8276,7 +8394,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="5">
         <f>238/1000</f>
@@ -8285,12 +8403,12 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5">
         <v>0.76300000000000001</v>
@@ -8298,7 +8416,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5">
         <v>0.23699999999999999</v>
@@ -8306,17 +8424,17 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5">
         <v>0.48699999999999999</v>
@@ -8324,7 +8442,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5">
         <v>0.51300000000000001</v>
@@ -8332,13 +8450,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="5">
         <v>7.0000000000000001E-3</v>
@@ -8346,13 +8464,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="7">
         <f>SUM(C38:C40)</f>
@@ -8361,13 +8479,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="5">
         <v>0.12</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="7">
         <f>SUM(C41:C44)</f>
@@ -8376,7 +8494,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5">
         <v>0.38</v>
@@ -8384,7 +8502,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="5">
         <v>0.21199999999999999</v>
@@ -8392,7 +8510,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="5">
         <v>7.1999999999999995E-2</v>
@@ -8400,7 +8518,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5">
         <v>0.12</v>
@@ -8408,7 +8526,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -8433,12 +8551,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8454,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8462,7 +8580,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8478,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8486,29 +8604,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -8516,10 +8634,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -8527,33 +8645,33 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5">
         <f>543/1005</f>
@@ -8562,7 +8680,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5">
         <f>462/1005</f>
@@ -8571,12 +8689,12 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="5">
         <f>643/1005</f>
@@ -8585,7 +8703,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5">
         <f>362/1005</f>
@@ -8594,17 +8712,17 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5">
         <f>496/1005</f>
@@ -8613,7 +8731,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5">
         <f>509/1005</f>
@@ -8622,12 +8740,12 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="5">
         <v>3.003003003003003E-3</v>
@@ -8635,7 +8753,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="5">
         <v>0.14114114114114115</v>
@@ -8643,7 +8761,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="5">
         <v>0.15115115115115116</v>
@@ -8653,12 +8771,12 @@
         <v>0.2952952952952953</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="5">
         <v>0.39239239239239238</v>
@@ -8668,12 +8786,12 @@
         <v>0.7047047047047047</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="5">
         <v>0.25925925925925924</v>
@@ -8681,7 +8799,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="5">
         <v>5.0050050050050053E-2</v>
@@ -8689,7 +8807,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="5">
         <v>3.003003003003003E-3</v>
@@ -8697,7 +8815,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -8722,12 +8840,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8743,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8751,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8767,7 +8885,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8775,29 +8893,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -8805,7 +8923,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -8816,33 +8934,33 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5">
         <f>8/1029</f>
@@ -8852,7 +8970,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5">
         <f>175/1029</f>
@@ -8861,7 +8979,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5">
         <f>118/1029</f>
@@ -8870,7 +8988,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5">
         <f>251/1029</f>
@@ -8879,7 +8997,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5">
         <f>398/1029</f>
@@ -8888,12 +9006,12 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7">
         <v>0.77</v>
@@ -8901,7 +9019,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7">
         <v>0.23</v>
@@ -8909,17 +9027,17 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5">
         <f>500/1029</f>
@@ -8928,7 +9046,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5">
         <f>529/1029</f>
@@ -8937,12 +9055,12 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5">
         <v>8.0312195121951205E-3</v>
@@ -8961,7 +9079,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="5">
         <v>9.7378536585365855E-2</v>
@@ -8980,7 +9098,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="5">
         <v>0.49893951219512195</v>
@@ -8990,7 +9108,7 @@
         <v>0.60434926829268298</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>49.7</v>
@@ -9006,7 +9124,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5">
         <v>0.15560487804878048</v>
@@ -9016,7 +9134,7 @@
         <v>0.39654146341463414</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>15.5</v>
@@ -9032,7 +9150,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5">
         <v>0.12649170731707315</v>
@@ -9051,7 +9169,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="5">
         <v>5.220292682926829E-2</v>
@@ -9070,7 +9188,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="5">
         <v>6.2241951219512197E-2</v>
@@ -9102,7 +9220,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -9112,12 +9230,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9364,20 +9484,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9402,18 +9529,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5A628-96CF-DE4A-BCA9-DBACD32E3D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D1F5B7-B328-6344-A953-AE3AB7B8AE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="498">
   <si>
     <t>Sample Size</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t xml:space="preserve">Regions, provinces, and cantons were selected to achieve a nationally representative sample of the country. Within cantons, parishes were selected as the primary sampling unit according to quotas set for age, gender, socioeconomic level, and geographical units. Within urban parishes, enumeration areas were randomly selected. In rural parishes, surveyors constructed the first enumeration area around a central neighborhood and selected additional sampling units from the surrounding area, moving in a clockwise direction. Ten interviews were assigned to each enumeration area. Within the sampled segments, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household. </t>
-  </si>
-  <si>
-    <t>In total, 28 interviewers worked on this project, including 18 female interviewers. Enumerators worked in six groups of four to five interviewers with at one supervisor per group. Interviews were conducted in Spanish.</t>
   </si>
   <si>
     <t>Lima, Peru</t>
@@ -1157,9 +1154,6 @@
   </si>
   <si>
     <t>Most respondents (82%) reported that they had received at least a high school diploma or vocational degree, and the remaining 18% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departments and cities were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
   </si>
   <si>
     <t>Data for Bolivia, Colombia, and Peru was collected in 2016, 2018, and 2022. Data for Ecuador was collected in 2014, 2017, and 2022.</t>
@@ -1218,9 +1212,6 @@
     <t>Data for Bolivia, Colombia, and Peru was collected in 2016, 2018, and 2022. Data for Ecuador was collected in 2014, 2017, and 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Most respondents (70%) reported that they had received at least a high school diploma or vocational degree, and the remaining 29% of respondents received up to a middle school diploma. </t>
-  </si>
-  <si>
     <t>Datum Internacional S.A.</t>
   </si>
   <si>
@@ -1249,6 +1240,418 @@
   </si>
   <si>
     <t xml:space="preserve">More than half (55%) of all respondents reported that they had received at least a high school diploma or vocational degree, and the remaining 45% of respondents received a middle school diploma or less. </t>
+  </si>
+  <si>
+    <t>Departments and cities were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (70%) reported that they had received at least a high school diploma or vocational degree, and the remaining 30% of respondents received up to a middle school diploma. </t>
+  </si>
+  <si>
+    <t>In total, 28 interviewers worked on this project, including 18 female interviewers. Enumerators worked in six groups of four to five interviewers with one supervisor per group. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>Eastern Caribbean</t>
+  </si>
+  <si>
+    <t>Antiguans and Barbudans</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2011 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>Most respondents (93%) identified themselves as Afro-Antiguan and Barbudan, followed by Mixed Race (7%).</t>
+  </si>
+  <si>
+    <t>Most respondents (95%) reported that they had received at least a high school diploma or vocational degree and the remaining 5% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Antigua and Barbuda’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 18 interviewers worked on this project, including 11 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 46 to 86 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2022</t>
+  </si>
+  <si>
+    <t>Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Barbadians</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2010 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>Most respondents (88%) identified themselves as Afro-Barbadian, followed by Mixed Race (7%).</t>
+  </si>
+  <si>
+    <t>Most respondents (88%) reported that they had received at least a high school diploma or  vocational degree and the remaining 12% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Barbados’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 19 interviewers worked on this project, including 11 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 46 minutes in length and ranged from 42 to 79 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Dominicans</t>
+  </si>
+  <si>
+    <t>Most respondents (77%) identified themselves as Afro-Dominican, followed by Mixed Race (14%).</t>
+  </si>
+  <si>
+    <t>Most respondents (89%) reported that they had received at least a high school diploma or  vocational degree and the remaining 11% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Dominica’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 19 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 48 minutes in length and ranged from 47 to 87 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Grenadian</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2011 census figures  , acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t>Most respondents (63%) identified themselves as Afro-Grenadian, followed by Mixed Race (32%).</t>
+  </si>
+  <si>
+    <t>Most respondents (70%) reported that they had received at least a high school diploma or  vocational degree and the remaining 30% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Grenada’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 48 to 88 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Dominica, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Kittitians and Nevisians</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on projected population figures from the Caribbean Community (CARICOM), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (87%) identified themselves as Afro-Kittitian and Nevisian, followed by Afro-European (12%).   </t>
+  </si>
+  <si>
+    <t>Most respondents (68%) reported that they had received at least a high school diploma or  vocational degree and the remaining 32% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given St. Kitts and Nevis’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 17 interviewers worked on this project, including 10 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 17 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 46 to 86 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Saint Lucian</t>
+  </si>
+  <si>
+    <t>Most respondents (91%) identified themselves as Afro-Saint Lucian, followed by Mixed Race (5%).</t>
+  </si>
+  <si>
+    <t>Most respondents (81%) reported that they had received at least a high school diploma or  vocational degree and the remaining 19% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given St. Lucia’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 21 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four to five interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 42 minutes in length and ranged from 40 to 72 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Vincentians</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2012 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (76%) identified themselves as Afro-Vincentian, followed by Mixed Race 21%).   </t>
+  </si>
+  <si>
+    <t>Given St. Vincent and the Grenadines’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 38 minutes in length and ranged from 36 to 71 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Trinidadians and Tobagonians</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on the 2022 projected population figures from the Latin American and Caribbean Demographic Center (CELADE) of the United Nations Economic Commission for Latin America and the Caribbean (CEPAL), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Forty-four (44%) percent of respondents identified themselves as Afro-Trinidadian and Tobagonian, followed by Indo-Trinidadian and Tobagonian (30%) and Mestizo (24%).</t>
+  </si>
+  <si>
+    <t>Most respondents (63%) reported that they had received at least a high school diploma or vocational degree and the remaining 37% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Regions and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks and districts selected via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on the relative population size of each municipality. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 48 interviewers worked on this project, including 40 female interviewers. Enumerators worked in ten groups of four to five interviewers with one to two supervisors each. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 570 interviews (approximately 57% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 50 minutes in length and ranged from 43 to 87 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, and St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>2022 and 2023</t>
+  </si>
+  <si>
+    <t>November and December 2022, and January 2023</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Belizean</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on population figures from the 2019 population statistics from the United Nations  Department of Economic and Social Affairs, Population Division, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most respondents (57%) reported that they had received up to a middle school diploma, and the remaining 43% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and districts were selected to achieve a nationally representative sample of the country. Within each city or town, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 36 interviewers worked on this project, including 25 female interviewers. Enumerators worked in nine groups of of four interviewers with nine supervisors overseeing the project. Interviews were conducted in English. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 45% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 45 minutes in length and ranged from 31 to 93 minutes. </t>
+  </si>
+  <si>
+    <t>Data for Belize, Costa Rica, and Honduras was collected in 2022, 2019, 2017, and 2014. Data for Panama was collected in 2022, 2019, 2017, and 2014. Data for El Salvador and Guatemala was collected in 2022, 2018 and 2016</t>
+  </si>
+  <si>
+    <t>Costa Rica, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>Costa Rican</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Costa Rica (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 45% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Enumeration areas were randomly selected according to neighbohoods within each city and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 40 interviewers worked on this project, including 24 female interviewers. Enumerators worked in 10 groups of four interviewers with four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 37% of all interviews in the field. During data processing, 532 of the interviews (approximately 53% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 47 minutes in length and ranged from 40 to 88 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>November and December 2022</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2022 population figures from the General Directorate of Statistics and Census (DIGESTYC) in El Salvador,  acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most respondents (53%) reported that they had received up to a middle school diploma, and the remaining 47% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regions and departments were selected to achieve a nationally representative sample in El Salvador. In cities, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">municipios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cantóns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> served as the primary sampling unit and were randomly selected based on relative population sizes and socioeconomic distribution. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 43 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 11 groups of four interviewers with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 34% of all interviews in the field. During data processing, 37% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 34 to 97 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, Guatemala, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>Guatemala City, Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercaplan based the sampling frame on the 2018 population figures from the Guatemalan National Institute of Statistics (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization. </t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample in Guatemala. Districts and municipalities were selected and neighborhoods were randomly selected within the districts and municipalities based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four with five supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 480 interviews (24% of the sample) in the field. During data validation, 335 interviews were conducted by telephone back-check and 327 interviews were selected for audio review by the central office. Interviews averaged 45 minutes in length.</t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>San Pedro Sula, Honduras</t>
+  </si>
+  <si>
+    <t>Mercaplan based the sampling frame on the 2013 census and Population Projections 2013-2050 from the National Institute of Statistics (INE) in Honduras, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample in Honduras. Districts and municipalities were selected in urban areas and villages in rural areas. Neighborhoods were randomly selected within the districts and municipalities or villages based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 29 interviewers worked on this project. Enumerators worked in groups with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviews averaged 37 minutes in length and ranged from 29 to 45 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Guatemala, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>CID Gallup based the initial sampling frame on the most recent population projections from the Nicaraguan National Institute of Information Development (INIDE).</t>
+  </si>
+  <si>
+    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 44% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>All interviews in Nicaragua were conducted using a CATI (Computer Assisted Telephone Interviewing) system. Generation of the cellular RDD (Resilient Distributed Datasets) frame is based on the phone number blocks used in the telephone numbering plan by using pre-codes and stratifying them by provider distribution. The RDD cellular framework for Nicaragua uses a national numbering plan provided by the government. Using this numbering plan, CID Gallup developed a probabilistic design for pulling “seed” blocks from which actual phone numbers were randomly generated. For the mobile sample, CID Gallup classified mobile providers, which are used for residential services and commercial services, and excluded commercial numbers from the sample. The mobile sample was sorted by the amount of allocated numbering blocks. All cell numbers were used and subdivided into blocks of 100 numbers each, each block was enriched by random digits in order to create a seed, and then the last 2-digits were randomized to create the numbers to be called.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 44 interviewers worked on this project, including 25 female interviewers. Enumberators worked under the supervision of four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 46% of all interviews. During data processing, 62% of the interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 40 minutes in length and ranged from 21 to 109 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Panama</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Panama (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 49% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regions, provinces, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">comarcas  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were selected to achieve a nationally representative sample in Panama. Interviewers were assigned a segment starting point that was selected systematically to coincide with the region. Interviewers performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 68 interviewers worked on this project, including 59 female interviewers. Enumerators worked in 17 groups of four with a total of 17 supvisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 36% of al interviews in the field. During data processing, 41% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 99 minutes.</t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Nicaragua</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1567,12 +1970,196 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1981,13 +2568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:S8"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2073,7 +2660,7 @@
         <v>1000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F2" s="13">
         <v>2022</v>
@@ -2091,19 +2678,19 @@
         <v>108</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>116</v>
       </c>
       <c r="M2" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>369</v>
-      </c>
       <c r="O2" s="46" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>171</v>
@@ -2112,7 +2699,7 @@
         <v>172</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S2" s="21" t="s">
         <v>118</v>
@@ -2132,13 +2719,13 @@
         <v>1000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="13">
         <v>2022</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -2159,10 +2746,10 @@
         <v>123</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P3" s="40" t="s">
         <v>175</v>
@@ -2171,7 +2758,7 @@
         <v>126</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S3" s="21" t="s">
         <v>117</v>
@@ -2197,7 +2784,7 @@
         <v>2022</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>8</v>
@@ -2218,19 +2805,19 @@
         <v>122</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>178</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>125</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>119</v>
@@ -2250,13 +2837,13 @@
         <v>1029</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F5" s="13">
         <v>2022</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>8</v>
@@ -2265,31 +2852,31 @@
         <v>21</v>
       </c>
       <c r="J5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>180</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>181</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>116</v>
       </c>
       <c r="M5" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="Q5" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" s="44" t="s">
-        <v>185</v>
-      </c>
       <c r="R5" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S5" s="21" t="s">
         <v>120</v>
@@ -2315,43 +2902,43 @@
         <v>2022</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H6" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="J6" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="39" t="s">
         <v>203</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>204</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>116</v>
       </c>
       <c r="M6" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="O6" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="O6" s="39" t="s">
+      <c r="P6" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="Q6" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="R6" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="S6" s="47" t="s">
         <v>208</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="126" customHeight="1">
@@ -2374,43 +2961,43 @@
         <v>2022</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I7" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="K7" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="L7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="M7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="N7" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="O7" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="O7" s="39" t="s">
+      <c r="P7" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="Q7" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="R7" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="S7" s="47" t="s">
         <v>217</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="126" customHeight="1">
@@ -2427,49 +3014,49 @@
         <v>1000</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F8" s="48">
         <v>2021</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I8" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="K8" s="39" t="s">
         <v>219</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>220</v>
       </c>
       <c r="L8" s="39" t="s">
         <v>116</v>
       </c>
       <c r="M8" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="O8" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="O8" s="39" t="s">
+      <c r="P8" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="Q8" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="R8" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="S8" s="47" t="s">
         <v>224</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="126" customHeight="1">
@@ -2486,49 +3073,49 @@
         <v>500</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="21">
         <v>2022</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>260</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>151</v>
       </c>
       <c r="K9" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="M9" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="O9" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="O9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="R9" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
@@ -2551,43 +3138,43 @@
         <v>2022</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I10" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="K10" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>269</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>116</v>
       </c>
       <c r="M10" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="O10" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>347</v>
-      </c>
       <c r="P10" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="S10" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="126" customHeight="1">
@@ -2610,43 +3197,43 @@
         <v>2022</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I11" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="21" t="s">
+      <c r="N11" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="O11" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="R11" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="126" customHeight="1">
@@ -2669,43 +3256,43 @@
         <v>2022</v>
       </c>
       <c r="G12" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="L12" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="K12" s="21" t="s">
+      <c r="M12" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O12" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="N12" s="39" t="s">
+      <c r="P12" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="O12" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="P12" s="21" t="s">
+      <c r="Q12" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="R12" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>281</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="126" customHeight="1">
@@ -2728,43 +3315,43 @@
         <v>2022</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="N13" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="M13" s="21" t="s">
+      <c r="O13" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q13" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="N13" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q13" s="21" t="s">
+      <c r="R13" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="126" customHeight="1">
@@ -2788,126 +3375,1158 @@
         <v>2022</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="N14" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="P14" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="O14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="R14" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="Q14" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>291</v>
+    </row>
+    <row r="15" spans="1:23" ht="192">
+      <c r="A15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="21">
+        <v>172</v>
+      </c>
+      <c r="C15" s="21">
+        <v>122</v>
+      </c>
+      <c r="D15" s="45">
+        <v>500</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="192">
+      <c r="A16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="21">
+        <v>172</v>
+      </c>
+      <c r="C16" s="21">
+        <v>122</v>
+      </c>
+      <c r="D16" s="2">
+        <v>500</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="192">
+      <c r="A17" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="21">
+        <v>172</v>
+      </c>
+      <c r="C17" s="21">
+        <v>122</v>
+      </c>
+      <c r="D17" s="54">
+        <v>500</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="192">
+      <c r="A18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="21">
+        <v>172</v>
+      </c>
+      <c r="C18" s="21">
+        <v>122</v>
+      </c>
+      <c r="D18" s="54">
+        <v>500</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="192">
+      <c r="A19" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="21">
+        <v>172</v>
+      </c>
+      <c r="C19" s="21">
+        <v>122</v>
+      </c>
+      <c r="D19" s="13">
+        <v>500</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="192">
+      <c r="A20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="21">
+        <v>172</v>
+      </c>
+      <c r="C20" s="21">
+        <v>122</v>
+      </c>
+      <c r="D20" s="13">
+        <v>500</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="192">
+      <c r="A21" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="21">
+        <v>172</v>
+      </c>
+      <c r="C21" s="21">
+        <v>122</v>
+      </c>
+      <c r="D21" s="13">
+        <v>500</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="335">
+      <c r="A22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="21">
+        <v>172</v>
+      </c>
+      <c r="C22" s="21">
+        <v>122</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="256">
+      <c r="A23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="4">
+        <v>162</v>
+      </c>
+      <c r="C23" s="4">
+        <v>86</v>
+      </c>
+      <c r="D23" s="56">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="R23" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S23" s="58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="256">
+      <c r="A24" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="13">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13">
+        <v>77</v>
+      </c>
+      <c r="D24" s="45">
+        <v>1005</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="R24" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="320">
+      <c r="A25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="4">
+        <v>162</v>
+      </c>
+      <c r="C25" s="4">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="272">
+      <c r="A26" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26">
+        <v>162</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26" s="54">
+        <v>2002</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="R26" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="288">
+      <c r="A27" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="4">
+        <v>162</v>
+      </c>
+      <c r="C27" s="4">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G27" t="s">
+        <v>448</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="R27" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="409.6">
+      <c r="A28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="13">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13">
+        <v>16</v>
+      </c>
+      <c r="D28" s="45">
+        <v>1014</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="59">
+        <v>2023</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="R28" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="224">
+      <c r="A29" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="4">
+        <v>162</v>
+      </c>
+      <c r="C29" s="4">
+        <v>86</v>
+      </c>
+      <c r="D29" s="45">
+        <v>2023</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G29" s="61">
+        <v>44896</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1 R1:XFD1 A15:XFD1048576 T2:XFD14">
-    <cfRule type="expression" dxfId="13" priority="33">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A30:XFD1048576 T2:XFD29">
+    <cfRule type="expression" dxfId="37" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="34">
+    <cfRule type="expression" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="12" priority="31">
+    <cfRule type="expression" dxfId="36" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="32">
+    <cfRule type="expression" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="28" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:S8">
+    <cfRule type="expression" dxfId="27" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="26" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="25" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="24" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="23" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="22" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A22 K16:S16 I15:I21 K15:M15 O15:S15 K17:M17 O17:S17 K18:S18 K19:M19 O19:S19 K20:S20 K21:M21 O21:S21 K22:S22 D15:H22">
+    <cfRule type="expression" dxfId="21" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C22">
+    <cfRule type="expression" dxfId="20" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="43">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="19" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="18" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="17" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="16" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="15" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="13" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="12" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="expression" dxfId="11" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="expression" dxfId="10" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="expression" dxfId="9" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="expression" dxfId="8" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="6" priority="15">
+  <conditionalFormatting sqref="A23:A29 D24:E24 G24:N24 D23:I23 S24:S29 P24:Q24 D25:Q29">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="K23:M23 S23 O23:P23">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="5" priority="12">
+  <conditionalFormatting sqref="B23:C29">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="13">
+    <cfRule type="expression" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="4" priority="10">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="11">
+    <cfRule type="expression" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="3" priority="8">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="9">
+    <cfRule type="expression" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="O24">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="7">
+    <cfRule type="expression" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="N23">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="5">
+    <cfRule type="expression" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:S8">
+  <conditionalFormatting sqref="R23:R29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -2966,7 +4585,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2980,7 +4599,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2994,7 +4613,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -3024,7 +4643,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3035,10 +4654,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3052,7 +4671,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -3082,7 +4701,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3096,7 +4715,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3110,7 +4729,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -3122,10 +4741,10 @@
         <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -3137,7 +4756,7 @@
         <v>106</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3148,7 +4767,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="13">
         <v>17</v>
@@ -3156,7 +4775,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>106</v>
@@ -3165,13 +4784,13 @@
         <v>31</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>100</v>
@@ -3180,7 +4799,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -3206,7 +4825,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D19" s="13">
         <v>31</v>
@@ -3223,7 +4842,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -3235,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="11">
         <v>26</v>
@@ -3253,7 +4872,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3264,7 +4883,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -3281,7 +4900,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -3293,7 +4912,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" s="11">
         <v>15</v>
@@ -3311,7 +4930,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3322,7 +4941,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" s="13">
         <v>28</v>
@@ -3514,7 +5133,7 @@
         <v>136</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="16"/>
       <c r="G11" s="36"/>
@@ -3757,7 +5376,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -3980,7 +5599,7 @@
         <v>136</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" s="16"/>
     </row>
@@ -4245,7 +5864,7 @@
         <v>136</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -4442,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="13">
         <v>0.39500000000000002</v>
@@ -4456,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="13">
         <v>0.1</v>
@@ -4470,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="13">
         <v>0.107</v>
@@ -4484,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="13">
         <v>0.2</v>
@@ -4498,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="13">
         <v>0.11</v>
@@ -4512,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="13">
         <v>9.1999999999999998E-2</v>
@@ -4526,7 +6145,7 @@
         <v>136</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4719,7 +6338,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D97" s="11">
         <v>0.54</v>
@@ -4733,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D98" s="11">
         <v>0.21</v>
@@ -4775,7 +6394,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D101" s="11">
         <v>0.03</v>
@@ -4789,7 +6408,7 @@
         <v>136</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D102" s="11"/>
     </row>
@@ -4983,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D116" s="13">
         <v>0.115</v>
@@ -4997,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D117" s="13">
         <v>2.4E-2</v>
@@ -5011,7 +6630,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D118" s="13">
         <v>7.0999999999999994E-2</v>
@@ -5025,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D119" s="13">
         <v>1.2E-2</v>
@@ -5039,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D120" s="13">
         <v>7.8E-2</v>
@@ -5053,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D121" s="13">
         <v>2.6000000000000002E-2</v>
@@ -5067,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D122" s="13">
         <v>3.2000000000000001E-2</v>
@@ -5095,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D124" s="13">
         <v>3.5000000000000003E-2</v>
@@ -5109,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D125" s="13">
         <v>4.2999999999999997E-2</v>
@@ -5123,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D126" s="13">
         <v>3.1E-2</v>
@@ -5137,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D127" s="13">
         <v>8.5000000000000006E-2</v>
@@ -5151,7 +6770,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D128" s="13">
         <v>1.7999999999999999E-2</v>
@@ -5165,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D129" s="13">
         <v>1.2E-2</v>
@@ -5179,7 +6798,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D130" s="13">
         <v>3.5999999999999997E-2</v>
@@ -5193,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D131" s="13">
         <v>1.7999999999999999E-2</v>
@@ -5207,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D132" s="13">
         <v>6.0999999999999999E-2</v>
@@ -5221,7 +6840,7 @@
         <v>136</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5408,13 +7027,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D147" s="11">
         <v>0.78</v>
@@ -5422,13 +7041,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D148" s="11">
         <v>0.16</v>
@@ -5436,13 +7055,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D149" s="11">
         <v>0.06</v>
@@ -5450,19 +7069,19 @@
     </row>
     <row r="150" spans="1:4" ht="48">
       <c r="A150" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>51</v>
@@ -5476,7 +7095,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>51</v>
@@ -5490,7 +7109,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>54</v>
@@ -5504,7 +7123,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>54</v>
@@ -5518,7 +7137,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>57</v>
@@ -5532,7 +7151,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>57</v>
@@ -5546,7 +7165,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>57</v>
@@ -5560,7 +7179,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>57</v>
@@ -5574,7 +7193,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>57</v>
@@ -5588,7 +7207,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>57</v>
@@ -5602,7 +7221,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>57</v>
@@ -5616,7 +7235,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>57</v>
@@ -5630,7 +7249,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>57</v>
@@ -5647,10 +7266,10 @@
         <v>156</v>
       </c>
       <c r="B164" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="D164" s="13">
         <v>0.37</v>
@@ -5661,10 +7280,10 @@
         <v>156</v>
       </c>
       <c r="B165" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>302</v>
       </c>
       <c r="D165" s="13">
         <v>0.16</v>
@@ -5675,10 +7294,10 @@
         <v>156</v>
       </c>
       <c r="B166" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="D166" s="13">
         <v>0.1</v>
@@ -5689,10 +7308,10 @@
         <v>156</v>
       </c>
       <c r="B167" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="D167" s="13">
         <v>0.08</v>
@@ -5703,10 +7322,10 @@
         <v>156</v>
       </c>
       <c r="B168" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C168" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="D168" s="13">
         <v>0.06</v>
@@ -5717,10 +7336,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C169" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>310</v>
       </c>
       <c r="D169" s="13">
         <v>0.06</v>
@@ -5731,10 +7350,10 @@
         <v>156</v>
       </c>
       <c r="B170" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="D170" s="13">
         <v>0.06</v>
@@ -5745,10 +7364,10 @@
         <v>156</v>
       </c>
       <c r="B171" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="D171" s="13">
         <v>0.04</v>
@@ -5759,10 +7378,10 @@
         <v>156</v>
       </c>
       <c r="B172" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C172" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="D172" s="13">
         <v>0.04</v>
@@ -5773,10 +7392,10 @@
         <v>156</v>
       </c>
       <c r="B173" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="D173" s="13">
         <v>3.1E-2</v>
@@ -5790,7 +7409,7 @@
         <v>136</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5983,7 +7602,7 @@
         <v>95</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D188" s="11">
         <v>0.73</v>
@@ -5997,7 +7616,7 @@
         <v>97</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D189" s="11">
         <v>0.14199999999999999</v>
@@ -6008,10 +7627,10 @@
         <v>157</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D190" s="11">
         <v>0.128</v>
@@ -6025,7 +7644,7 @@
         <v>136</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D191" s="11"/>
     </row>
@@ -6219,7 +7838,7 @@
         <v>95</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D205" s="13">
         <v>0.36899999999999999</v>
@@ -6275,7 +7894,7 @@
         <v>136</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6465,10 +8084,10 @@
         <v>159</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D223" s="11">
         <v>0.45800000000000002</v>
@@ -6479,10 +8098,10 @@
         <v>159</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D224" s="11">
         <v>0.31</v>
@@ -6493,10 +8112,10 @@
         <v>159</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D225" s="11">
         <v>0.23</v>
@@ -6510,7 +8129,7 @@
         <v>136</v>
       </c>
       <c r="C226" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D226" s="11"/>
     </row>
@@ -6704,7 +8323,7 @@
         <v>95</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D240" s="13">
         <v>0.38</v>
@@ -6718,7 +8337,7 @@
         <v>97</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D241" s="13">
         <v>0.33</v>
@@ -6732,7 +8351,7 @@
         <v>96</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D242" s="13">
         <v>7.0000000000000007E-2</v>
@@ -6746,7 +8365,7 @@
         <v>98</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D243" s="13">
         <v>0.06</v>
@@ -6760,7 +8379,7 @@
         <v>99</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D244" s="13">
         <v>0.05</v>
@@ -6774,7 +8393,7 @@
         <v>101</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D245" s="13">
         <v>0.04</v>
@@ -6788,7 +8407,7 @@
         <v>102</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D246" s="13">
         <v>0.04</v>
@@ -6802,7 +8421,7 @@
         <v>103</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D247" s="13">
         <v>0.03</v>
@@ -6816,7 +8435,7 @@
         <v>104</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D248" s="13">
         <v>0.01</v>
@@ -6830,7 +8449,7 @@
         <v>136</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7198,7 +8817,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9">
         <v>445</v>
@@ -7531,7 +9150,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="29">
         <v>1000</v>
@@ -7548,7 +9167,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="29">
         <v>1000</v>
@@ -7565,7 +9184,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="29">
         <v>1005</v>
@@ -7582,7 +9201,7 @@
         <v>140</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="29">
         <v>1029</v>
@@ -7599,7 +9218,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="28">
         <v>759</v>
@@ -7616,7 +9235,7 @@
         <v>143</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="29">
         <v>1109</v>
@@ -7630,10 +9249,10 @@
         <v>139</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="29">
         <v>1000</v>
@@ -7650,7 +9269,7 @@
         <v>146</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="28">
         <v>500</v>
@@ -7667,7 +9286,7 @@
         <v>146</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="28">
         <v>500</v>
@@ -7684,7 +9303,7 @@
         <v>146</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="28">
         <v>500</v>
@@ -7701,7 +9320,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="28">
         <v>500</v>
@@ -7718,7 +9337,7 @@
         <v>146</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="28">
         <v>499</v>
@@ -7735,7 +9354,7 @@
         <v>146</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="28">
         <v>500</v>
@@ -7752,7 +9371,7 @@
         <v>146</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="28">
         <v>500</v>
@@ -7769,7 +9388,7 @@
         <v>154</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" s="29">
         <v>1001</v>
@@ -7786,7 +9405,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="28">
         <v>500</v>
@@ -7803,7 +9422,7 @@
         <v>154</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="29">
         <v>1002</v>
@@ -7820,7 +9439,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="28">
         <v>500</v>
@@ -7837,7 +9456,7 @@
         <v>154</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="28">
         <v>507</v>
@@ -7854,7 +9473,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="28">
         <v>531</v>
@@ -7871,7 +9490,7 @@
         <v>161</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" s="28">
         <v>522</v>
@@ -7888,7 +9507,7 @@
         <v>154</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="29">
         <v>1500</v>
@@ -7905,7 +9524,7 @@
         <v>154</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="29">
         <v>1002</v>
@@ -7922,7 +9541,7 @@
         <v>154</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="29">
         <v>2010</v>
@@ -7939,7 +9558,7 @@
         <v>166</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="29">
         <v>2002</v>
@@ -7956,7 +9575,7 @@
         <v>166</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="29">
         <v>2000</v>
@@ -7964,7 +9583,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>139</v>
@@ -7973,7 +9592,7 @@
         <v>154</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="29">
         <v>1014</v>
@@ -7990,7 +9609,7 @@
         <v>154</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" s="29">
         <v>2023</v>
@@ -9230,17 +10849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -9483,6 +11091,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9493,23 +11112,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9528,6 +11130,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D1F5B7-B328-6344-A953-AE3AB7B8AE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCF5041-165D-5E4D-9D34-3CFB45734C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="505">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1275,9 +1275,6 @@
     <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 46 to 86 minutes.</t>
   </si>
   <si>
-    <t>Data for Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2022</t>
-  </si>
-  <si>
     <t>Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
   </si>
   <si>
@@ -1302,9 +1299,6 @@
     <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 46 minutes in length and ranged from 42 to 79 minutes.</t>
   </si>
   <si>
-    <t>Antigua and Barbuda, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Dominicans</t>
   </si>
   <si>
@@ -1320,9 +1314,6 @@
     <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 19 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 48 minutes in length and ranged from 47 to 87 minutes.</t>
   </si>
   <si>
-    <t>Antigua and Barbuda, Barbados, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Grenadian</t>
   </si>
   <si>
@@ -1344,9 +1335,6 @@
     <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 48 to 88 minutes.</t>
   </si>
   <si>
-    <t>Antigua and Barbuda, Barbados, Dominica, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Kittitians and Nevisians</t>
   </si>
   <si>
@@ -1389,9 +1377,6 @@
     <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 42 minutes in length and ranged from 40 to 72 minutes.</t>
   </si>
   <si>
-    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Vincentians</t>
   </si>
   <si>
@@ -1407,9 +1392,6 @@
     <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 38 minutes in length and ranged from 36 to 71 minutes.</t>
   </si>
   <si>
-    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, and Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>Trinidadians and Tobagonians</t>
   </si>
   <si>
@@ -1429,9 +1411,6 @@
   </si>
   <si>
     <t>The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 570 interviews (approximately 57% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 50 minutes in length and ranged from 43 to 87 minutes.</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, and St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>2022 and 2023</t>
@@ -1652,6 +1631,48 @@
   </si>
   <si>
     <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Nicaragua</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2022</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2023</t>
+  </si>
+  <si>
+    <t>Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2024</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2025</t>
+  </si>
+  <si>
+    <t>Barbados, Dominica, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2026</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2027</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, Dominica, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2028</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, Dominica, St. Lucia, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2029</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, Dominica, St. Lucia, and St. Vincent and the Grenadines</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2012,56 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2571,10 +2641,10 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3467,10 +3537,10 @@
         <v>393</v>
       </c>
       <c r="R15" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="S15" s="21" t="s">
         <v>394</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="192">
@@ -3499,37 +3569,37 @@
         <v>386</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>151</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M16" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="N16" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="O16" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="P16" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="Q16" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="Q16" s="21" t="s">
-        <v>402</v>
-      </c>
       <c r="R16" s="21" t="s">
-        <v>394</v>
+        <v>492</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="192">
@@ -3558,7 +3628,7 @@
         <v>386</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>151</v>
@@ -3570,25 +3640,25 @@
         <v>261</v>
       </c>
       <c r="M17" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="P17" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="O17" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>408</v>
-      </c>
       <c r="R17" s="21" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="192">
@@ -3617,37 +3687,37 @@
         <v>386</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>151</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M18" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="P18" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="Q18" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>416</v>
-      </c>
       <c r="R18" s="21" t="s">
-        <v>394</v>
+        <v>496</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="192">
@@ -3676,37 +3746,37 @@
         <v>386</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>151</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M19" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q19" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="R19" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="S19" s="21" t="s">
         <v>421</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="192">
@@ -3735,37 +3805,37 @@
         <v>386</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>151</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M20" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q20" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="N20" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>431</v>
-      </c>
       <c r="R20" s="21" t="s">
-        <v>394</v>
+        <v>499</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="192">
@@ -3794,37 +3864,37 @@
         <v>386</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>151</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>263</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>394</v>
+        <v>501</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="335">
@@ -3853,37 +3923,37 @@
         <v>386</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J22" s="40" t="s">
         <v>267</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>394</v>
+        <v>503</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="256">
@@ -3903,44 +3973,44 @@
         <v>154</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K23" s="58" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>261</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="21" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="O23" s="58" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P23" s="58" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S23" s="58" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="256">
@@ -3966,37 +4036,37 @@
         <v>7</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="R24" s="44" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="320">
@@ -4019,38 +4089,38 @@
         <v>2022</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="272">
@@ -4070,38 +4140,38 @@
         <v>166</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G26" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="13" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="R26" s="44" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="288">
@@ -4121,37 +4191,37 @@
         <v>166</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G27" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H27" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="R27" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="O27" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="P27" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="R27" s="44" t="s">
-        <v>456</v>
-      </c>
       <c r="S27" s="21" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="409.6">
@@ -4174,37 +4244,37 @@
         <v>2023</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="R28" s="44" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="224">
@@ -4230,130 +4300,130 @@
         <v>44896</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1 R1:XFD1 A30:XFD1048576 T2:XFD29">
-    <cfRule type="expression" dxfId="37" priority="96">
+    <cfRule type="expression" dxfId="44" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="97">
+    <cfRule type="expression" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="36" priority="94">
+    <cfRule type="expression" dxfId="43" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="95">
+    <cfRule type="expression" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="63">
+    <cfRule type="expression" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="28" priority="61">
+    <cfRule type="expression" dxfId="42" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="62">
+    <cfRule type="expression" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="60">
+    <cfRule type="expression" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S8">
-    <cfRule type="expression" dxfId="27" priority="58">
+    <cfRule type="expression" dxfId="41" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="59">
+    <cfRule type="expression" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="57">
+    <cfRule type="expression" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="26" priority="55">
+    <cfRule type="expression" dxfId="40" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="56">
+    <cfRule type="expression" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="25" priority="53">
+    <cfRule type="expression" dxfId="39" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="54">
+    <cfRule type="expression" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="24" priority="51">
+    <cfRule type="expression" dxfId="38" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="52">
+    <cfRule type="expression" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="23" priority="49">
+    <cfRule type="expression" dxfId="37" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="50">
+    <cfRule type="expression" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="22" priority="47">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="48">
+    <cfRule type="expression" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A22 K16:S16 I15:I21 K15:M15 O15:S15 K17:M17 O17:S17 K18:S18 K19:M19 O19:S19 K20:S20 K21:M21 O21:S21 K22:S22 D15:H22">
+  <conditionalFormatting sqref="A23:A29 D24:E24 G24:N24 D23:I23 S24:S29 P24:Q24 D25:Q29">
     <cfRule type="expression" dxfId="21" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4361,7 +4431,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C22">
+  <conditionalFormatting sqref="K23:M23 S23 O23:P23">
     <cfRule type="expression" dxfId="20" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4369,7 +4439,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="B23:C29">
     <cfRule type="expression" dxfId="19" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4377,7 +4447,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J23">
     <cfRule type="expression" dxfId="18" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4385,7 +4455,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="17" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4393,7 +4463,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="O24">
     <cfRule type="expression" dxfId="16" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4401,7 +4471,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="N23">
     <cfRule type="expression" dxfId="15" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4409,7 +4479,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="R23:R29">
     <cfRule type="expression" dxfId="14" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4417,60 +4487,60 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="13" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="12" priority="26">
+  <conditionalFormatting sqref="A15:A22 K16:Q16 I15:I21 K15:M15 O15:S15 K17:M17 O17:Q17 K18:Q18 K19:M19 O19:Q19 K20:Q20 K21:M21 O21:Q21 K22:Q22 D15:H22 R16:S22">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="27">
+    <cfRule type="expression" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="11" priority="24">
+  <conditionalFormatting sqref="B15:C22">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="25">
+    <cfRule type="expression" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="10" priority="22">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="23">
+    <cfRule type="expression" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="expression" dxfId="9" priority="20">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="21">
+    <cfRule type="expression" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="expression" dxfId="8" priority="18">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="19">
+    <cfRule type="expression" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" priority="17">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="8" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A29 D24:E24 G24:N24 D23:I23 S24:S29 P24:Q24 D25:Q29">
+  <conditionalFormatting sqref="J19">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4478,7 +4548,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:M23 S23 O23:P23">
+  <conditionalFormatting sqref="J20">
     <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4486,7 +4556,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C29">
+  <conditionalFormatting sqref="J21">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4494,7 +4564,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J22">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4502,7 +4572,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="N15">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4510,7 +4580,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="N17">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4518,7 +4588,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="N19">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4526,7 +4596,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R29">
+  <conditionalFormatting sqref="N21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -11092,6 +11162,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -11100,15 +11179,6 @@
     <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11131,6 +11201,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11145,12 +11223,4 @@
     <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCF5041-165D-5E4D-9D34-3CFB45734C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63771C7-6638-364D-BDE6-7A1E749F6CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="506">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1416,9 +1416,6 @@
     <t>2022 and 2023</t>
   </si>
   <si>
-    <t>November and December 2022, and January 2023</t>
-  </si>
-  <si>
     <t>Central America</t>
   </si>
   <si>
@@ -1468,9 +1465,6 @@
   </si>
   <si>
     <t>Belize, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
-  </si>
-  <si>
-    <t>November and December 2022</t>
   </si>
   <si>
     <t>CID Gallup based the sampling frame on 2022 population figures from the General Directorate of Statistics and Census (DIGESTYC) in El Salvador,  acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
@@ -1571,9 +1565,6 @@
     <t>Belize, Costa Rica, El Salvador, Guatemala, Nicaragua, and Panama</t>
   </si>
   <si>
-    <t>January 2023</t>
-  </si>
-  <si>
     <t>CID Gallup based the initial sampling frame on the most recent population projections from the Nicaraguan National Institute of Information Development (INIDE).</t>
   </si>
   <si>
@@ -1673,6 +1664,18 @@
   </si>
   <si>
     <t>Barbados, Grenada, Dominica, St. Lucia, and St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>between November 2022 and January 2023</t>
+  </si>
+  <si>
+    <t>between November and December 2022</t>
+  </si>
+  <si>
+    <t>in January 2023</t>
+  </si>
+  <si>
+    <t>in December 2022</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2006,13 +2009,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2638,13 +2696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:S22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3537,7 +3595,7 @@
         <v>393</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="S15" s="21" t="s">
         <v>394</v>
@@ -3596,10 +3654,10 @@
         <v>401</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="192">
@@ -3655,10 +3713,10 @@
         <v>406</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="192">
@@ -3714,10 +3772,10 @@
         <v>413</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="192">
@@ -3773,7 +3831,7 @@
         <v>420</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>421</v>
@@ -3832,10 +3890,10 @@
         <v>427</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="192">
@@ -3891,10 +3949,10 @@
         <v>432</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="335">
@@ -3950,10 +4008,10 @@
         <v>439</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="256">
@@ -3975,42 +4033,42 @@
       <c r="F23" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K23" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>261</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="O23" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="P23" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="Q23" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="R23" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="R23" s="44" t="s">
+      <c r="S23" s="58" t="s">
         <v>449</v>
-      </c>
-      <c r="S23" s="58" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="256">
@@ -4033,40 +4091,40 @@
         <v>2022</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K24" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="N24" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="O24" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="O24" s="44" t="s">
+      <c r="P24" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="Q24" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="R24" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S24" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="R24" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="320">
@@ -4089,38 +4147,38 @@
         <v>2022</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K25" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="N25" s="21" t="s">
+      <c r="P25" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="Q25" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="R25" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S25" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="R25" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="272">
@@ -4143,35 +4201,35 @@
         <v>440</v>
       </c>
       <c r="G26" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="P26" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="O26" s="21" t="s">
+      <c r="Q26" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="R26" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S26" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="R26" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="288">
@@ -4194,34 +4252,34 @@
         <v>440</v>
       </c>
       <c r="G27" t="s">
+        <v>502</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>442</v>
-      </c>
       <c r="J27" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="O27" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="P27" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="O27" s="21" t="s">
+      <c r="Q27" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="R27" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S27" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="R27" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="S27" s="21" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="409.6">
@@ -4244,37 +4302,37 @@
         <v>2023</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K28" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="P28" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="N28" s="21" t="s">
+      <c r="Q28" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="R28" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S28" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="R28" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="224">
@@ -4296,134 +4354,723 @@
       <c r="F29" s="57">
         <v>2022</v>
       </c>
-      <c r="G29" s="61">
-        <v>44896</v>
+      <c r="G29" s="60" t="s">
+        <v>505</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K29" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="P29" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="N29" s="21" t="s">
+      <c r="Q29" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="R29" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S29" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="P29" s="21" t="s">
+    </row>
+    <row r="30" spans="1:19" ht="192">
+      <c r="A30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="21">
+        <v>172</v>
+      </c>
+      <c r="C30" s="21">
+        <v>122</v>
+      </c>
+      <c r="D30" s="45">
+        <v>500</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="R30" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="Q29" s="21" t="s">
+      <c r="S30" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="192">
+      <c r="A31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="21">
+        <v>172</v>
+      </c>
+      <c r="C31" s="21">
+        <v>122</v>
+      </c>
+      <c r="D31" s="2">
+        <v>500</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="R31" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="R29" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="S29" s="21" t="s">
+      <c r="S31" s="21" t="s">
         <v>490</v>
       </c>
     </row>
+    <row r="32" spans="1:19" ht="192">
+      <c r="A32" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="21">
+        <v>172</v>
+      </c>
+      <c r="C32" s="21">
+        <v>122</v>
+      </c>
+      <c r="D32" s="54">
+        <v>500</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="192">
+      <c r="A33" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="21">
+        <v>172</v>
+      </c>
+      <c r="C33" s="21">
+        <v>122</v>
+      </c>
+      <c r="D33" s="54">
+        <v>500</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="192">
+      <c r="A34" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="21">
+        <v>172</v>
+      </c>
+      <c r="C34" s="21">
+        <v>122</v>
+      </c>
+      <c r="D34" s="13">
+        <v>500</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="192">
+      <c r="A35" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="21">
+        <v>172</v>
+      </c>
+      <c r="C35" s="21">
+        <v>122</v>
+      </c>
+      <c r="D35" s="13">
+        <v>500</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="192">
+      <c r="A36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="21">
+        <v>172</v>
+      </c>
+      <c r="C36" s="21">
+        <v>122</v>
+      </c>
+      <c r="D36" s="13">
+        <v>500</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="S36" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="335">
+      <c r="A37" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="21">
+        <v>172</v>
+      </c>
+      <c r="C37" s="21">
+        <v>122</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1 R1:XFD1 A30:XFD1048576 T2:XFD29">
-    <cfRule type="expression" dxfId="44" priority="125">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A38:XFD1048576 T2:XFD37">
+    <cfRule type="expression" dxfId="52" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="126">
+    <cfRule type="expression" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="43" priority="123">
+    <cfRule type="expression" dxfId="51" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="124">
+    <cfRule type="expression" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="92">
+    <cfRule type="expression" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="42" priority="90">
+    <cfRule type="expression" dxfId="50" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="91">
+    <cfRule type="expression" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="89">
+    <cfRule type="expression" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S8">
-    <cfRule type="expression" dxfId="41" priority="87">
+    <cfRule type="expression" dxfId="49" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="88">
+    <cfRule type="expression" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="86">
+    <cfRule type="expression" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="40" priority="84">
+    <cfRule type="expression" dxfId="48" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="85">
+    <cfRule type="expression" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="39" priority="82">
+    <cfRule type="expression" dxfId="47" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="83">
+    <cfRule type="expression" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="38" priority="80">
+    <cfRule type="expression" dxfId="46" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="81">
+    <cfRule type="expression" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="37" priority="78">
+    <cfRule type="expression" dxfId="45" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="79">
+    <cfRule type="expression" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="36" priority="76">
+    <cfRule type="expression" dxfId="44" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="77">
+    <cfRule type="expression" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A22 K16:Q16 I15:I21 K15:M15 O15:S15 K17:M17 O17:Q17 K18:Q18 K19:M19 O19:Q19 K20:Q20 K21:M21 O21:Q21 K22:Q22 D15:H22 R16:S22">
+    <cfRule type="expression" dxfId="35" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C22">
+    <cfRule type="expression" dxfId="34" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="33" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="32" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="31" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="30" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="29" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="28" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="27" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="26" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="expression" dxfId="25" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="expression" dxfId="24" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="expression" dxfId="23" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="expression" dxfId="22" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A29 D24:E24 G24:N24 D23:I23 S24:S29 P24:Q24 D25:Q29">
+  <conditionalFormatting sqref="A30:A37 K31:Q31 I30:I36 K30:M30 O30:S30 K32:M32 O32:Q32 K33:Q33 K34:M34 O34:Q34 K35:Q35 K36:M36 O36:Q36 K37:Q37 D30:H37 R31:S37">
     <cfRule type="expression" dxfId="21" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4431,7 +5078,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:M23 S23 O23:P23">
+  <conditionalFormatting sqref="B30:C37">
     <cfRule type="expression" dxfId="20" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4439,7 +5086,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C29">
+  <conditionalFormatting sqref="J30">
     <cfRule type="expression" dxfId="19" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4447,7 +5094,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J31">
     <cfRule type="expression" dxfId="18" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4455,7 +5102,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="J32">
     <cfRule type="expression" dxfId="17" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4463,7 +5110,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="J33">
     <cfRule type="expression" dxfId="16" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4471,7 +5118,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="J34">
     <cfRule type="expression" dxfId="15" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4479,7 +5126,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R29">
+  <conditionalFormatting sqref="J35">
     <cfRule type="expression" dxfId="14" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4487,60 +5134,60 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="J36">
+    <cfRule type="expression" dxfId="13" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A22 K16:Q16 I15:I21 K15:M15 O15:S15 K17:M17 O17:Q17 K18:Q18 K19:M19 O19:Q19 K20:Q20 K21:M21 O21:Q21 K22:Q22 D15:H22 R16:S22">
-    <cfRule type="expression" dxfId="13" priority="27">
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="28">
+    <cfRule type="expression" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C22">
-    <cfRule type="expression" dxfId="12" priority="25">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="26">
+    <cfRule type="expression" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="11" priority="23">
+  <conditionalFormatting sqref="N32">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="24">
+    <cfRule type="expression" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="10" priority="21">
+  <conditionalFormatting sqref="N34">
+    <cfRule type="expression" dxfId="9" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="22">
+    <cfRule type="expression" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="9" priority="19">
+  <conditionalFormatting sqref="N36">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="20">
+    <cfRule type="expression" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="A23:A29 D24:E24 G24:N24 S24:S29 P24:Q24 D25:Q29 D23:I23">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4548,7 +5195,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="K23:M23 S23 O23:P23">
     <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4556,7 +5203,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="B23:C29">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4564,7 +5211,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4572,7 +5219,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4580,7 +5227,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="O24">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4588,7 +5235,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="N23">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4596,7 +5243,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
+  <conditionalFormatting sqref="R23:R29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -10919,6 +11566,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -11161,15 +11817,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11182,6 +11829,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11196,14 +11851,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63771C7-6638-364D-BDE6-7A1E749F6CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="506">
   <si>
     <t>Sample Size</t>
   </si>
@@ -2014,161 +2014,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -2696,13 +2542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:S29"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3542,422 +3388,383 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="192">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:23" ht="256">
+      <c r="A15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="4">
+        <v>162</v>
+      </c>
+      <c r="C15" s="4">
+        <v>86</v>
+      </c>
+      <c r="D15" s="56">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G15" t="s">
+        <v>502</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="256">
+      <c r="A16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="13">
+        <v>115</v>
+      </c>
+      <c r="C16" s="13">
+        <v>77</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1005</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="320">
+      <c r="A17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="4">
+        <v>162</v>
+      </c>
+      <c r="C17" s="4">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="272">
+      <c r="A18" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18">
+        <v>162</v>
+      </c>
+      <c r="C18">
+        <v>86</v>
+      </c>
+      <c r="D18" s="54">
+        <v>2002</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="R18" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="288">
+      <c r="A19" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="4">
+        <v>162</v>
+      </c>
+      <c r="C19" s="4">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G19" t="s">
+        <v>502</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="R19" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="409.6">
+      <c r="A20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="13">
+        <v>51</v>
+      </c>
+      <c r="C20" s="13">
+        <v>16</v>
+      </c>
+      <c r="D20" s="45">
+        <v>1014</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="59">
+        <v>2023</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="224">
+      <c r="A21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="4">
+        <v>162</v>
+      </c>
+      <c r="C21" s="4">
+        <v>86</v>
+      </c>
+      <c r="D21" s="45">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="57">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="R21" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="192">
+      <c r="A22" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" s="21">
-        <v>172</v>
-      </c>
-      <c r="C15" s="21">
-        <v>122</v>
-      </c>
-      <c r="D15" s="45">
-        <v>500</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="192">
-      <c r="A16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="21">
-        <v>172</v>
-      </c>
-      <c r="C16" s="21">
-        <v>122</v>
-      </c>
-      <c r="D16" s="2">
-        <v>500</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="192">
-      <c r="A17" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="21">
-        <v>172</v>
-      </c>
-      <c r="C17" s="21">
-        <v>122</v>
-      </c>
-      <c r="D17" s="54">
-        <v>500</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="192">
-      <c r="A18" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="21">
-        <v>172</v>
-      </c>
-      <c r="C18" s="21">
-        <v>122</v>
-      </c>
-      <c r="D18" s="54">
-        <v>500</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="R18" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="S18" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="192">
-      <c r="A19" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="21">
-        <v>172</v>
-      </c>
-      <c r="C19" s="21">
-        <v>122</v>
-      </c>
-      <c r="D19" s="13">
-        <v>500</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="192">
-      <c r="A20" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="21">
-        <v>172</v>
-      </c>
-      <c r="C20" s="21">
-        <v>122</v>
-      </c>
-      <c r="D20" s="13">
-        <v>500</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="R20" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="S20" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="192">
-      <c r="A21" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="21">
-        <v>172</v>
-      </c>
-      <c r="C21" s="21">
-        <v>122</v>
-      </c>
-      <c r="D21" s="13">
-        <v>500</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="335">
-      <c r="A22" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="B22" s="21">
         <v>172</v>
@@ -3965,904 +3772,471 @@
       <c r="C22" s="21">
         <v>122</v>
       </c>
-      <c r="D22" s="13">
-        <v>1001</v>
+      <c r="D22" s="45">
+        <v>500</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F22" s="13">
         <v>2022</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="I22" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>267</v>
+      <c r="I22" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>261</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="R22" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="192">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="21">
+        <v>172</v>
+      </c>
+      <c r="C23" s="21">
+        <v>122</v>
+      </c>
+      <c r="D23" s="2">
         <v>500</v>
       </c>
-      <c r="S22" s="21" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="256">
-      <c r="A23" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="4">
-        <v>162</v>
-      </c>
-      <c r="C23" s="4">
-        <v>86</v>
-      </c>
-      <c r="D23" s="56">
-        <v>1500</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="G23" t="s">
-        <v>502</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>443</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="E23" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="21" t="s">
+        <v>397</v>
+      </c>
       <c r="N23" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="P23" s="58" t="s">
-        <v>446</v>
+        <v>398</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>400</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="R23" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="S23" s="58" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="256">
-      <c r="A24" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="13">
-        <v>115</v>
-      </c>
-      <c r="C24" s="13">
-        <v>77</v>
-      </c>
-      <c r="D24" s="45">
-        <v>1005</v>
+        <v>401</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="192">
+      <c r="A24" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="21">
+        <v>172</v>
+      </c>
+      <c r="C24" s="21">
+        <v>122</v>
+      </c>
+      <c r="D24" s="54">
+        <v>500</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="57">
+        <v>146</v>
+      </c>
+      <c r="F24" s="13">
         <v>2022</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>267</v>
+        <v>386</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>403</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>454</v>
+        <v>404</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>405</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="R24" s="44" t="s">
-        <v>448</v>
+        <v>406</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="320">
-      <c r="A25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="4">
-        <v>162</v>
-      </c>
-      <c r="C25" s="4">
-        <v>86</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2010</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="192">
+      <c r="A25" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="21">
+        <v>172</v>
+      </c>
+      <c r="C25" s="21">
+        <v>122</v>
+      </c>
+      <c r="D25" s="54">
+        <v>500</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="57">
+        <v>146</v>
+      </c>
+      <c r="F25" s="13">
         <v>2022</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>503</v>
+      <c r="G25" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="13" t="s">
-        <v>267</v>
+        <v>386</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>409</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="R25" s="44" t="s">
-        <v>448</v>
+        <v>413</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="272">
-      <c r="A26" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26">
-        <v>162</v>
-      </c>
-      <c r="C26">
-        <v>86</v>
-      </c>
-      <c r="D26" s="54">
-        <v>2002</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="G26" t="s">
-        <v>502</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="192">
+      <c r="A26" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="21">
+        <v>172</v>
+      </c>
+      <c r="C26" s="21">
+        <v>122</v>
+      </c>
+      <c r="D26" s="13">
+        <v>500</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="13" t="s">
-        <v>464</v>
+        <v>386</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="R26" s="44" t="s">
-        <v>448</v>
+        <v>420</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>495</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="288">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="192">
       <c r="A27" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="4">
-        <v>162</v>
-      </c>
-      <c r="C27" s="4">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="G27" t="s">
-        <v>502</v>
+        <v>151</v>
+      </c>
+      <c r="B27" s="21">
+        <v>172</v>
+      </c>
+      <c r="C27" s="21">
+        <v>122</v>
+      </c>
+      <c r="D27" s="13">
+        <v>500</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>470</v>
+        <v>386</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>424</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="Q27" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="R27" s="44" t="s">
-        <v>448</v>
+        <v>427</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>496</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="409.6">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="192">
       <c r="A28" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="13">
-        <v>51</v>
-      </c>
-      <c r="C28" s="13">
-        <v>16</v>
-      </c>
-      <c r="D28" s="45">
-        <v>1014</v>
+        <v>152</v>
+      </c>
+      <c r="B28" s="21">
+        <v>172</v>
+      </c>
+      <c r="C28" s="21">
+        <v>122</v>
+      </c>
+      <c r="D28" s="13">
+        <v>500</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="59">
-        <v>2023</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>504</v>
+        <v>146</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>267</v>
+        <v>386</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>430</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>479</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="R28" s="44" t="s">
-        <v>448</v>
+        <v>432</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>498</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="224">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="335">
       <c r="A29" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="4">
-        <v>162</v>
-      </c>
-      <c r="C29" s="4">
-        <v>86</v>
-      </c>
-      <c r="D29" s="45">
-        <v>2023</v>
+        <v>153</v>
+      </c>
+      <c r="B29" s="21">
+        <v>172</v>
+      </c>
+      <c r="C29" s="21">
+        <v>122</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1001</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="13">
         <v>2022</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>505</v>
+      <c r="G29" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="J29" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="J29" s="40" t="s">
         <v>267</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>435</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="R29" s="44" t="s">
-        <v>448</v>
+        <v>439</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>500</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="192">
-      <c r="A30" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="21">
-        <v>172</v>
-      </c>
-      <c r="C30" s="21">
-        <v>122</v>
-      </c>
-      <c r="D30" s="45">
-        <v>500</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="O30" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="192">
-      <c r="A31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="21">
-        <v>172</v>
-      </c>
-      <c r="C31" s="21">
-        <v>122</v>
-      </c>
-      <c r="D31" s="2">
-        <v>500</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="P31" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q31" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="R31" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="S31" s="21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="192">
-      <c r="A32" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="21">
-        <v>172</v>
-      </c>
-      <c r="C32" s="21">
-        <v>122</v>
-      </c>
-      <c r="D32" s="54">
-        <v>500</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I32" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="N32" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="P32" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="R32" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="S32" s="21" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="192">
-      <c r="A33" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="21">
-        <v>172</v>
-      </c>
-      <c r="C33" s="21">
-        <v>122</v>
-      </c>
-      <c r="D33" s="54">
-        <v>500</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="P33" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="R33" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="192">
-      <c r="A34" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="21">
-        <v>172</v>
-      </c>
-      <c r="C34" s="21">
-        <v>122</v>
-      </c>
-      <c r="D34" s="13">
-        <v>500</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="N34" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="P34" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="R34" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="S34" s="21" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="192">
-      <c r="A35" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="21">
-        <v>172</v>
-      </c>
-      <c r="C35" s="21">
-        <v>122</v>
-      </c>
-      <c r="D35" s="13">
-        <v>500</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="R35" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="S35" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="192">
-      <c r="A36" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="21">
-        <v>172</v>
-      </c>
-      <c r="C36" s="21">
-        <v>122</v>
-      </c>
-      <c r="D36" s="13">
-        <v>500</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="S36" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="335">
-      <c r="A37" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="21">
-        <v>172</v>
-      </c>
-      <c r="C37" s="21">
-        <v>122</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1001</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="N37" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="R37" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="S37" s="21" t="s">
         <v>501</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1 R1:XFD1 A38:XFD1048576 T2:XFD37">
-    <cfRule type="expression" dxfId="52" priority="171">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A30:XFD1048576 T2:XFD29">
+    <cfRule type="expression" dxfId="30" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="172">
@@ -4870,7 +4244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="51" priority="169">
+    <cfRule type="expression" dxfId="29" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="170">
@@ -4883,7 +4257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="50" priority="136">
+    <cfRule type="expression" dxfId="28" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="137">
@@ -4896,7 +4270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S8">
-    <cfRule type="expression" dxfId="49" priority="133">
+    <cfRule type="expression" dxfId="27" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="134">
@@ -4909,7 +4283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="48" priority="130">
+    <cfRule type="expression" dxfId="26" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="131">
@@ -4917,7 +4291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="47" priority="128">
+    <cfRule type="expression" dxfId="25" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="129">
@@ -4925,7 +4299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="46" priority="126">
+    <cfRule type="expression" dxfId="24" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="127">
@@ -4933,7 +4307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="45" priority="124">
+    <cfRule type="expression" dxfId="23" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="125">
@@ -4941,136 +4315,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="44" priority="122">
+    <cfRule type="expression" dxfId="22" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A22 K16:Q16 I15:I21 K15:M15 O15:S15 K17:M17 O17:Q17 K18:Q18 K19:M19 O19:Q19 K20:Q20 K21:M21 O21:Q21 K22:Q22 D15:H22 R16:S22">
-    <cfRule type="expression" dxfId="35" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C22">
-    <cfRule type="expression" dxfId="34" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="72">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="33" priority="69">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="32" priority="67">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="68">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="31" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="30" priority="63">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="64">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="29" priority="61">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="28" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="27" priority="57">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="26" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="25" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="54">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="24" priority="51">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="52">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="expression" dxfId="23" priority="49">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="50">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="expression" dxfId="22" priority="47">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A37 K31:Q31 I30:I36 K30:M30 O30:S30 K32:M32 O32:Q32 K33:Q33 K34:M34 O34:Q34 K35:Q35 K36:M36 O36:Q36 K37:Q37 D30:H37 R31:S37">
+  <conditionalFormatting sqref="A22:A29 K23:Q23 I22:I28 K22:M22 O22:S22 K24:M24 O24:Q24 K25:Q25 K26:M26 O26:Q26 K27:Q27 K28:M28 O28:Q28 K29:Q29 D22:H29 R23:S29">
     <cfRule type="expression" dxfId="21" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5078,7 +4335,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C37">
+  <conditionalFormatting sqref="B22:C29">
     <cfRule type="expression" dxfId="20" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5086,7 +4343,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J22">
     <cfRule type="expression" dxfId="19" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5094,7 +4351,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J23">
     <cfRule type="expression" dxfId="18" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5102,7 +4359,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J24">
     <cfRule type="expression" dxfId="17" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5110,7 +4367,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J25">
     <cfRule type="expression" dxfId="16" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5118,7 +4375,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J26">
     <cfRule type="expression" dxfId="15" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5126,7 +4383,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="J27">
     <cfRule type="expression" dxfId="14" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5134,7 +4391,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J28">
     <cfRule type="expression" dxfId="13" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5142,7 +4399,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J29">
     <cfRule type="expression" dxfId="12" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5150,7 +4407,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
+  <conditionalFormatting sqref="N22">
     <cfRule type="expression" dxfId="11" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5158,7 +4415,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32">
+  <conditionalFormatting sqref="N24">
     <cfRule type="expression" dxfId="10" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5166,7 +4423,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
+  <conditionalFormatting sqref="N26">
     <cfRule type="expression" dxfId="9" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5174,7 +4431,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N36">
+  <conditionalFormatting sqref="N28">
     <cfRule type="expression" dxfId="8" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5182,12 +4439,12 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A29 D24:E24 G24:N24 S24:S29 P24:Q24 D25:Q29 D23:I23">
+  <conditionalFormatting sqref="A15:A21 D16:E16 G16:N16 S16:S21 P16:Q16 D17:Q21 D15:I15">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5195,7 +4452,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:M23 S23 O23:P23">
+  <conditionalFormatting sqref="K15:M15 S15 O15:P15">
     <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5203,7 +4460,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C29">
+  <conditionalFormatting sqref="B15:C21">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5211,7 +4468,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J15">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5219,7 +4476,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="Q15">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5227,7 +4484,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
+  <conditionalFormatting sqref="O16">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5235,7 +4492,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="N15">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5243,7 +4500,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R29">
+  <conditionalFormatting sqref="R15:R21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -11566,12 +10823,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11818,20 +11077,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11856,18 +11122,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D2154BF-4A41-5646-8BBA-51CA572BAE05}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E074EB27-0BC1-D84C-9A51-8ADB1261F559}"/>
   <bookViews>
-    <workbookView xWindow="-3800" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="-3800" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="392">
   <si>
     <t>Sample Size</t>
   </si>
@@ -417,9 +417,6 @@
     <t>The supervisory team directly oversaw 40% of all interviews in the field. During data processing, 50% of the interviews conducted in each city were verified by the central office. Any interview with abnormal audio, answer patterns, or duration was backchecked via telephone. After quality control, 59 interviews were rejected from the final sample. Interviews averaged 40 minutes in length and ranged from 19 to 93 minutes.</t>
   </si>
   <si>
-    <t>The supervisory team directly oversaw 20% of all interviews in the field. During data processing, 200 interviews (approximately 20% of the sample) were selected for audio review by the central office and 300 interviews (30% of the sample) were backchecked via telephone. After quality control, 2 interviews were rejected from the final sample. Additional quality control measures included GPS validation of all sampling segment interviews, checks for abnormal answer patterns, and photo verification. Interviews averaged 44 minutes in length and ranged from 26 to 81 minutes.</t>
-  </si>
-  <si>
     <t>Quality Control</t>
   </si>
   <si>
@@ -576,10 +573,6 @@
     <t>Most respondents (78%) identified themselves as Mestizo, followed by White (13%) and Indigenous (5%).</t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Districts were selected as the primary sampling unit according to quotas for age, gender, geographic distribution, and socioeconomic level. Within urban and rural districts, “census areas” and “populated centers,” respectively, were randomly selected as enumeration areas using probability proportionate to size sampling . The number of enumeration areas assigned to each district was determined by the relative population of each district. Within each enumeration area, survey administrators performed a systematic random route to sample households and randomly selected respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  
-Due to a lack of accessibility, the Loreto and San Martín regions of the Peruvian Amazon were excluded from the study. Loreto and San Martín were replaced by the eastern regions of Ucayali and Madre de Dios, located in the Amazon rainforest and Amazon basin, respectively. </t>
-  </si>
-  <si>
     <t>In total, 94 interviewers worked on this project, including 77 female interviewers. Enumerators worked in 33 regional teams; 19 interviewers were assigned to the Lima and Callao regions and 32 groups of two to three enumerators worked throughout the remaining regions. Interviews were conducted in Spanish.</t>
   </si>
   <si>
@@ -620,9 +613,6 @@
   </si>
   <si>
     <t>Argentinian</t>
-  </si>
-  <si>
-    <t>Florida, U.S.A</t>
   </si>
   <si>
     <t xml:space="preserve">Most respondents (65%) identified themselves as White, followed by Mestizo (32%). </t>
@@ -780,9 +770,6 @@
     <t>Bahamian</t>
   </si>
   <si>
-    <t>DMR Insights Ltd. based the sampling frame on the 2010 census figures from the Bahamas National Statistical Institute, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -804,9 +791,6 @@
     <t>San José, Costa Rica</t>
   </si>
   <si>
-    <t>CID Gallup based the sampling frame on 2018 population figures from the National Statistics Office of Dominican Republic (ONE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
     <t>In total, 52 interviewers worked on this project, including 31 female interviewers. Enumerators worked in ten groups of five to six interviewers with one to two supervisors per group. Interviews were conducted in Spanish.</t>
   </si>
   <si>
@@ -816,9 +800,6 @@
     <t>The Bahamas, Guyana, Haiti, Jamaica, and Suriname</t>
   </si>
   <si>
-    <t>StatMark Group based the sampling frame on 2012 population figures from the Bureau of Statistics of Guyana, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
     <t>In total, 21 interviewers worked on this project, all of whom were female. Enumerators worked in five groups of three to five interviewers. Interviews were conducted in English.</t>
   </si>
   <si>
@@ -849,21 +830,12 @@
     <t>Jamaican</t>
   </si>
   <si>
-    <t>StatMark Group based the sampling frame on 2018 census figures from the Statistical Institute of Jamaica (STATIN), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
     <t xml:space="preserve">Most respondents (82%) identified themselves as Afro-Jamaican, followed by Mixed Race (14%).   </t>
   </si>
   <si>
-    <t>The supervisory team directly oversaw or backchecked via telephone 300 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. After  quality control, 69 interviews were rejected from the final sample Interviews averaged 40 minutes in length and ranged from 20 to 99 minutes.</t>
-  </si>
-  <si>
     <t>The Bahamas, the Dominican Republic, Guyana, Haiti, and Suriname</t>
   </si>
   <si>
-    <t>Virginia, U.S.A</t>
-  </si>
-  <si>
     <t>English and Dutch</t>
   </si>
   <si>
@@ -876,9 +848,6 @@
     <t>Bahamas</t>
   </si>
   <si>
-    <t>cities</t>
-  </si>
-  <si>
     <t>four</t>
   </si>
   <si>
@@ -891,9 +860,6 @@
     <t>Abaco</t>
   </si>
   <si>
-    <t>Seventy-eight percent (78%) of the interviews took place in Nassau, followed by 16% in Grand Bahama Island and 6% in Abaco</t>
-  </si>
-  <si>
     <t>Region 1</t>
   </si>
   <si>
@@ -903,9 +869,6 @@
     <t>Region 2</t>
   </si>
   <si>
-    <t>Cibao North</t>
-  </si>
-  <si>
     <t>Region 3</t>
   </si>
   <si>
@@ -915,15 +878,9 @@
     <t>Region 4</t>
   </si>
   <si>
-    <t>Cibao South</t>
-  </si>
-  <si>
     <t>Region 5</t>
   </si>
   <si>
-    <t>Cibao Northeast</t>
-  </si>
-  <si>
     <t>Region 6</t>
   </si>
   <si>
@@ -939,9 +896,6 @@
     <t>Region 8</t>
   </si>
   <si>
-    <t>Cibao Northwest</t>
-  </si>
-  <si>
     <t>Region 9</t>
   </si>
   <si>
@@ -954,9 +908,6 @@
     <t>El Valle</t>
   </si>
   <si>
-    <t>Thirty-seven percent (37%) of the interviews took place in Ozama, followed by Cibao North (16%), Valdesia (10%), Cibao South (8%), and the remaining 29% in other regions</t>
-  </si>
-  <si>
     <t>Georgetown</t>
   </si>
   <si>
@@ -966,15 +917,9 @@
     <t>Linden</t>
   </si>
   <si>
-    <t>Seventy-three percent (73%) of the interviews took place in Georgetown, followed by 14% in New Amsterdam and 13% in Linden</t>
-  </si>
-  <si>
     <t>Capital</t>
   </si>
   <si>
-    <t>Thirty-seven percent (37%) of the interviews took place in the Capital region, followed by 22% in the Central region, 22% in the North region, and 20% in the South region</t>
-  </si>
-  <si>
     <t>Middlesex</t>
   </si>
   <si>
@@ -984,9 +929,6 @@
     <t>Cornwall</t>
   </si>
   <si>
-    <t>Forty-six percent (46%) of the interviews took place in Middlesex, followed by 31% in Surrey and 23% in Cornwall</t>
-  </si>
-  <si>
     <t>Paramaribo</t>
   </si>
   <si>
@@ -1011,9 +953,6 @@
     <t>Coronie</t>
   </si>
   <si>
-    <t>Thirty-eight percent (38%) of the interviews took place in Paramaribo, followed by 33% in Wanica, 7% in Nickerie, and the remaining 22% in other regions</t>
-  </si>
-  <si>
     <t>Captura Consulting</t>
   </si>
   <si>
@@ -1023,18 +962,12 @@
     <t>between July and August 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Forty-nine percent (49%) of respondents identified themselves as Afro-Bahamian or “Other,” followed by Indigenous (39%) and Mixed (12%). </t>
-  </si>
-  <si>
     <t>Most respondents (97%) reported that they had received at least a high school diploma or  vocational degree and the remaining 3% of respondents received up to a middle school diploma.</t>
   </si>
   <si>
     <t>between June and July 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">More than one-quarter (27%) of all respondents identified themselves as Mestizo, followed by Mulatto (24%) and White (20%). </t>
-  </si>
-  <si>
     <t>More than half of all respondents (52%) reported that they had received up to a middle school diploma, and the remaining 48% of respondents received at least a high school diploma or vocational degree.</t>
   </si>
   <si>
@@ -1044,24 +977,15 @@
     <t>Guyanese respondent</t>
   </si>
   <si>
-    <t xml:space="preserve">Thirty percent (39%) of respondents identified themselves as Afro-Guyanese, followed by Mixed Race (26%) and Indo-Guyanese (23%). </t>
-  </si>
-  <si>
     <t xml:space="preserve">More than half of all respondents (57%) reported that they received at least a high school diploma or vocational degree and the remaining 43% of respondents received up to a middle school diploma. </t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and metropolitan areas were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within metropolitan areas, towns and neighborhoods were selected as primary sampling units using probability proportional to size sampling. Street blocks within the primary sampling units were selected at random, and each house within the selected enumeration area was approached. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t>The supervisory team directly oversaw or backchecked via telephone 150 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. Interviews averaged 41 minutes in length and ranged from 21 to 108 minutes.</t>
   </si>
   <si>
     <t>in June 2022</t>
   </si>
   <si>
-    <t>CID Gallup based the sampling frame on the 2022 projected population figures from the Latin American and Caribbean Demographic Center (CELADE) of the United Nations Economic Commission for Latin America and the Caribbean (CEPAL), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regions, arrondissements, and communes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within communes, populated areas were selected as the primary sampling unit using probability proportional to size sampling. Enumeration areas were then randomly selected at the neighborhood level. Within each enumeration area, survey administrators performed a systematic random route around a central point of reference to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
   </si>
   <si>
@@ -1071,9 +995,6 @@
     <t>Most respondents (80%) reported that they received at least a high school diploma or vocational degree and the remaining 20% of respondents received up to a middle school diploma.</t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and parishes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within parishes, cities were then selected as primary sampling units using probability proportional to size sampling. Neighborhood blocks within the primary sampling units were selected at random, and each house within the selected enumeration area was approached. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t>In total, 39 interviewers worked on this project, including 28 female interviewers. Enumerators worked in groups of five interviewers each. Interviews were conducted in English.</t>
   </si>
   <si>
@@ -1081,9 +1002,6 @@
   </si>
   <si>
     <t>Surinamese respondent</t>
-  </si>
-  <si>
-    <t>D3: Designs, Data, Decisions based the sampling frame on 2012 population figures from the General Statistics Bureau of Suriname, acquiring a proportionally stratified sample by district, age, gender, socioeconomic status, and level of urbanization</t>
   </si>
   <si>
     <t xml:space="preserve">One-quarter (25%) of all respondents identified themselves as Maroon, followed by Creole (23%) and Mixed Race (18%). </t>
@@ -1164,9 +1082,6 @@
     <t xml:space="preserve">Most respondents (60%) reported that they had received up to a middle school diploma, and the remaining 40% of respondents received at least a high school diploma or vocational degree. </t>
   </si>
   <si>
-    <t>Data for the Dominican Republic was collected in 2016, 2018, and 2022. Data for The Bahamas, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2014, 2017, 2019, and 2022</t>
-  </si>
-  <si>
     <t>Most respondents (68%) reported that they had received up to a middle school diploma, and the remaining 32% of respondents received at least a high school diploma or vocational degree.</t>
   </si>
   <si>
@@ -1194,433 +1109,9 @@
     <t>In total, 28 interviewers worked on this project, including 18 female interviewers. Enumerators worked in six groups of four to five interviewers with one supervisor per group. Interviews were conducted in Spanish.</t>
   </si>
   <si>
-    <t>Eastern Caribbean</t>
-  </si>
-  <si>
-    <t>Antiguans and Barbudans</t>
-  </si>
-  <si>
-    <t>DMR Insights Ltd. based the sampling frame on 2011 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
-    <t>Most respondents (93%) identified themselves as Afro-Antiguan and Barbudan, followed by Mixed Race (7%).</t>
-  </si>
-  <si>
-    <t>Most respondents (95%) reported that they had received at least a high school diploma or vocational degree and the remaining 5% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Given Antigua and Barbuda’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>In total, 18 interviewers worked on this project, including 11 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 46 to 86 minutes.</t>
-  </si>
-  <si>
-    <t>Barbados, Dominica, Grenada, St. Kitts and Nevis, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Barbadians</t>
-  </si>
-  <si>
-    <t>DMR Insights Ltd. based the sampling frame on 2010 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
-    <t>Most respondents (88%) identified themselves as Afro-Barbadian, followed by Mixed Race (7%).</t>
-  </si>
-  <si>
-    <t>Most respondents (88%) reported that they had received at least a high school diploma or  vocational degree and the remaining 12% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Given Barbados’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>In total, 19 interviewers worked on this project, including 11 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 46 minutes in length and ranged from 42 to 79 minutes.</t>
-  </si>
-  <si>
-    <t>Dominicans</t>
-  </si>
-  <si>
-    <t>Most respondents (77%) identified themselves as Afro-Dominican, followed by Mixed Race (14%).</t>
-  </si>
-  <si>
-    <t>Most respondents (89%) reported that they had received at least a high school diploma or  vocational degree and the remaining 11% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Given Dominica’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 19 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 48 minutes in length and ranged from 47 to 87 minutes.</t>
-  </si>
-  <si>
-    <t>Grenadian</t>
-  </si>
-  <si>
-    <t>DMR Insights Ltd. based the sampling frame on 2011 census figures  , acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
-    <t>Most respondents (63%) identified themselves as Afro-Grenadian, followed by Mixed Race (32%).</t>
-  </si>
-  <si>
-    <t>Most respondents (70%) reported that they had received at least a high school diploma or  vocational degree and the remaining 30% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Given Grenada’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four interviewers. Interviews were conducted in English.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 48 to 88 minutes.</t>
-  </si>
-  <si>
-    <t>Kittitians and Nevisians</t>
-  </si>
-  <si>
-    <t>DMR Insights Ltd. based the sampling frame on projected population figures from the Caribbean Community (CARICOM), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (87%) identified themselves as Afro-Kittitian and Nevisian, followed by Afro-European (12%).   </t>
-  </si>
-  <si>
-    <t>Most respondents (68%) reported that they had received at least a high school diploma or  vocational degree and the remaining 32% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Given St. Kitts and Nevis’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>In total, 17 interviewers worked on this project, including 10 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 17 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 46 to 86 minutes.</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Saint Lucian</t>
-  </si>
-  <si>
-    <t>Most respondents (91%) identified themselves as Afro-Saint Lucian, followed by Mixed Race (5%).</t>
-  </si>
-  <si>
-    <t>Most respondents (81%) reported that they had received at least a high school diploma or  vocational degree and the remaining 19% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Given St. Lucia’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>In total, 21 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four to five interviewers. Interviews were conducted in English.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 42 minutes in length and ranged from 40 to 72 minutes.</t>
-  </si>
-  <si>
-    <t>Vincentians</t>
-  </si>
-  <si>
-    <t>DMR Insights Ltd. based the sampling frame on 2012 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (76%) identified themselves as Afro-Vincentian, followed by Mixed Race 21%).   </t>
-  </si>
-  <si>
-    <t>Given St. Vincent and the Grenadines’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 38 minutes in length and ranged from 36 to 71 minutes.</t>
-  </si>
-  <si>
-    <t>Trinidadians and Tobagonians</t>
-  </si>
-  <si>
     <t>CID Gallup based the sampling frame on the 2022 projected population figures from the Latin American and Caribbean Demographic Center (CELADE) of the United Nations Economic Commission for Latin America and the Caribbean (CEPAL), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
   </si>
   <si>
-    <t>Forty-four (44%) percent of respondents identified themselves as Afro-Trinidadian and Tobagonian, followed by Indo-Trinidadian and Tobagonian (30%) and Mestizo (24%).</t>
-  </si>
-  <si>
-    <t>Most respondents (63%) reported that they had received at least a high school diploma or vocational degree and the remaining 37% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Regions and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks and districts selected via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on the relative population size of each municipality. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
-    <t>In total, 48 interviewers worked on this project, including 40 female interviewers. Enumerators worked in ten groups of four to five interviewers with one to two supervisors each. Interviews were conducted in English.</t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 570 interviews (approximately 57% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 50 minutes in length and ranged from 43 to 87 minutes.</t>
-  </si>
-  <si>
-    <t>2022 and 2023</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>Belizean</t>
-  </si>
-  <si>
-    <t>CID Gallup based the sampling frame on population figures from the 2019 population statistics from the United Nations  Department of Economic and Social Affairs, Population Division, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t>Most respondents (57%) reported that they had received up to a middle school diploma, and the remaining 43% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions and districts were selected to achieve a nationally representative sample of the country. Within each city or town, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 36 interviewers worked on this project, including 25 female interviewers. Enumerators worked in nine groups of of four interviewers with nine supervisors overseeing the project. Interviews were conducted in English. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 45% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 45 minutes in length and ranged from 31 to 93 minutes. </t>
-  </si>
-  <si>
-    <t>Data for Belize, Costa Rica, and Honduras was collected in 2022, 2019, 2017, and 2014. Data for Panama was collected in 2022, 2019, 2017, and 2014. Data for El Salvador and Guatemala was collected in 2022, 2018 and 2016</t>
-  </si>
-  <si>
-    <t>Costa Rica, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
-  </si>
-  <si>
-    <t>Costa Rican</t>
-  </si>
-  <si>
-    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Costa Rica (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 45% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Enumeration areas were randomly selected according to neighbohoods within each city and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 40 interviewers worked on this project, including 24 female interviewers. Enumerators worked in 10 groups of four interviewers with four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 37% of all interviews in the field. During data processing, 532 of the interviews (approximately 53% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 47 minutes in length and ranged from 40 to 88 minutes. </t>
-  </si>
-  <si>
-    <t>Belize, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
-  </si>
-  <si>
-    <t>CID Gallup based the sampling frame on 2022 population figures from the General Directorate of Statistics and Census (DIGESTYC) in El Salvador,  acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t>Most respondents (53%) reported that they had received up to a middle school diploma, and the remaining 47% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Regions and departments were selected to achieve a nationally representative sample in El Salvador. In cities, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">municipios </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cantóns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> served as the primary sampling unit and were randomly selected based on relative population sizes and socioeconomic distribution. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 43 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 11 groups of four interviewers with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 34% of all interviews in the field. During data processing, 37% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 34 to 97 minutes. </t>
-  </si>
-  <si>
-    <t>Belize, Costa Rica, Guatemala, Honduras, Nicaragua, and Panama</t>
-  </si>
-  <si>
-    <t>Guatemala City, Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercaplan based the sampling frame on the 2018 population figures from the Guatemalan National Institute of Statistics (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization. </t>
-  </si>
-  <si>
-    <t>Regions and departments were selected to achieve a nationally representative sample in Guatemala. Districts and municipalities were selected and neighborhoods were randomly selected within the districts and municipalities based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four with five supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 480 interviews (24% of the sample) in the field. During data validation, 335 interviews were conducted by telephone back-check and 327 interviews were selected for audio review by the central office. Interviews averaged 45 minutes in length.</t>
-  </si>
-  <si>
-    <t>Belize, Costa Rica, El Salvador, Honduras, Nicaragua, and Panama</t>
-  </si>
-  <si>
-    <t>San Pedro Sula, Honduras</t>
-  </si>
-  <si>
-    <t>Mercaplan based the sampling frame on the 2013 census and Population Projections 2013-2050 from the National Institute of Statistics (INE) in Honduras, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t>Regions and departments were selected to achieve a nationally representative sample in Honduras. Districts and municipalities were selected in urban areas and villages in rural areas. Neighborhoods were randomly selected within the districts and municipalities or villages based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 29 interviewers worked on this project. Enumerators worked in groups with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviews averaged 37 minutes in length and ranged from 29 to 45 minutes. </t>
-  </si>
-  <si>
-    <t>Belize, Costa Rica, El Salvador, Guatemala, Nicaragua, and Panama</t>
-  </si>
-  <si>
-    <t>CID Gallup based the initial sampling frame on the most recent population projections from the Nicaraguan National Institute of Information Development (INIDE).</t>
-  </si>
-  <si>
-    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 44% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <t>All interviews in Nicaragua were conducted using a CATI (Computer Assisted Telephone Interviewing) system. Generation of the cellular RDD (Resilient Distributed Datasets) frame is based on the phone number blocks used in the telephone numbering plan by using pre-codes and stratifying them by provider distribution. The RDD cellular framework for Nicaragua uses a national numbering plan provided by the government. Using this numbering plan, CID Gallup developed a probabilistic design for pulling “seed” blocks from which actual phone numbers were randomly generated. For the mobile sample, CID Gallup classified mobile providers, which are used for residential services and commercial services, and excluded commercial numbers from the sample. The mobile sample was sorted by the amount of allocated numbering blocks. All cell numbers were used and subdivided into blocks of 100 numbers each, each block was enriched by random digits in order to create a seed, and then the last 2-digits were randomized to create the numbers to be called.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 44 interviewers worked on this project, including 25 female interviewers. Enumberators worked under the supervision of four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 46% of all interviews. During data processing, 62% of the interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 40 minutes in length and ranged from 21 to 109 minutes. </t>
-  </si>
-  <si>
-    <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Panama</t>
-  </si>
-  <si>
-    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Panama (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 49% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Regions, provinces, and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">comarcas  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>were selected to achieve a nationally representative sample in Panama. Interviewers were assigned a segment starting point that was selected systematically to coincide with the region. Interviewers performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 68 interviewers worked on this project, including 59 female interviewers. Enumerators worked in 17 groups of four with a total of 17 supvisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 36% of al interviews in the field. During data processing, 41% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 99 minutes.</t>
-  </si>
-  <si>
-    <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Nicaragua</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2022</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2023</t>
-  </si>
-  <si>
-    <t>Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2024</t>
-  </si>
-  <si>
-    <t>Barbados, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2025</t>
-  </si>
-  <si>
-    <t>Barbados, Dominica, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2026</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2027</t>
-  </si>
-  <si>
-    <t>Barbados, Grenada, Dominica, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2028</t>
-  </si>
-  <si>
-    <t>Barbados, Grenada, Dominica, St. Lucia, and Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2029</t>
-  </si>
-  <si>
-    <t>Barbados, Grenada, Dominica, St. Lucia, and St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>between November 2022 and January 2023</t>
-  </si>
-  <si>
-    <t>between November and December 2022</t>
-  </si>
-  <si>
-    <t>in January 2023</t>
-  </si>
-  <si>
-    <t>in December 2022</t>
-  </si>
-  <si>
     <t>Florida, USA</t>
   </si>
   <si>
@@ -1676,6 +1167,106 @@
   </si>
   <si>
     <t>Southern Cone</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 20% of all interviews in the field. During data processing, 200 interviews (approximately 20% of the sample) were selected for audio review by the central office and 300 interviews (30% of the sample) were backchecked via telephone.  Additional quality control measures included GPS validation of all sampling segment interviews, checks for abnormal answer patterns, and photo verification. After quality control, two interviews were rejected from the final sample. Interviews averaged 44 minutes in length and ranged from 26 to 81 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Districts were selected as the primary sampling unit according to quotas for age, gender, geographic distribution, and socioeconomic level. Within urban and rural districts, census areas and populated centers, respectively, were randomly selected as enumeration areas using probability proportionate to size sampling . The number of enumeration areas assigned to each district was determined by the relative population of each district. Within each enumeration area, survey administrators performed a systematic random route to sample households and randomly selected respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  
+Due to a lack of accessibility, the Loreto and San Martín regions of the Peruvian Amazon were excluded from the study. Loreto and San Martín were replaced by the eastern regions of Ucayali and Madre de Dios, located in the Amazon rainforest and Amazon basin, respectively. </t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on the 2010 census figures from the Bahamas National Statistical Institute, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-nine percent (49%) of respondents identified themselves as Afro-Bahamian or “Other,” followed by Indigenous (39%) and Mixed Race (12%). </t>
+  </si>
+  <si>
+    <t>Data for The Bahamas, the Dominican Republic, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2014, 2017, 2019, and 2022.</t>
+  </si>
+  <si>
+    <t>the Dominican Republic</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2018 population figures from the National Statistics Office of Dominican Republic (ONE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than one-quarter (27%) of all respondents identified themselves as Mestizo, followed by Afro-Dominican (24%) and White (20%). </t>
+  </si>
+  <si>
+    <t>StatMark Group based the sampling frame on 2012 population figures from the Bureau of Statistics of Guyana, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty-nine percent (39%) of respondents identified themselves as Afro-Guyanese, followed by Mixed Race (26%) and Indo-Guyanese (23%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and metropolitan areas were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within metropolitan areas, towns and neighborhoods were selected as primary sampling units using probability proportional to size sampling. Street blocks within the primary sampling units were selected at random, and each house within the selected enumeration area was approached. Survey administrators used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>StatMark Group based the sampling frame on 2018 census figures from the Statistical Institute of Jamaica (STATIN), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and parishes were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within parishes, cities and towns were then selected as primary sampling units using probability proportional to size sampling. Neighborhood blocks within the primary sampling units were selected at random, and each house within the selected enumeration area was approached. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw or backchecked via telephone 300 interviews (approximately 30% of the total sample). Additional quality control measures included GPS validation, audio quality checks, and checks for abnormal answer patterns. After quality control, 69 interviews were rejected from the final sample. Interviews averaged 40 minutes in length and ranged from 20 to 99 minutes.</t>
+  </si>
+  <si>
+    <t>Virginia, USA</t>
+  </si>
+  <si>
+    <t>D3: Designs, Data, Decisions based the sampling frame on 2012 population figures from the General Statistics Bureau of Suriname, acquiring a proportionally stratified sample by district, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>provinces</t>
+  </si>
+  <si>
+    <t>major metropolitan areas</t>
+  </si>
+  <si>
+    <t>parishes</t>
+  </si>
+  <si>
+    <t>all 14</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>cities and towns</t>
+  </si>
+  <si>
+    <t>The majority of interviews (78%) took place in Nassau, followed by 17% in Grand Bahama Island and 5% in Abaco.</t>
+  </si>
+  <si>
+    <t>North Cibao</t>
+  </si>
+  <si>
+    <t>South Ciabo</t>
+  </si>
+  <si>
+    <t>Northeast Ciabo</t>
+  </si>
+  <si>
+    <t>Northwest Ciabo</t>
+  </si>
+  <si>
+    <t>The majority of interviews took place in Ozama (37%), North Ciabo (16%), and Valdesia (10%).</t>
+  </si>
+  <si>
+    <t>The majority of interviews (73%) took place in Georgetown, followed by 14% in New Amsterdam and 13% in Linden.</t>
+  </si>
+  <si>
+    <t>Thirty-seven percent (37%) of the interviews took place in the Capital region, followed by 22% in the North region, 22% in the South region, and 20% in the Central region.</t>
+  </si>
+  <si>
+    <t>Forty-six percent (46%) of the interviews took place in Middlesex, followed by 31% in Surrey and 23% in Cornwall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para </t>
+  </si>
+  <si>
+    <t>The majority of interviews took place in Paramaribo (42%), Wanica (22%), and Nickerie (8%).</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1996,17 +1587,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2023,117 +1603,22 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -2612,13 +2097,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:S8"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2671,13 +2156,13 @@
         <v>56</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>108</v>
@@ -2704,13 +2189,13 @@
         <v>1000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F2" s="13">
         <v>2022</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>7</v>
@@ -2722,28 +2207,28 @@
         <v>107</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>495</v>
+        <v>348</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>170</v>
-      </c>
       <c r="R2" s="19" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="S2" s="19" t="s">
         <v>117</v>
@@ -2763,13 +2248,13 @@
         <v>1000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F3" s="13">
         <v>2022</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>7</v>
@@ -2778,10 +2263,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>496</v>
+        <v>349</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>115</v>
@@ -2790,19 +2275,19 @@
         <v>121</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>116</v>
@@ -2828,40 +2313,40 @@
         <v>2022</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>487</v>
+        <v>340</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>115</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>488</v>
+        <v>341</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>123</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="S4" s="19" t="s">
         <v>118</v>
@@ -2881,13 +2366,13 @@
         <v>1029</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="F5" s="13">
         <v>2022</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>7</v>
@@ -2896,31 +2381,31 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>497</v>
+        <v>350</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>115</v>
       </c>
       <c r="M5" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="P5" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="O5" s="19" t="s">
+      <c r="Q5" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>179</v>
-      </c>
       <c r="R5" s="19" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>119</v>
@@ -2928,7 +2413,7 @@
     </row>
     <row r="6" spans="1:23" ht="126" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="43">
         <v>115</v>
@@ -2946,48 +2431,48 @@
         <v>2022</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>505</v>
+        <v>358</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>487</v>
+        <v>340</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>498</v>
+        <v>351</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>115</v>
       </c>
       <c r="M6" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="O6" s="35" t="s">
+      <c r="R6" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="S6" s="43" t="s">
         <v>194</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="S6" s="43" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="126" customHeight="1">
       <c r="A7" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="43">
         <v>115</v>
@@ -2999,54 +2484,54 @@
         <v>1109</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="48">
         <v>2022</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>505</v>
+        <v>358</v>
       </c>
       <c r="I7" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="N7" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="O7" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="L7" s="35" t="s">
+      <c r="P7" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="Q7" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="N7" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="O7" s="35" t="s">
+      <c r="R7" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="S7" s="43" t="s">
         <v>202</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="R7" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="S7" s="43" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="126" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="43">
         <v>88</v>
@@ -3058,54 +2543,54 @@
         <v>1000</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F8" s="44">
         <v>2021</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>505</v>
+        <v>358</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>501</v>
+        <v>354</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>115</v>
       </c>
       <c r="M8" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q8" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="N8" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="R8" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="S8" s="43" t="s">
         <v>208</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="R8" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="S8" s="43" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="126" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="19">
         <v>172</v>
@@ -3117,54 +2602,54 @@
         <v>500</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F9" s="19">
         <v>2022</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H9" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="P9" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="R9" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>154</v>
+        <v>364</v>
       </c>
       <c r="B10" s="19">
         <v>172</v>
@@ -3176,54 +2661,54 @@
         <v>1002</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="19">
         <v>2022</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="126" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="19">
         <v>172</v>
@@ -3241,48 +2726,48 @@
         <v>2022</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="126" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="19">
         <v>172</v>
@@ -3294,54 +2779,54 @@
         <v>507</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="19">
         <v>2022</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="S12" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="126" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="19">
         <v>172</v>
@@ -3359,48 +2844,48 @@
         <v>2022</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>192</v>
+        <v>260</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>267</v>
+        <v>370</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>269</v>
+        <v>372</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="126" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="40">
         <f>172-5</f>
@@ -3413,1164 +2898,362 @@
         <v>502</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="19">
         <v>2022</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="256">
-      <c r="A15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="4">
-        <v>162</v>
-      </c>
-      <c r="C15" s="4">
-        <v>86</v>
-      </c>
-      <c r="D15" s="52">
-        <v>1500</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="G15" t="s">
-        <v>483</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="O15" s="54" t="s">
-        <v>426</v>
-      </c>
-      <c r="P15" s="54" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S15" s="54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="256">
-      <c r="A16" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="13">
-        <v>115</v>
-      </c>
-      <c r="C16" s="13">
-        <v>77</v>
-      </c>
-      <c r="D16" s="41">
-        <v>1005</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="53">
-        <v>2022</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="O16" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="320">
-      <c r="A17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="4">
-        <v>162</v>
-      </c>
-      <c r="C17" s="4">
-        <v>86</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="53">
-        <v>2022</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="272">
-      <c r="A18" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18">
-        <v>162</v>
-      </c>
-      <c r="C18">
-        <v>86</v>
-      </c>
-      <c r="D18" s="50">
-        <v>2002</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="G18" t="s">
-        <v>483</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="288">
-      <c r="A19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="4">
-        <v>162</v>
-      </c>
-      <c r="C19" s="4">
-        <v>86</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="G19" t="s">
-        <v>483</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="R19" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="409.6">
-      <c r="A20" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="13">
-        <v>51</v>
-      </c>
-      <c r="C20" s="13">
-        <v>16</v>
-      </c>
-      <c r="D20" s="41">
-        <v>1014</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="55">
-        <v>2023</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="224">
-      <c r="A21" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="4">
-        <v>162</v>
-      </c>
-      <c r="C21" s="4">
-        <v>86</v>
-      </c>
-      <c r="D21" s="41">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="53">
-        <v>2022</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="192">
-      <c r="A22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="19">
-        <v>172</v>
-      </c>
-      <c r="C22" s="19">
-        <v>122</v>
-      </c>
-      <c r="D22" s="41">
-        <v>500</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="192">
-      <c r="A23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="19">
-        <v>172</v>
-      </c>
-      <c r="C23" s="19">
-        <v>122</v>
-      </c>
-      <c r="D23" s="2">
-        <v>500</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="192">
-      <c r="A24" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="19">
-        <v>172</v>
-      </c>
-      <c r="C24" s="19">
-        <v>122</v>
-      </c>
-      <c r="D24" s="50">
-        <v>500</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="192">
-      <c r="A25" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="19">
-        <v>172</v>
-      </c>
-      <c r="C25" s="19">
-        <v>122</v>
-      </c>
-      <c r="D25" s="50">
-        <v>500</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="192">
-      <c r="A26" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="19">
-        <v>172</v>
-      </c>
-      <c r="C26" s="19">
-        <v>122</v>
-      </c>
-      <c r="D26" s="13">
-        <v>500</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="192">
-      <c r="A27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="19">
-        <v>172</v>
-      </c>
-      <c r="C27" s="19">
-        <v>122</v>
-      </c>
-      <c r="D27" s="13">
-        <v>500</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="192">
-      <c r="A28" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="19">
-        <v>172</v>
-      </c>
-      <c r="C28" s="19">
-        <v>122</v>
-      </c>
-      <c r="D28" s="13">
-        <v>500</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="335">
-      <c r="A29" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="19">
-        <v>172</v>
-      </c>
-      <c r="C29" s="19">
-        <v>122</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1001</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="S29" s="19" t="s">
-        <v>482</v>
-      </c>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="41"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="2"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="41"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="50"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="50"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1 R1:XFD1 A30:XFD1048576 T2:XFD29">
-    <cfRule type="expression" dxfId="38" priority="192">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A23:XFD1048576 T2:XFD22">
+    <cfRule type="expression" dxfId="23" priority="211">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="193">
+    <cfRule type="expression" priority="212">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="37" priority="190">
+    <cfRule type="expression" dxfId="22" priority="209">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="191">
+    <cfRule type="expression" priority="210">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A22 K16:Q16 I15:I21 K15:M15 O15:S15 K17:M17 O17:Q17 K18:Q18 K19:M19 O19:Q19 K20:Q20 K21:M21 O21:Q21 K22:Q22 D15:H22 R16:S22">
+    <cfRule type="expression" dxfId="21" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="85">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C22">
+    <cfRule type="expression" dxfId="20" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="83">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="19" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="81">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="18" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="17" priority="76">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="16" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="15" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="14" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="13" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="12" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="expression" dxfId="11" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="expression" dxfId="10" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="expression" dxfId="9" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="expression" dxfId="8" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
+    <cfRule type="expression" dxfId="6" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="153">
+    <cfRule type="expression" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="34" priority="151">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="152">
+    <cfRule type="expression" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="33" priority="149">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="150">
+    <cfRule type="expression" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="32" priority="147">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="148">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="31" priority="145">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="146">
+    <cfRule type="expression" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="30" priority="143">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="144">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" priority="67">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A29 K23:Q23 I22:I28 K22:M22 O22:S22 K24:M24 O24:Q24 K25:Q25 K26:M26 O26:Q26 K27:Q27 K28:M28 O28:Q28 K29:Q29 D22:H29 R23:S29">
-    <cfRule type="expression" dxfId="29" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C29">
-    <cfRule type="expression" dxfId="28" priority="63">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="64">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="27" priority="61">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="26" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="25" priority="57">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="24" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="23" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="54">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="22" priority="51">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="52">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="21" priority="49">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="50">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="20" priority="47">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="expression" dxfId="19" priority="45">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="18" priority="43">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="17" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="42">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="16" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="40">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" priority="38">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21 D16:E16 G16:N16 S16:S21 P16:Q16 D17:Q21 D15:I15">
-    <cfRule type="expression" dxfId="15" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:M15 S15 O15:P15">
-    <cfRule type="expression" dxfId="14" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C21">
-    <cfRule type="expression" dxfId="13" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="12" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="11" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="10" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="9" priority="24">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R21">
-    <cfRule type="expression" dxfId="8" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="23">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4578,7 +3261,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4596,7 +3279,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4637,7 +3320,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4651,7 +3334,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4665,7 +3348,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -4695,7 +3378,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4706,10 +3389,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4723,7 +3406,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -4744,7 +3427,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>105</v>
@@ -4753,12 +3436,12 @@
         <v>30</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>99</v>
@@ -4767,237 +3450,237 @@
         <v>30</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="57"/>
+      <c r="D12" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="57"/>
+      <c r="C13" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D15" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="D16" s="58" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="D17" s="58" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="59">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="59">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="D20" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="11">
-        <v>26</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="D24" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="C26" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="11">
-        <v>15</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="59">
         <v>28</v>
       </c>
+      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5009,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5045,7 +3728,7 @@
       <c r="C2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="53">
         <f>285/1000</f>
         <v>0.28499999999999998</v>
       </c>
@@ -5060,7 +3743,7 @@
       <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="53">
         <f>254/1000</f>
         <v>0.254</v>
       </c>
@@ -5078,7 +3761,7 @@
       <c r="C4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="53">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
@@ -5093,7 +3776,7 @@
       <c r="C5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="53">
         <f>55/1000</f>
         <v>5.5E-2</v>
       </c>
@@ -5108,7 +3791,7 @@
       <c r="C6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="53">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
@@ -5123,7 +3806,7 @@
       <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="53">
         <f>76/1000</f>
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5138,7 +3821,7 @@
       <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="53">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -5153,7 +3836,7 @@
       <c r="C9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="53">
         <f>43/1000</f>
         <v>4.2999999999999997E-2</v>
       </c>
@@ -5171,7 +3854,7 @@
       <c r="C10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="53">
         <f>15/1000</f>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -5182,12 +3865,12 @@
         <v>8</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D11" s="58"/>
+        <v>342</v>
+      </c>
+      <c r="D11" s="53"/>
       <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:8">
@@ -5200,7 +3883,7 @@
       <c r="C12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="53">
         <v>0.54</v>
       </c>
     </row>
@@ -5214,7 +3897,7 @@
       <c r="C13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="53">
         <v>0.46</v>
       </c>
     </row>
@@ -5228,7 +3911,7 @@
       <c r="C14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -5242,7 +3925,7 @@
       <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -5256,7 +3939,7 @@
       <c r="C16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="53">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5270,7 +3953,7 @@
       <c r="C17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="53">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -5284,7 +3967,7 @@
       <c r="C18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="53">
         <v>0.105</v>
       </c>
     </row>
@@ -5298,7 +3981,7 @@
       <c r="C19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="53">
         <v>0.38100000000000001</v>
       </c>
       <c r="E19" s="17"/>
@@ -5313,7 +3996,7 @@
       <c r="C20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="53">
         <v>0.26500000000000001</v>
       </c>
     </row>
@@ -5327,7 +4010,7 @@
       <c r="C21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="53">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E21" s="17"/>
@@ -5342,7 +4025,7 @@
       <c r="C22" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="53">
         <v>0.127</v>
       </c>
     </row>
@@ -5356,7 +4039,7 @@
       <c r="C23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="54">
         <v>0.184</v>
       </c>
       <c r="F23" s="17"/>
@@ -5371,7 +4054,7 @@
       <c r="C24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="53">
         <v>0.81499999999999995</v>
       </c>
     </row>
@@ -5385,7 +4068,7 @@
       <c r="C25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="55">
         <f>412/1000</f>
         <v>0.41199999999999998</v>
       </c>
@@ -5400,7 +4083,7 @@
       <c r="C26" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="55">
         <f>350/1000</f>
         <v>0.35</v>
       </c>
@@ -5415,7 +4098,7 @@
       <c r="C27" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="55">
         <f>238/1000</f>
         <v>0.23799999999999999</v>
       </c>
@@ -5425,12 +4108,12 @@
         <v>11</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="D28" s="60"/>
+        <v>343</v>
+      </c>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29" t="s">
@@ -5442,7 +4125,7 @@
       <c r="C29" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="55">
         <v>0.76300000000000001</v>
       </c>
     </row>
@@ -5456,7 +4139,7 @@
       <c r="C30" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="55">
         <v>0.23699999999999999</v>
       </c>
     </row>
@@ -5470,7 +4153,7 @@
       <c r="C31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="55">
         <v>0.48699999999999999</v>
       </c>
     </row>
@@ -5484,7 +4167,7 @@
       <c r="C32" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="55">
         <v>0.51300000000000001</v>
       </c>
     </row>
@@ -5498,7 +4181,7 @@
       <c r="C33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -5512,7 +4195,7 @@
       <c r="C34" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="55">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
@@ -5526,7 +4209,7 @@
       <c r="C35" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="55">
         <v>0.12</v>
       </c>
     </row>
@@ -5540,7 +4223,7 @@
       <c r="C36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="55">
         <v>0.38</v>
       </c>
     </row>
@@ -5554,7 +4237,7 @@
       <c r="C37" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="55">
         <v>0.21199999999999999</v>
       </c>
     </row>
@@ -5568,7 +4251,7 @@
       <c r="C38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="55">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
@@ -5582,7 +4265,7 @@
       <c r="C39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="55">
         <v>0.12</v>
       </c>
     </row>
@@ -5596,7 +4279,7 @@
       <c r="C40" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="55">
         <v>0.21200000000000002</v>
       </c>
     </row>
@@ -5610,7 +4293,7 @@
       <c r="C41" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="55">
         <v>0.79</v>
       </c>
       <c r="E41" s="17"/>
@@ -5623,9 +4306,9 @@
         <v>94</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="D42" s="58">
+        <v>344</v>
+      </c>
+      <c r="D42" s="53">
         <v>0.54</v>
       </c>
     </row>
@@ -5637,9 +4320,9 @@
         <v>96</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="D43" s="58">
+        <v>345</v>
+      </c>
+      <c r="D43" s="53">
         <v>0.46</v>
       </c>
     </row>
@@ -5648,12 +4331,12 @@
         <v>15</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="D44" s="58"/>
+        <v>346</v>
+      </c>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="27" t="s">
@@ -5665,7 +4348,7 @@
       <c r="C45" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="53">
         <v>0.64</v>
       </c>
     </row>
@@ -5679,7 +4362,7 @@
       <c r="C46" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D46" s="53">
         <v>0.36</v>
       </c>
     </row>
@@ -5693,7 +4376,7 @@
       <c r="C47" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="53">
         <v>0.49399999999999999</v>
       </c>
     </row>
@@ -5707,7 +4390,7 @@
       <c r="C48" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D48" s="53">
         <v>0.50600000000000001</v>
       </c>
     </row>
@@ -5721,7 +4404,7 @@
       <c r="C49" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="58">
+      <c r="D49" s="53">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5735,7 +4418,7 @@
       <c r="C50" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="58">
+      <c r="D50" s="53">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -5749,7 +4432,7 @@
       <c r="C51" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="53">
         <v>0.15</v>
       </c>
     </row>
@@ -5763,7 +4446,7 @@
       <c r="C52" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="53">
         <v>0.39</v>
       </c>
     </row>
@@ -5777,7 +4460,7 @@
       <c r="C53" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="53">
         <v>0.25800000000000001</v>
       </c>
     </row>
@@ -5791,7 +4474,7 @@
       <c r="C54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="58">
+      <c r="D54" s="53">
         <v>0.05</v>
       </c>
     </row>
@@ -5805,7 +4488,7 @@
       <c r="C55" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="58">
+      <c r="D55" s="53">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5819,7 +4502,7 @@
       <c r="C56" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="58">
+      <c r="D56" s="53">
         <v>0.29299999999999998</v>
       </c>
       <c r="E56" s="17"/>
@@ -5834,7 +4517,7 @@
       <c r="C57" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="58">
+      <c r="D57" s="53">
         <v>0.71</v>
       </c>
     </row>
@@ -5845,10 +4528,10 @@
       <c r="B58" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="60">
+      <c r="D58" s="55">
         <v>0.38669999999999999</v>
       </c>
     </row>
@@ -5859,10 +4542,10 @@
       <c r="B59" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="60">
+      <c r="D59" s="55">
         <v>0.24390000000000001</v>
       </c>
     </row>
@@ -5873,10 +4556,10 @@
       <c r="B60" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="55">
         <v>0.17</v>
       </c>
     </row>
@@ -5887,10 +4570,10 @@
       <c r="B61" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="62">
+      <c r="D61" s="57">
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
@@ -5901,10 +4584,10 @@
       <c r="B62" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="60">
+      <c r="D62" s="55">
         <v>0.11459999999999999</v>
       </c>
     </row>
@@ -5913,12 +4596,12 @@
         <v>19</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="D63" s="60"/>
+        <v>347</v>
+      </c>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="29" t="s">
@@ -5930,7 +4613,7 @@
       <c r="C64" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="60">
+      <c r="D64" s="55">
         <v>0.77</v>
       </c>
     </row>
@@ -5944,7 +4627,7 @@
       <c r="C65" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="55">
         <v>0.23</v>
       </c>
     </row>
@@ -5958,7 +4641,7 @@
       <c r="C66" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="60">
+      <c r="D66" s="55">
         <v>0.49</v>
       </c>
     </row>
@@ -5972,7 +4655,7 @@
       <c r="C67" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="60">
+      <c r="D67" s="55">
         <v>0.51</v>
       </c>
       <c r="E67" s="15"/>
@@ -5987,7 +4670,7 @@
       <c r="C68" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="60">
+      <c r="D68" s="55">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -6001,7 +4684,7 @@
       <c r="C69" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="60">
+      <c r="D69" s="55">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -6015,7 +4698,7 @@
       <c r="C70" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="60">
+      <c r="D70" s="55">
         <v>0.497</v>
       </c>
     </row>
@@ -6029,7 +4712,7 @@
       <c r="C71" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="60">
+      <c r="D71" s="55">
         <v>0.155</v>
       </c>
       <c r="E71" s="17"/>
@@ -6044,7 +4727,7 @@
       <c r="C72" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="60">
+      <c r="D72" s="55">
         <v>0.126</v>
       </c>
     </row>
@@ -6058,7 +4741,7 @@
       <c r="C73" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="60">
+      <c r="D73" s="55">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
@@ -6072,7 +4755,7 @@
       <c r="C74" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="60">
+      <c r="D74" s="55">
         <v>6.2E-2</v>
       </c>
     </row>
@@ -6086,7 +4769,7 @@
       <c r="C75" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="60">
+      <c r="D75" s="55">
         <v>0.60199999999999998</v>
       </c>
     </row>
@@ -6100,20 +4783,20 @@
       <c r="C76" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="60">
+      <c r="D76" s="55">
         <v>0.39500000000000002</v>
       </c>
       <c r="E76" s="17"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D77" s="16">
         <v>0.39500000000000002</v>
@@ -6121,13 +4804,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D78" s="16">
         <v>0.1</v>
@@ -6135,13 +4818,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D79" s="16">
         <v>0.107</v>
@@ -6149,13 +4832,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D80" s="16">
         <v>0.2</v>
@@ -6163,13 +4846,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D81" s="16">
         <v>0.11</v>
@@ -6177,13 +4860,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D82" s="16">
         <v>9.1999999999999998E-2</v>
@@ -6191,19 +4874,19 @@
     </row>
     <row r="83" spans="1:4" ht="64">
       <c r="A83" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>502</v>
+        <v>355</v>
       </c>
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>50</v>
@@ -6217,7 +4900,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>50</v>
@@ -6231,7 +4914,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>53</v>
@@ -6245,7 +4928,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>53</v>
@@ -6259,7 +4942,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>56</v>
@@ -6273,7 +4956,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>56</v>
@@ -6287,7 +4970,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>56</v>
@@ -6301,7 +4984,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>56</v>
@@ -6315,7 +4998,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>56</v>
@@ -6329,7 +5012,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>56</v>
@@ -6343,7 +5026,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>56</v>
@@ -6357,7 +5040,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
         <v>56</v>
@@ -6371,7 +5054,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
         <v>56</v>
@@ -6385,13 +5068,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D97" s="12">
         <v>0.54</v>
@@ -6399,13 +5082,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D98" s="12">
         <v>0.21</v>
@@ -6413,7 +5096,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>3</v>
@@ -6427,7 +5110,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>3</v>
@@ -6441,13 +5124,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D101" s="12">
         <v>0.03</v>
@@ -6455,19 +5138,19 @@
     </row>
     <row r="102" spans="1:4" ht="64">
       <c r="A102" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>503</v>
+        <v>356</v>
       </c>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>50</v>
@@ -6481,7 +5164,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>50</v>
@@ -6495,7 +5178,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>53</v>
@@ -6509,7 +5192,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>53</v>
@@ -6523,7 +5206,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>56</v>
@@ -6537,7 +5220,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>56</v>
@@ -6551,7 +5234,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>56</v>
@@ -6565,7 +5248,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>56</v>
@@ -6579,7 +5262,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>56</v>
@@ -6593,7 +5276,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>56</v>
@@ -6607,7 +5290,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>56</v>
@@ -6621,7 +5304,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>56</v>
@@ -6635,7 +5318,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>56</v>
@@ -6649,13 +5332,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D116" s="5">
         <v>0.115</v>
@@ -6663,13 +5346,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D117" s="5">
         <v>2.4E-2</v>
@@ -6677,13 +5360,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D118" s="5">
         <v>7.0999999999999994E-2</v>
@@ -6691,13 +5374,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D119" s="5">
         <v>1.2E-2</v>
@@ -6705,13 +5388,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D120" s="5">
         <v>7.8E-2</v>
@@ -6719,13 +5402,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D121" s="5">
         <v>2.6000000000000002E-2</v>
@@ -6733,13 +5416,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D122" s="5">
         <v>3.2000000000000001E-2</v>
@@ -6747,7 +5430,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -6761,13 +5444,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D124" s="5">
         <v>3.5000000000000003E-2</v>
@@ -6775,13 +5458,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D125" s="5">
         <v>4.2999999999999997E-2</v>
@@ -6789,13 +5472,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D126" s="5">
         <v>3.1E-2</v>
@@ -6803,13 +5486,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D127" s="5">
         <v>8.5000000000000006E-2</v>
@@ -6817,13 +5500,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D128" s="5">
         <v>1.7999999999999999E-2</v>
@@ -6831,13 +5514,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D129" s="5">
         <v>1.2E-2</v>
@@ -6845,13 +5528,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D130" s="5">
         <v>3.5999999999999997E-2</v>
@@ -6859,13 +5542,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D131" s="5">
         <v>1.7999999999999999E-2</v>
@@ -6873,13 +5556,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D132" s="5">
         <v>6.0999999999999999E-2</v>
@@ -6887,19 +5570,19 @@
     </row>
     <row r="133" spans="1:4" ht="64">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>504</v>
+        <v>357</v>
       </c>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
         <v>50</v>
@@ -6913,7 +5596,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>50</v>
@@ -6927,7 +5610,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>53</v>
@@ -6941,7 +5624,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
         <v>53</v>
@@ -6955,7 +5638,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
         <v>56</v>
@@ -6969,7 +5652,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
         <v>56</v>
@@ -6983,7 +5666,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>56</v>
@@ -6997,7 +5680,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
         <v>56</v>
@@ -7011,7 +5694,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>56</v>
@@ -7025,7 +5708,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>56</v>
@@ -7039,7 +5722,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
         <v>56</v>
@@ -7053,7 +5736,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
         <v>56</v>
@@ -7067,7 +5750,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B146" t="s">
         <v>56</v>
@@ -7079,1612 +5762,1623 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:4" ht="16">
+      <c r="A147" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" s="16">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16">
+      <c r="A148" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D148" s="16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16">
+      <c r="A149" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="48">
+      <c r="A150" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D150" s="16"/>
+    </row>
+    <row r="151" spans="1:4" ht="16">
+      <c r="A151" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16">
+      <c r="A152" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" s="16">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16">
+      <c r="A153" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="16">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16">
+      <c r="A154" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D154" s="16">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16">
+      <c r="A155" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16">
+      <c r="A156" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16">
+      <c r="A157" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16">
+      <c r="A158" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D158" s="16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16">
+      <c r="A159" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D159" s="16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16">
+      <c r="A160" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D160" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16">
+      <c r="A161" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16">
+      <c r="A162" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16">
+      <c r="A163" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" s="16">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16">
+      <c r="A164" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16">
+      <c r="A165" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D165" s="12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16">
+      <c r="A166" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C166" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="D166" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16">
+      <c r="A167" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16">
+      <c r="A168" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="D168" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16">
+      <c r="A169" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16">
+      <c r="A170" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D170" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16">
+      <c r="A171" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16">
+      <c r="A172" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D172" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16">
+      <c r="A173" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D173" s="12">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="32">
+      <c r="A174" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B174" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D174" s="12"/>
+    </row>
+    <row r="175" spans="1:4" ht="16">
+      <c r="A175" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" s="12">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16">
+      <c r="A176" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D176" s="12">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16">
+      <c r="A177" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16">
+      <c r="A178" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16">
+      <c r="A179" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16">
+      <c r="A180" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16">
+      <c r="A181" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D181" s="12">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16">
+      <c r="A182" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16">
+      <c r="A183" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D183" s="12">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16">
+      <c r="A184" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D184" s="12">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16">
+      <c r="A185" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16">
+      <c r="A186" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" s="12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16">
+      <c r="A187" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16">
+      <c r="A188" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D147" s="11">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B148" s="11" t="s">
+      <c r="C188" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D188" s="16">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16">
+      <c r="A189" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D148" s="11">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B149" s="11" t="s">
+      <c r="C189" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D189" s="16">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16">
+      <c r="A190" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D190" s="16">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="48">
+      <c r="A191" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D191" s="16"/>
+    </row>
+    <row r="192" spans="1:4" ht="16">
+      <c r="A192" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" s="16">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16">
+      <c r="A193" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D193" s="16">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16">
+      <c r="A194" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" s="16">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16">
+      <c r="A195" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D195" s="16">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16">
+      <c r="A196" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D196" s="16">
+        <v>0.17634854771784234</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16">
+      <c r="A197" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197" s="16">
+        <v>0.12655601659751037</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16">
+      <c r="A198" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="16">
+        <v>0.12863070539419086</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16">
+      <c r="A199" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="16">
+        <v>0.43360995850622408</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16">
+      <c r="A200" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D200" s="16">
+        <v>9.9585062240663894E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16">
+      <c r="A201" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201" s="16">
+        <v>3.5269709543568464E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16">
+      <c r="A202" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16">
+      <c r="A203" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" s="16">
+        <f>SUM(D196:D198)</f>
+        <v>0.43153526970954359</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16">
+      <c r="A204" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204" s="16">
+        <f>SUM(D199:D202)</f>
+        <v>0.56846473029045641</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16">
+      <c r="A205" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C205" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D205" s="61">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16">
+      <c r="A206" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D206" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16">
+      <c r="A207" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B207" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D149" s="11">
+      <c r="C207" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D207" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16">
+      <c r="A208" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C208" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D208" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="64">
+      <c r="A209" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C209" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="D209" s="12"/>
+    </row>
+    <row r="210" spans="1:4" ht="16">
+      <c r="A210" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C210" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D210" s="12">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16">
+      <c r="A211" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C211" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D211" s="12">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="16">
+      <c r="A212" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16">
+      <c r="A213" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D213" s="12">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16">
+      <c r="A214" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D214" s="12">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16">
+      <c r="A215" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C215" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" s="12">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16">
+      <c r="A216" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C216" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D216" s="12">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16">
+      <c r="A217" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C217" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D217" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16">
+      <c r="A218" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C218" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D218" s="12">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16">
+      <c r="A219" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C219" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D219" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16">
+      <c r="A220" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16">
+      <c r="A221" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D221" s="12">
+        <f>SUM(D214:D216)</f>
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16">
+      <c r="A222" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D222" s="12">
+        <f>SUM(D217:D220)</f>
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16">
+      <c r="A223" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D223" s="16">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="16">
+      <c r="A224" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D224" s="16">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="16">
+      <c r="A225" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D225" s="16">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="48">
+      <c r="A226" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D226" s="16"/>
+    </row>
+    <row r="227" spans="1:4" ht="16">
+      <c r="A227" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D227" s="16">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="16">
+      <c r="A228" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" s="16">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16">
+      <c r="A229" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" s="16">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16">
+      <c r="A230" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D230" s="16">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16">
+      <c r="A231" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" s="16">
+        <v>6.7567567567567571E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16">
+      <c r="A232" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" s="16">
+        <v>5.3014553014553017E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16">
+      <c r="A233" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D233" s="16">
+        <v>7.5883575883575888E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16">
+      <c r="A234" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D234" s="16">
+        <v>0.49792099792099792</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16">
+      <c r="A235" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D235" s="16">
+        <v>0.24636174636174638</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16">
+      <c r="A236" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D236" s="16">
+        <v>5.9251559251559255E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="16">
+      <c r="A237" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16">
+      <c r="A238" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D238" s="16">
+        <f>SUM(D231:D233)</f>
+        <v>0.19646569646569648</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16">
+      <c r="A239" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D239" s="16">
+        <f>SUM(D234:D237)</f>
+        <v>0.80353430353430355</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16">
+      <c r="A240" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C240" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D240" s="61">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16">
+      <c r="A241" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C241" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="D241" s="12">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="16">
+      <c r="A242" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C242" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="D242" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="16">
+      <c r="A243" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C243" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="D243" s="12">
         <v>0.06</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="48">
-      <c r="A150" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D150" s="11"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B151" s="11" t="s">
+    <row r="244" spans="1:4" ht="16">
+      <c r="A244" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C244" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D244" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="16">
+      <c r="A245" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C245" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="D245" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="16">
+      <c r="A246" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C246" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="D246" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="16">
+      <c r="A247" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C247" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="D247" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16">
+      <c r="A248" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C248" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D248" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="48">
+      <c r="A249" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="D249" s="12"/>
+    </row>
+    <row r="250" spans="1:4" ht="16">
+      <c r="A250" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B250" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C250" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D151" s="11">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B152" s="11" t="s">
+      <c r="D250" s="12">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="16">
+      <c r="A251" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B251" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C251" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D152" s="11">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B153" s="11" t="s">
+      <c r="D251" s="12">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="16">
+      <c r="A252" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B252" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C252" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="11">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B154" s="11" t="s">
+      <c r="D252" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="16">
+      <c r="A253" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B253" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C253" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D154" s="11">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C155" s="11" t="s">
+      <c r="D253" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="16">
+      <c r="A254" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D254" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="16">
+      <c r="A255" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C255" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D255" s="12">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="16">
+      <c r="A256" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D256" s="12">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="16">
+      <c r="A257" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D257" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="16">
+      <c r="A258" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D258" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="16">
+      <c r="A259" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D259" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="16">
+      <c r="A260" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C260" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D156" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="11">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D158" s="11">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D159" s="11">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D160" s="11">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D161" s="11">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C162" s="11" t="s">
+    <row r="261" spans="1:4" ht="16">
+      <c r="A261" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C261" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D162" s="11">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C163" s="11" t="s">
+      <c r="D261" s="12">
+        <f>SUM(D254:D256)</f>
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="16">
+      <c r="A262" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C262" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="11">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="D164" s="13">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D165" s="13">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D166" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D167" s="13">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D168" s="13">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D169" s="13">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D170" s="13">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D171" s="13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D172" s="13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D173" s="13">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="64">
-      <c r="A174" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D175" s="13">
-        <v>0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D176" s="13">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" s="13">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D178" s="13">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D179" s="13">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D180" s="13">
-        <v>0.28599999999999998</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D181" s="13">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D182" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D183" s="13">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D184" s="13">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D185" s="13">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D186" s="13">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D187" s="13">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D188" s="11">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D189" s="11">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D190" s="11">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="48">
-      <c r="A191" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C191" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="D191" s="11"/>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D192" s="11">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D193" s="11">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D194" s="11">
-        <v>0.496</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="11">
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D196" s="11">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D197" s="11">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D198" s="11">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D199" s="11">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D200" s="11">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D201" s="11">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D202" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D203" s="11">
-        <v>0.41600000000000004</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D204" s="11">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D205" s="13">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D206" s="13">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D207" s="13">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D208" s="13">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="64">
-      <c r="A209" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D210" s="13">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D211" s="13">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D212" s="13">
-        <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D213" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C214" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D214" s="13">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B215" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D215" s="13">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D216" s="13">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D217" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D218" s="13">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D219" s="13">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D220" s="13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D221" s="13">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D222" s="13">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D223" s="11">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D224" s="11">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D225" s="11">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="48">
-      <c r="A226" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C226" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="D226" s="11"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D227" s="11">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D228" s="11">
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D229" s="11">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D230" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D231" s="11">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B232" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D232" s="11">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D233" s="11">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D234" s="11">
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D235" s="11">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D236" s="11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D237" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D238" s="11">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D239" s="11">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D240" s="13">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D241" s="13">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D242" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D243" s="13">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D244" s="13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D245" s="13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D246" s="13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D247" s="13">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D248" s="13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="64">
-      <c r="A249" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C249" s="19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D250" s="13">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D251" s="13">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D252" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D253" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D254" s="13">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D255" s="13">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D256" s="13">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D257" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D258" s="13">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D259" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D260" s="13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D261" s="13">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D262" s="13">
+      <c r="D262" s="12">
+        <f>SUM(D257:D260)</f>
         <v>0.32600000000000001</v>
       </c>
     </row>
@@ -8697,13 +7391,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8711,25 +7406,25 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8820,7 +7515,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>3252</v>
@@ -8846,7 +7541,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7">
         <v>393</v>
@@ -8863,7 +7558,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>3500</v>
@@ -8874,7 +7569,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B9">
         <v>445</v>
@@ -8891,7 +7586,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>793</v>
@@ -8917,7 +7612,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11">
         <v>1761</v>
@@ -8943,7 +7638,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>285</v>
@@ -8969,7 +7664,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>3287</v>
@@ -8995,7 +7690,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -9018,7 +7713,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>471</v>
@@ -9035,7 +7730,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>447</v>
@@ -9052,7 +7747,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>393</v>
@@ -9069,7 +7764,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>405</v>
@@ -9086,7 +7781,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>379</v>
@@ -9103,7 +7798,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>382</v>
@@ -9120,7 +7815,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21">
         <v>381</v>
@@ -9137,7 +7832,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22">
         <v>706</v>
@@ -9184,16 +7879,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
@@ -9201,13 +7896,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="26">
         <v>1000</v>
@@ -9218,13 +7913,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E3" s="26">
         <v>1000</v>
@@ -9235,13 +7930,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="26">
         <v>1005</v>
@@ -9252,13 +7947,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>138</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="26">
         <v>1029</v>
@@ -9266,16 +7961,16 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" s="25">
         <v>759</v>
@@ -9283,16 +7978,16 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>141</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="26">
         <v>1109</v>
@@ -9300,16 +7995,16 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="26">
         <v>1000</v>
@@ -9317,16 +8012,16 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>144</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="25">
         <v>500</v>
@@ -9334,16 +8029,16 @@
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="25">
         <v>500</v>
@@ -9351,16 +8046,16 @@
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E11" s="25">
         <v>500</v>
@@ -9368,16 +8063,16 @@
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E12" s="25">
         <v>500</v>
@@ -9385,16 +8080,16 @@
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E13" s="25">
         <v>499</v>
@@ -9402,16 +8097,16 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E14" s="25">
         <v>500</v>
@@ -9419,16 +8114,16 @@
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E15" s="25">
         <v>500</v>
@@ -9436,16 +8131,16 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>152</v>
-      </c>
       <c r="D16" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="26">
         <v>1001</v>
@@ -9453,16 +8148,16 @@
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E17" s="25">
         <v>500</v>
@@ -9470,16 +8165,16 @@
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" s="26">
         <v>1002</v>
@@ -9487,16 +8182,16 @@
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="25">
         <v>500</v>
@@ -9504,16 +8199,16 @@
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="25">
         <v>507</v>
@@ -9521,16 +8216,16 @@
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="25">
         <v>531</v>
@@ -9538,16 +8233,16 @@
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="D22" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E22" s="25">
         <v>522</v>
@@ -9555,16 +8250,16 @@
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E23" s="26">
         <v>1500</v>
@@ -9572,16 +8267,16 @@
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="26">
         <v>1002</v>
@@ -9589,16 +8284,16 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="26">
         <v>2010</v>
@@ -9606,16 +8301,16 @@
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>164</v>
-      </c>
       <c r="D26" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E26" s="26">
         <v>2002</v>
@@ -9623,16 +8318,16 @@
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E27" s="26">
         <v>2000</v>
@@ -9640,16 +8335,16 @@
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" s="26">
         <v>1014</v>
@@ -9657,16 +8352,16 @@
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E29" s="26">
         <v>2023</v>
@@ -11149,6 +9844,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -11157,15 +9861,6 @@
     <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11188,26 +9883,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E074EB27-0BC1-D84C-9A51-8ADB1261F559}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC65A492-7ABE-1C42-8ECD-DBB273E7BE25}"/>
   <bookViews>
-    <workbookView xWindow="-3800" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="-3800" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="517">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1185,9 +1185,6 @@
     <t>Data for The Bahamas, the Dominican Republic, Guyana, and Suriname was collected in 2016, 2018, and 2022. Data for Haiti was collected in 2021 and 2022. Data for Jamaica was collected in 2014, 2017, 2019, and 2022.</t>
   </si>
   <si>
-    <t>the Dominican Republic</t>
-  </si>
-  <si>
     <t>CID Gallup based the sampling frame on 2018 population figures from the National Statistics Office of Dominican Republic (ONE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
   </si>
   <si>
@@ -1267,6 +1264,384 @@
   </si>
   <si>
     <t>The majority of interviews took place in Paramaribo (42%), Wanica (22%), and Nickerie (8%).</t>
+  </si>
+  <si>
+    <t>Eastern Caribbean</t>
+  </si>
+  <si>
+    <t>Barbadians</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2010 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most respondents (88%) identified themselves as Afro-Barbadian, followed by Mixed Race (7%).</t>
+  </si>
+  <si>
+    <t>Most respondents (88%) reported that they had received at least a high school diploma or  vocational degree and the remaining 12% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Barbados’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 19 interviewers worked on this project, including 11 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 46 minutes in length and ranged from 42 to 79 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago was collected in 2016, 2018, and 2022.</t>
+  </si>
+  <si>
+    <t>Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Dominicans</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2011 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most respondents (77%) identified themselves as Afro-Dominican, followed by Mixed Race (14%).</t>
+  </si>
+  <si>
+    <t>Most respondents (89%) reported that they had received at least a high school diploma or  vocational degree and the remaining 11% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Dominica’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 19 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 48 minutes in length and ranged from 47 to 87 minutes.</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Grenadian</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2011 census figures  , acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most respondents (63%) identified themselves as Afro-Grenadian, followed by Mixed Race (32%).</t>
+  </si>
+  <si>
+    <t>Most respondents (70%) reported that they had received at least a high school diploma or  vocational degree and the remaining 30% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given Grenada’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 48 to 88 minutes.</t>
+  </si>
+  <si>
+    <t>Barbados, Dominica, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Kittitians and Nevisians</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on projected population figures from the Caribbean Community (CARICOM), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (87%) identified themselves as Afro-Kittitian and Nevisian, followed by Afro-European (12%).   </t>
+  </si>
+  <si>
+    <t>Most respondents (68%) reported that they had received at least a high school diploma or  vocational degree and the remaining 32% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given St. Kitts and Nevis’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 17 interviewers worked on this project, including 10 female interviewers. Enumerators worked in five groups of three to four interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 17 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 49 minutes in length and ranged from 46 to 86 minutes.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda, Barbados, Dominica, Grenada, St. Lucia, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Saint Lucian</t>
+  </si>
+  <si>
+    <t>Most respondents (91%) identified themselves as Afro-Saint Lucian, followed by Mixed Race (5%).</t>
+  </si>
+  <si>
+    <t>Most respondents (81%) reported that they had received at least a high school diploma or  vocational degree and the remaining 19% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Given St. Lucia’s population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 21 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four to five interviewers. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 18 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 42 minutes in length and ranged from 40 to 72 minutes.</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, Dominica, St. Vincent and the Grenadines, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Vincentians</t>
+  </si>
+  <si>
+    <t>DMR Insights Ltd. based the sampling frame on 2012 census figures, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (76%) identified themselves as Afro-Vincentian, followed by Mixed Race 21%).   </t>
+  </si>
+  <si>
+    <t>Given St. Vincent and the Grenadines’ population size, regions served as the primary sampling unit. Interviewers were assigned a starting point within each primary sampling unit and performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 10% of all interviews in the field. During data processing, 150 interviews (30% of the sample) were backchecked via telephone by the central office. After quality control, 14 interviews were rejected from the final sample due to abnormal interview length. Interviews averaged 38 minutes in length and ranged from 36 to 71 minutes.</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, Dominica, St. Lucia, and Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Trinidadians and Tobagonians</t>
+  </si>
+  <si>
+    <t>Forty-four (44%) percent of respondents identified themselves as Afro-Trinidadian and Tobagonian, followed by Indo-Trinidadian and Tobagonian (30%) and Mestizo (24%).</t>
+  </si>
+  <si>
+    <t>Most respondents (63%) reported that they had received at least a high school diploma or vocational degree and the remaining 37% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Regions and cities were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks and districts selected via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on the relative population size of each municipality. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 48 interviewers worked on this project, including 40 female interviewers. Enumerators worked in ten groups of four to five interviewers with one to two supervisors each. Interviews were conducted in English.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 570 interviews (approximately 57% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 50 minutes in length and ranged from 43 to 87 minutes.</t>
+  </si>
+  <si>
+    <t>Barbados, Grenada, Dominica, St. Lucia, and St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>all six</t>
+  </si>
+  <si>
+    <t>all 11</t>
+  </si>
+  <si>
+    <t>all 10</t>
+  </si>
+  <si>
+    <t>Saint Mary</t>
+  </si>
+  <si>
+    <t>Saint John City</t>
+  </si>
+  <si>
+    <t>Saint John Rural</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>Saint Philip</t>
+  </si>
+  <si>
+    <t>Thirty-five percent (35%) of the interviews took place in Saint Mary, followed by 26% in Saint John City, 10% in Saint Peter, 10% in Saint George, and the remaining 15% in other regions.</t>
+  </si>
+  <si>
+    <t>St. Michael</t>
+  </si>
+  <si>
+    <t>Christ Chruch</t>
+  </si>
+  <si>
+    <t>St. James</t>
+  </si>
+  <si>
+    <t>st. John</t>
+  </si>
+  <si>
+    <t>St. George</t>
+  </si>
+  <si>
+    <t>St. Thomas</t>
+  </si>
+  <si>
+    <t>St. Philip</t>
+  </si>
+  <si>
+    <t>St. Lucy</t>
+  </si>
+  <si>
+    <t>St. Peter</t>
+  </si>
+  <si>
+    <t>Region10</t>
+  </si>
+  <si>
+    <t>St. Andrew</t>
+  </si>
+  <si>
+    <t>Region11</t>
+  </si>
+  <si>
+    <t>St. Joseph</t>
+  </si>
+  <si>
+    <t>Thirty-two percent (32%) of the interviews took place in Saint Michael, followed by 20% in Christ Church, 10% in Saint James, 8% in Saint John, and the remaining 31% in other regions.</t>
+  </si>
+  <si>
+    <t>Saint George Parish</t>
+  </si>
+  <si>
+    <t>Saint Paul Parish</t>
+  </si>
+  <si>
+    <t>Saint Andrew Parish</t>
+  </si>
+  <si>
+    <t>Saint Patrick Parish</t>
+  </si>
+  <si>
+    <t>Saint David Parish</t>
+  </si>
+  <si>
+    <t>Saint Joseph Parish</t>
+  </si>
+  <si>
+    <t>Saint John Parish</t>
+  </si>
+  <si>
+    <t>Saint Mark Parish</t>
+  </si>
+  <si>
+    <t>Saint Peter Parish</t>
+  </si>
+  <si>
+    <t>Saint Luke Parish</t>
+  </si>
+  <si>
+    <t>Thirty percent (30%) of the interviews took place in Saint George, followed by 14% in Saint Paul, 13% in Saint Andrew, 11% in Saint Patrick, and the remaining 32% in other regions.</t>
+  </si>
+  <si>
+    <t>St. Andrews</t>
+  </si>
+  <si>
+    <t>St. David's</t>
+  </si>
+  <si>
+    <t>St. Patrick's</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>St. Mark's</t>
+  </si>
+  <si>
+    <t>Thirty-eight percent (38%) of the interviews took place in Saint George, followed by 26% in Saint Andrew, 13% in Saint David, 10% in Saint Patrick, and the remaining 13% in other regions.</t>
+  </si>
+  <si>
+    <t>St. Anne</t>
+  </si>
+  <si>
+    <t>St. Paul</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>St. Mary</t>
+  </si>
+  <si>
+    <t>St. John</t>
+  </si>
+  <si>
+    <t>Christ Church</t>
+  </si>
+  <si>
+    <t>Nevis</t>
+  </si>
+  <si>
+    <t>Thirty-one percent (31%) of the interviews took place in Saint George, 14% in Saint Anne, 13% in Saint Paul, and the remaining 42% in other regions.</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Gros Islet</t>
+  </si>
+  <si>
+    <t>Vieux Fort</t>
+  </si>
+  <si>
+    <t>Micoud</t>
+  </si>
+  <si>
+    <t>Dennery</t>
+  </si>
+  <si>
+    <t>Soufriere</t>
+  </si>
+  <si>
+    <t>Anse La Raye</t>
+  </si>
+  <si>
+    <t>Choiseul</t>
+  </si>
+  <si>
+    <t>Laborie</t>
+  </si>
+  <si>
+    <t>Babonneau</t>
+  </si>
+  <si>
+    <t>Region 11</t>
+  </si>
+  <si>
+    <t>Canaries</t>
+  </si>
+  <si>
+    <t>Thirty-nine percent (39%) of the interviews took place in Castries, followed by 13% in Gros Islet, 10% in Vieux Fort, and the remaining 38% in other regions.</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Grenadines</t>
+  </si>
+  <si>
+    <t>Saint Andew</t>
+  </si>
+  <si>
+    <t>Saint Patrick</t>
+  </si>
+  <si>
+    <t>Saint David</t>
+  </si>
+  <si>
+    <t>Forty-six percent (46%) of the interviews took place in Saint George, followed by 27% in Charlotte, 9% in Grenadines, and the remaining 18% in other regions.</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Tobago</t>
+  </si>
+  <si>
+    <t>Ninety-five percent (95%) of the interviews took place in Trinidad and the remaining 5% took place in Tobago.</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1993,147 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2099,11 +2614,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2590,7 +3105,7 @@
     </row>
     <row r="9" spans="1:23" ht="126" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="B9" s="19">
         <v>172</v>
@@ -2649,7 +3164,7 @@
     </row>
     <row r="10" spans="1:23" ht="126" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>364</v>
+        <v>153</v>
       </c>
       <c r="B10" s="19">
         <v>172</v>
@@ -2679,13 +3194,13 @@
         <v>247</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>307</v>
@@ -2738,19 +3253,19 @@
         <v>340</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>241</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>310</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>251</v>
@@ -2856,7 +3371,7 @@
         <v>340</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>241</v>
@@ -2868,13 +3383,13 @@
         <v>315</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P13" s="19" t="s">
         <v>316</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R13" s="19" t="s">
         <v>363</v>
@@ -2913,10 +3428,10 @@
         <v>318</v>
       </c>
       <c r="J14" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>263</v>
@@ -2943,104 +3458,418 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="41"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="41"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="50"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="50"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
+    <row r="15" spans="1:23" ht="192">
+      <c r="A15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="19">
+        <v>172</v>
+      </c>
+      <c r="C15" s="19">
+        <v>122</v>
+      </c>
+      <c r="D15" s="2">
+        <v>500</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="192">
+      <c r="A16" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="19">
+        <v>172</v>
+      </c>
+      <c r="C16" s="19">
+        <v>122</v>
+      </c>
+      <c r="D16" s="50">
+        <v>500</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="192">
+      <c r="A17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="19">
+        <v>172</v>
+      </c>
+      <c r="C17" s="19">
+        <v>122</v>
+      </c>
+      <c r="D17" s="50">
+        <v>500</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="192">
+      <c r="A18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="19">
+        <v>172</v>
+      </c>
+      <c r="C18" s="19">
+        <v>122</v>
+      </c>
+      <c r="D18" s="13">
+        <v>500</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="192">
+      <c r="A19" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="19">
+        <v>172</v>
+      </c>
+      <c r="C19" s="19">
+        <v>122</v>
+      </c>
+      <c r="D19" s="13">
+        <v>500</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="192">
+      <c r="A20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="19">
+        <v>172</v>
+      </c>
+      <c r="C20" s="19">
+        <v>122</v>
+      </c>
+      <c r="D20" s="13">
+        <v>500</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="335">
+      <c r="A21" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="19">
+        <v>172</v>
+      </c>
+      <c r="C21" s="19">
+        <v>122</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="22" spans="1:19">
       <c r="B22" s="19"/>
@@ -3058,178 +3887,186 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1 R1:XFD1 A23:XFD1048576 T2:XFD22">
-    <cfRule type="expression" dxfId="23" priority="211">
+    <cfRule type="expression" dxfId="43" priority="255">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="212">
+    <cfRule type="expression" priority="256">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="22" priority="209">
+    <cfRule type="expression" dxfId="42" priority="253">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="210">
+    <cfRule type="expression" priority="254">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" priority="86">
+  <conditionalFormatting sqref="A22 D22:H22 K22:S22">
+    <cfRule type="expression" dxfId="41" priority="128">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A22 K16:Q16 I15:I21 K15:M15 O15:S15 K17:M17 O17:Q17 K18:Q18 K19:M19 O19:Q19 K20:Q20 K21:M21 O21:Q21 K22:Q22 D15:H22 R16:S22">
-    <cfRule type="expression" dxfId="21" priority="84">
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="expression" dxfId="40" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="85">
+    <cfRule type="expression" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C22">
-    <cfRule type="expression" dxfId="20" priority="82">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="32" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="83">
+    <cfRule type="expression" priority="111">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="19" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="43">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
+    <cfRule type="expression" dxfId="18" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="17" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="16" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="15" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="13" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="12" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
+    <cfRule type="expression" dxfId="11" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C21">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="19" priority="80">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="81">
+    <cfRule type="expression" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="18" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="79">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="17" priority="76">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="16" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="15" priority="72">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="14" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="13" priority="68">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="69">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="12" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="67">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="11" priority="64">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="10" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="63">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="expression" dxfId="9" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="61">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="expression" dxfId="8" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
-    <cfRule type="expression" dxfId="6" priority="14">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15">
+    <cfRule type="expression" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="5" priority="12">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="13">
+    <cfRule type="expression" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+  <conditionalFormatting sqref="J20">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3237,7 +4074,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
+  <conditionalFormatting sqref="J21">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3245,7 +4082,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="N16">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3253,7 +4090,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
+  <conditionalFormatting sqref="N18">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3261,7 +4098,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="N20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3276,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A28" sqref="A28:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3510,7 +4347,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>105</v>
@@ -3524,7 +4361,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>99</v>
@@ -3559,7 +4396,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" s="59">
         <v>31</v>
@@ -3588,7 +4425,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>184</v>
@@ -3646,10 +4483,10 @@
         <v>99</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>377</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3660,7 +4497,7 @@
         <v>105</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>182</v>
@@ -3675,12 +4512,244 @@
         <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D27" s="59">
         <v>28</v>
       </c>
       <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="59">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="59">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="59">
+        <v>19</v>
+      </c>
+      <c r="E43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3690,10 +4759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5812,7 +6881,7 @@
         <v>133</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D150" s="16"/>
     </row>
@@ -6020,7 +7089,7 @@
         <v>273</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D165" s="12">
         <v>0.16</v>
@@ -6048,7 +7117,7 @@
         <v>276</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D167" s="12">
         <v>0.08</v>
@@ -6062,7 +7131,7 @@
         <v>277</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D168" s="12">
         <v>0.06</v>
@@ -6104,7 +7173,7 @@
         <v>282</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D171" s="12">
         <v>0.04</v>
@@ -6146,7 +7215,7 @@
         <v>133</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -6382,7 +7451,7 @@
         <v>133</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D191" s="16"/>
     </row>
@@ -6634,7 +7703,7 @@
         <v>133</v>
       </c>
       <c r="C209" s="60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D209" s="12"/>
     </row>
@@ -6872,7 +7941,7 @@
         <v>133</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D226" s="16"/>
     </row>
@@ -7124,7 +8193,7 @@
         <v>98</v>
       </c>
       <c r="C244" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D244" s="12">
         <v>0.05</v>
@@ -7194,7 +8263,7 @@
         <v>133</v>
       </c>
       <c r="C249" s="60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -7380,6 +8449,2463 @@
       <c r="D262" s="12">
         <f>SUM(D257:D260)</f>
         <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="16">
+      <c r="A263" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C263" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D263" s="16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="16">
+      <c r="A264" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D264" s="16">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="16">
+      <c r="A265" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C265" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D265" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="16">
+      <c r="A266" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C266" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D266" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="16">
+      <c r="A267" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C267" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D267" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="16">
+      <c r="A268" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D268" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="16">
+      <c r="A269" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D269" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="64">
+      <c r="A270" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D270" s="16"/>
+    </row>
+    <row r="271" spans="1:4" ht="16">
+      <c r="A271" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="16">
+      <c r="A272" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D272" s="16">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="16">
+      <c r="A273" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" s="16">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="16">
+      <c r="A274" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D274" s="16">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="16">
+      <c r="A275" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C275" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D275" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="16">
+      <c r="A276" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D276" s="16">
+        <v>1.0080645161290322E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="16">
+      <c r="A277" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D277" s="16">
+        <v>3.8306451612903226E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="16">
+      <c r="A278" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D278" s="16">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="16">
+      <c r="A279" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D279" s="16">
+        <v>0.20766129032258066</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="16">
+      <c r="A280" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D280" s="16">
+        <v>3.0241935483870969E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="16">
+      <c r="A281" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" s="16">
+        <v>2.620967741935484E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="16">
+      <c r="A282" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D282" s="15">
+        <f>SUM(D275:D277)</f>
+        <v>4.8387096774193547E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="16">
+      <c r="A283" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D283" s="16">
+        <f>SUM(D278:D281)</f>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="16">
+      <c r="A284" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D284" s="12">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="16">
+      <c r="A285" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C285" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="D285" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="16">
+      <c r="A286" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D286" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="16">
+      <c r="A287" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="D287" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="16">
+      <c r="A288" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="D288" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="16">
+      <c r="A289" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="D289" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="16">
+      <c r="A290" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D290" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="16">
+      <c r="A291" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="D291" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16">
+      <c r="A292" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D292" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16">
+      <c r="A293" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C293" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D293" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16">
+      <c r="A294" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="D294" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="64">
+      <c r="A295" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D295" s="12"/>
+    </row>
+    <row r="296" spans="1:4" ht="16">
+      <c r="A296" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C296" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D296" s="12">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="16">
+      <c r="A297" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D297" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="16">
+      <c r="A298" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16">
+      <c r="A299" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D299" s="12">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16">
+      <c r="A300" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C300" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D300" s="12">
+        <f>6/500</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16">
+      <c r="A301" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C301" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D301" s="12">
+        <f>10/500</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="16">
+      <c r="A302" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C302" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D302" s="12">
+        <f>43/500</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="16">
+      <c r="A303" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D303" s="12">
+        <f>176/500</f>
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="16">
+      <c r="A304" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D304" s="12">
+        <f>135/500</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="16">
+      <c r="A305" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C305" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D305" s="12">
+        <f>61/500</f>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="16">
+      <c r="A306" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C306" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" s="12">
+        <f>68/500</f>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="16">
+      <c r="A307" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D307" s="12">
+        <f>SUM(D300:D302)</f>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="16">
+      <c r="A308" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C308" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D308" s="12">
+        <f>SUM(D303:D306)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="16">
+      <c r="A309" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C309" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D309" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="16">
+      <c r="A310" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C310" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="D310" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="16">
+      <c r="A311" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C311" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="D311" s="16">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="16">
+      <c r="A312" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D312" s="16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="16">
+      <c r="A313" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C313" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D313" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="16">
+      <c r="A314" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D314" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="16">
+      <c r="A315" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C315" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D315" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="16">
+      <c r="A316" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D316" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="16">
+      <c r="A317" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D317" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="16">
+      <c r="A318" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D318" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="64">
+      <c r="A319" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D319" s="16"/>
+    </row>
+    <row r="320" spans="1:4" ht="16">
+      <c r="A320" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D320" s="16">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="16">
+      <c r="A321" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D321" s="16">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="16">
+      <c r="A322" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D322" s="16">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="16">
+      <c r="A323" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D323" s="16">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="16">
+      <c r="A324" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D324" s="16">
+        <v>3.0549898167006109E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="16">
+      <c r="A325" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D325" s="16">
+        <v>4.684317718940937E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="16">
+      <c r="A326" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D326" s="16">
+        <v>3.2586558044806514E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="16">
+      <c r="A327" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D327" s="16">
+        <v>0.62118126272912422</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="16">
+      <c r="A328" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D328" s="16">
+        <v>0.1955193482688391</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="16">
+      <c r="A329" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B329" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D329" s="16">
+        <v>7.3319755600814662E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="16">
+      <c r="A330" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16">
+      <c r="A331" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D331" s="16">
+        <f>SUM(D324:D326)</f>
+        <v>0.10997963340122199</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="16">
+      <c r="A332" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D332" s="16">
+        <f>SUM(D327:D330)</f>
+        <v>0.89002036659877803</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="16">
+      <c r="A333" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C333" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="D333" s="61">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="16">
+      <c r="A334" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C334" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="D334" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16">
+      <c r="A335" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C335" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="D335" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16">
+      <c r="A336" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C336" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="D336" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="16">
+      <c r="A337" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C337" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="D337" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16">
+      <c r="A338" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C338" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="D338" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="64">
+      <c r="A339" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C339" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="D339" s="12"/>
+    </row>
+    <row r="340" spans="1:4" ht="16">
+      <c r="A340" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C340" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D340" s="12">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="16">
+      <c r="A341" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C341" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D341" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="16">
+      <c r="A342" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C342" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D342" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="16">
+      <c r="A343" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C343" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D343" s="12">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="16">
+      <c r="A344" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C344" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D344" s="12">
+        <v>3.1645569620253167E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16">
+      <c r="A345" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C345" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D345" s="12">
+        <v>6.9620253164556958E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16">
+      <c r="A346" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C346" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D346" s="12">
+        <v>0.19620253164556961</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="16">
+      <c r="A347" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C347" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D347" s="12">
+        <v>0.41139240506329117</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="16">
+      <c r="A348" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C348" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D348" s="12">
+        <v>0.14978902953586498</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="16">
+      <c r="A349" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D349" s="12">
+        <v>5.9071729957805907E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="16">
+      <c r="A350" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C350" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350" s="12">
+        <v>8.2278481012658222E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="16">
+      <c r="A351" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C351" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D351" s="12">
+        <f>SUM(D344:D346)</f>
+        <v>0.29746835443037972</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="16">
+      <c r="A352" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C352" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D352" s="12">
+        <f>SUM(D347:D350)</f>
+        <v>0.70253164556962022</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="16">
+      <c r="A353" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B353" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D353" s="16">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="16">
+      <c r="A354" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B354" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D354" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="16">
+      <c r="A355" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B355" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D355" s="16">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="16">
+      <c r="A356" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D356" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="16">
+      <c r="A357" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B357" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C357" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D357" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="16">
+      <c r="A358" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B358" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D358" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="16">
+      <c r="A359" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B359" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C359" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D359" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="16">
+      <c r="A360" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B360" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C360" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D360" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="16">
+      <c r="A361" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B361" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C361" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D361" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="16">
+      <c r="A362" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B362" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C362" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D362" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="64">
+      <c r="A363" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B363" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C363" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D363" s="16"/>
+    </row>
+    <row r="364" spans="1:4" ht="16">
+      <c r="A364" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B364" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C364" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D364" s="16">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="16">
+      <c r="A365" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B365" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D365" s="16">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="16">
+      <c r="A366" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B366" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C366" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D366" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="16">
+      <c r="A367" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B367" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C367" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D367" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="16">
+      <c r="A368" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B368" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C368" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D368" s="16">
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="16">
+      <c r="A369" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B369" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C369" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D369" s="16">
+        <v>0.17611336032388664</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="16">
+      <c r="A370" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B370" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C370" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D370" s="16">
+        <v>9.5141700404858295E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="16">
+      <c r="A371" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B371" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D371" s="16">
+        <v>0.51821862348178138</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="16">
+      <c r="A372" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B372" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C372" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D372" s="16">
+        <v>8.7044534412955468E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="16">
+      <c r="A373" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B373" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C373" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D373" s="16">
+        <v>1.6194331983805668E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="16">
+      <c r="A374" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B374" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C374" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" s="16">
+        <v>5.4655870445344132E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="16">
+      <c r="A375" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B375" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C375" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D375" s="16">
+        <f>SUM(D368:D370)</f>
+        <v>0.32388663967611336</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="16">
+      <c r="A376" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B376" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C376" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D376" s="16">
+        <f>SUM(D371:D374)</f>
+        <v>0.67611336032388669</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="16">
+      <c r="A377" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C377" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="D377" s="61">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="16">
+      <c r="A378" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C378" s="60" t="s">
+        <v>496</v>
+      </c>
+      <c r="D378" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="16">
+      <c r="A379" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C379" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="D379" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="16">
+      <c r="A380" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C380" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="D380" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="16">
+      <c r="A381" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C381" s="60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D381" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="16">
+      <c r="A382" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C382" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="D382" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="16">
+      <c r="A383" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C383" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="D383" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="16">
+      <c r="A384" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C384" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="D384" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="16">
+      <c r="A385" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C385" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="D385" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="16">
+      <c r="A386" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C386" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="D386" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="16">
+      <c r="A387" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C387" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D387" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="64">
+      <c r="A388" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C388" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D388" s="12"/>
+    </row>
+    <row r="389" spans="1:4" ht="16">
+      <c r="A389" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C389" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D389" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="16">
+      <c r="A390" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C390" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D390" s="12">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="16">
+      <c r="A391" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C391" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D391" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="16">
+      <c r="A392" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C392" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D392" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="16">
+      <c r="A393" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C393" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D393" s="12">
+        <v>3.7656903765690378E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16">
+      <c r="A394" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C394" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D394" s="12">
+        <v>6.4853556485355651E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="16">
+      <c r="A395" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C395" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D395" s="12">
+        <v>9.2050209205020925E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="16">
+      <c r="A396" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C396" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D396" s="12">
+        <v>0.53347280334728031</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="16">
+      <c r="A397" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C397" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D397" s="12">
+        <v>0.14644351464435146</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="16">
+      <c r="A398" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B398" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C398" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D398" s="12">
+        <v>1.4644351464435146E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16">
+      <c r="A399" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B399" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C399" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D399" s="12">
+        <v>0.11087866108786611</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16">
+      <c r="A400" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C400" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D400" s="12">
+        <f>SUM(D393:D395)</f>
+        <v>0.19456066945606695</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16">
+      <c r="A401" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C401" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D401" s="12">
+        <f>SUM(D396:D399)</f>
+        <v>0.80543933054393302</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16">
+      <c r="A402" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B402" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C402" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D402" s="16">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16">
+      <c r="A403" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B403" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C403" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D403" s="16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="16">
+      <c r="A404" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B404" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C404" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="D404" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="16">
+      <c r="A405" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B405" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C405" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D405" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="16">
+      <c r="A406" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B406" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C406" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D406" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16">
+      <c r="A407" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B407" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C407" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D407" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="64">
+      <c r="A408" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B408" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C408" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D408" s="16"/>
+    </row>
+    <row r="409" spans="1:4" ht="16">
+      <c r="A409" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B409" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C409" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D409" s="16">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="16">
+      <c r="A410" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B410" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C410" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D410" s="16">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="16">
+      <c r="A411" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B411" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C411" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D411" s="16">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="16">
+      <c r="A412" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B412" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C412" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D412" s="16">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="16">
+      <c r="A413" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B413" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C413" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D413" s="16">
+        <v>5.2953156822810592E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="16">
+      <c r="A414" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B414" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C414" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D414" s="16">
+        <v>0.15885947046843177</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="16">
+      <c r="A415" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B415" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C415" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D415" s="16">
+        <v>0.10997963340122199</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="16">
+      <c r="A416" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B416" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C416" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D416" s="16">
+        <v>0.48472505091649692</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="16">
+      <c r="A417" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B417" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C417" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D417" s="16">
+        <v>8.5539714867617106E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="16">
+      <c r="A418" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B418" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C418" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D418" s="16">
+        <v>3.4623217922606926E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="16">
+      <c r="A419" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B419" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C419" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D419" s="16">
+        <v>7.3319755600814662E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="16">
+      <c r="A420" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B420" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D420" s="16">
+        <f>SUM(D413:D415)</f>
+        <v>0.32179226069246436</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="16">
+      <c r="A421" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B421" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C421" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D421" s="16">
+        <f>SUM(D416:D419)</f>
+        <v>0.67820773930753564</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="16">
+      <c r="A422" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C422" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="D422" s="61">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="16">
+      <c r="A423" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C423" s="60" t="s">
+        <v>515</v>
+      </c>
+      <c r="D423" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="48">
+      <c r="A424" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C424" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="D424" s="12"/>
+    </row>
+    <row r="425" spans="1:4" ht="16">
+      <c r="A425" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C425" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D425" s="12">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="16">
+      <c r="A426" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B426" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C426" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D426" s="12">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="16">
+      <c r="A427" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B427" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C427" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D427" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="16">
+      <c r="A428" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B428" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C428" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D428" s="12">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="16">
+      <c r="A429" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B429" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C429" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D429" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="16">
+      <c r="A430" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B430" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C430" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D430" s="12">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="16">
+      <c r="A431" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C431" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D431" s="12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="16">
+      <c r="A432" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B432" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C432" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D432" s="12">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="16">
+      <c r="A433" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B433" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C433" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D433" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="16">
+      <c r="A434" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B434" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C434" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D434" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="16">
+      <c r="A435" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B435" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C435" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D435" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="16">
+      <c r="A436" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B436" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C436" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D436" s="12">
+        <f>SUM(D429:D431)</f>
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="16">
+      <c r="A437" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B437" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C437" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D437" s="12">
+        <f>SUM(D432:D435)</f>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -9601,6 +13127,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -9843,15 +13378,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9864,6 +13390,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9882,27 +13416,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC65A492-7ABE-1C42-8ECD-DBB273E7BE25}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216B6C82-E927-2C48-ABEA-C7A782A8635E}"/>
   <bookViews>
-    <workbookView xWindow="-3800" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="604">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1642,6 +1642,334 @@
   </si>
   <si>
     <t>Ninety-five percent (95%) of the interviews took place in Trinidad and the remaining 5% took place in Tobago.</t>
+  </si>
+  <si>
+    <t>between November 2022 and January 2023</t>
+  </si>
+  <si>
+    <t>Central American</t>
+  </si>
+  <si>
+    <t>Belizean</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on the 2019 projected population figures from the United Nations Department of Economic and Social Affairs, Population Division, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Forty-seven percent (47%) of respondents identified themselves as Mestizo, followed by Belizean Creole (39%).</t>
+  </si>
+  <si>
+    <t>Most respondents (57%) reported that they had received up to a middle school diploma, and the remaining 43% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>Regions and districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks selected via simple random sampling. The number of enumeration areas assigned to each city or town was determined based on the relative population size of each city or town. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 36 interviewers worked on this project, including 25 female interviewers. Enumerators worked in nine groups of four interviewers with one supervisor each. Interviews were conducted in English and Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 38% of all interviews in the field. During data processing, 675 interviews (approximately 45% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 45 minutes in length and ranged from 31 to 93 minutes.</t>
+  </si>
+  <si>
+    <t>Data for Belize, Costa Rica, and Honduras was collected in 2014, 2017, 2019, and 2022. Data for Panama was collected in 2014, 2017, 2019, and 2022. Data for El Salvador and Guatemala was collected in 2016, 2018, and 2022.</t>
+  </si>
+  <si>
+    <t>Costa Rica, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>Costa Rican</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Costa Rica (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Just over one-third (35%) of respondents identified themselves as white, followed by Mestizo (26%), Afro-Costa Rican (15%), and Indigenous.</t>
+  </si>
+  <si>
+    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 45% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Enumeration areas were randomly selected according to neighbohoods within each city and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 40 interviewers worked on this project, including 24 female interviewers. Enumerators worked in 10 groups of four interviewers with four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 37% of all interviews in the field. During data processing, 532 of the interviews (approximately 53% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 47 minutes in length and ranged from 40 to 88 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>between November and December 2022</t>
+  </si>
+  <si>
+    <t>Salvadoran</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2022 population figures from the General Directorate of Statistics and Census (DIGESTYC) in El Salvador,  acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearly two-thirds (63%) of respondents identified themselves as Hispanic, followed by 20% of respondents who did not identify with any ethnicity,11% who identified as Indigenous, and 5% who identified as White. </t>
+  </si>
+  <si>
+    <t>Most respondents (53%) reported that they had received up to a middle school diploma, and the remaining 47% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <r>
+      <t>Regions and departments were selected to achieve a nationally representative sample in El Salvador. In cities, &lt;i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">municipios&lt;/i&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and &lt;i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cantóns&lt;/i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> served as the primary sampling unit and were randomly selected based on relative population sizes and socioeconomic distribution. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 43 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 11 groups of four interviewers with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 34% of all interviews in the field. During data processing, 37% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 34 to 97 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, Guatemala, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>Guatemalan</t>
+  </si>
+  <si>
+    <t>Guatemala City, Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercaplan based the sampling frame on the 2018 population figures from the Guatemalan National Institute of Statistics (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (81%) identified themselves as Mestizo or Latina, followed by Maya (12%). </t>
+  </si>
+  <si>
+    <t>Most respondents (58%) reported that they had received at least a high school diploma or vocational degree, and the remaining 42% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample in Guatemala. Districts and municipalities were selected and neighborhoods were randomly selected within the districts and municipalities based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four with five supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 480 interviews (24% of the sample) in the field. During data validation, 335 interviews were conducted by telephone back-check and 327 interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing and checks for abnormal interview length. Interviews averaged 45 minutes in length.</t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Honduras, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>Honduran</t>
+  </si>
+  <si>
+    <t>San Pedro Sula, Honduras</t>
+  </si>
+  <si>
+    <t>Mercaplan based the sampling frame on the 2013 census and Population Projections 2013-2050 from the National Institute of Statistics (INE) in Honduras, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than half (56%) of respondents identified themselves as Mestizo, followed by White (17%), 12% of respondents who identified as "Other", and Afro-descendant (8%). </t>
+  </si>
+  <si>
+    <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 41% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample in Honduras. Districts and municipalities were selected in urban areas and villages in rural areas. Neighborhoods were randomly selected within the districts and municipalities or villages based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 29 interviewers worked on this project. Enumerators worked in groups with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 410 interviews (20% of the sample) in the field. During data validation, 410 interviews were conducted by telephone back-check and 450 interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing and checks for abnormal interview length. Interviews averaged 37 minutes in length and ranged from 29 to 45 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Guatemala, Nicaragua, and Panama</t>
+  </si>
+  <si>
+    <t>in January 2023</t>
+  </si>
+  <si>
+    <t>Nicaraguan</t>
+  </si>
+  <si>
+    <t>CID Gallup based the initial sampling frame on the most recent population projections from the Nicaraguan National Institute of Information Development (INIDE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-quarter (26%) of respondents identified themselves as Hispanic, followed by 20% of respondents who identified as "Other", White (19%),  Afro-Nicaraguan (17%), and Indigenous (12%). </t>
+  </si>
+  <si>
+    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 44% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t>All interviews in Nicaragua were conducted using a CATI (Computer Assisted Telephone Interviewing) system. Generation of the cellular RDD (Resilient Distributed Datasets) frame is based on the phone number blocks used in the telephone numbering plan by using pre-codes and stratifying them by provider distribution. The RDD cellular framework for Nicaragua uses a national numbering plan provided by the government. Using this numbering plan, CID Gallup developed a probabilistic design for pulling “seed” blocks from which actual phone numbers were randomly generated. For the mobile sample, CID Gallup classified mobile providers, which are used for residential services and commercial services, and excluded commercial numbers from the sample. The mobile sample was sorted by the amount of allocated numbering blocks. All cell numbers were used and subdivided into blocks of 100 numbers each, each block was enriched by random digits in order to create a seed, and then the last 2-digits were randomized to create the numbers to be called.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 44 interviewers worked on this project, including 25 female interviewers. Enumberators worked under the supervision of four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The supervisory team directly oversaw 46% of all interviews. During data processing, 62% of the interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 40 minutes in length and ranged from 21 to 109 minutes. </t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Panama</t>
+  </si>
+  <si>
+    <t>in December 2022</t>
+  </si>
+  <si>
+    <t>Panamanian</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Panama (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearly one-third (30%) of respondenets idnentified themselves as Afro-descendant, followed by Hispanic (29%), Indigenous (16%), Mestizo (3%), and five percent of respondents reported that they did not know. </t>
+  </si>
+  <si>
+    <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 49% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <r>
+      <t>Regions, provinces, and &lt;i&gt;comarcas&lt;/i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were selected to achieve a nationally representative sample in Panama. Interviewers were assigned a segment starting point that was selected systematically to coincide with the region. Interviewers performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 68 interviewers worked on this project, including 59 female interviewers. Enumerators worked in 17 groups of four with a total of 17 supvisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 36% of al interviews in the field. During data processing, 41% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 99 minutes.</t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Nicaragua</t>
+  </si>
+  <si>
+    <t>sample units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama </t>
+  </si>
+  <si>
+    <t>provinces and &lt;i&gt;comarcas&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>ten and two, respectively</t>
+  </si>
+  <si>
+    <t>Metropolitan area</t>
+  </si>
+  <si>
+    <t>the rest of the country</t>
+  </si>
+  <si>
+    <t>Forty-seven percent (47%) of the interviews took place in the Metropolitan area while the remaining 53% of the interviews took place in the rest of the country.</t>
+  </si>
+  <si>
+    <t>Forty-four percent (44%) of the interviews took place in the South region, followed by 29% in the Metro region, and 27% in the North region.</t>
+  </si>
+  <si>
+    <t>Occidente</t>
+  </si>
+  <si>
+    <t>Oriente</t>
+  </si>
+  <si>
+    <t>Paracentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forty-eight percent (48%) of the interviews took place in the Central region, followed by 22% in the Western region, 19% in the Eastern region, and the remaining 11% in the Paracentral region. </t>
+  </si>
+  <si>
+    <t>Sixty-three percent (63%) of the interviews took place in the Metropolitan area while the remaining 37% of the interviews took place in the rest of the country.</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>Twenty-five percent (25%) of the interviews took place in Managua while the remaining 75% of the interviews took place in the rest of the country.</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>Greater Southwest</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Thirty-three percent (33%) of the interviews took place in the Central region, followed by 28% in the North East region, 28% in the South West region, and 11% in the Greater South West region.</t>
+  </si>
+  <si>
+    <t>North Atlantic</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>Thirty-six percent (36%) of the interviews took place in the North Atlantic region, followed by 27% in the Central region, 20% in the South East region, and 17% in the Western region.</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +2191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1988,89 +2316,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -2612,13 +2875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:S21"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3871,101 +4134,545 @@
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
+    <row r="22" spans="1:19" ht="335">
+      <c r="A22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="4">
+        <v>162</v>
+      </c>
+      <c r="C22" s="4">
+        <v>86</v>
+      </c>
+      <c r="D22" s="62">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G22" t="s">
+        <v>517</v>
+      </c>
+      <c r="H22" t="s">
+        <v>518</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="P22" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="R22" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S22" s="64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="256">
+      <c r="A23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="13">
+        <v>115</v>
+      </c>
+      <c r="C23" s="13">
+        <v>77</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1005</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="L23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="335">
+      <c r="A24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="4">
+        <v>162</v>
+      </c>
+      <c r="C24" s="4">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="H24" t="s">
+        <v>518</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="L24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="R24" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="272">
+      <c r="A25" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25">
+        <v>162</v>
+      </c>
+      <c r="C25">
+        <v>86</v>
+      </c>
+      <c r="D25" s="50">
+        <v>2002</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="R25" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="288">
+      <c r="A26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="4">
+        <v>162</v>
+      </c>
+      <c r="C26" s="4">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G26" t="s">
+        <v>517</v>
+      </c>
+      <c r="H26" t="s">
+        <v>518</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="L26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="R26" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="409.6">
+      <c r="A27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="13">
+        <v>51</v>
+      </c>
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="41">
+        <v>1014</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="H27" t="s">
+        <v>518</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="L27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S27" s="19" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="224">
+      <c r="A28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="4">
+        <v>162</v>
+      </c>
+      <c r="C28" s="4">
+        <v>86</v>
+      </c>
+      <c r="D28" s="41">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="63">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>572</v>
+      </c>
+      <c r="H28" t="s">
+        <v>518</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="L28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="R28" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>580</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1 R1:XFD1 A23:XFD1048576 T2:XFD22">
-    <cfRule type="expression" dxfId="43" priority="255">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A29:XFD1048576 T2:XFD28">
+    <cfRule type="expression" dxfId="32" priority="272">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="256">
+    <cfRule type="expression" priority="273">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="42" priority="253">
+    <cfRule type="expression" dxfId="31" priority="270">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="254">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22 D22:H22 K22:S22">
-    <cfRule type="expression" dxfId="41" priority="128">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="129">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="40" priority="126">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="127">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="32" priority="110">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="111">
+    <cfRule type="expression" priority="271">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="27" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
+    <cfRule type="expression" dxfId="26" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="25" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="24" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="23" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="22" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="21" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="20" priority="43">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="19" priority="42">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="43">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
+    <cfRule type="expression" dxfId="19" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
-    <cfRule type="expression" dxfId="18" priority="39">
+  <conditionalFormatting sqref="B15:C21">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="40">
+    <cfRule type="expression" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="17" priority="37">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="38">
+    <cfRule type="expression" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+  <conditionalFormatting sqref="J16">
     <cfRule type="expression" dxfId="16" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3973,7 +4680,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
+  <conditionalFormatting sqref="J17">
     <cfRule type="expression" dxfId="15" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3981,7 +4688,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J18">
     <cfRule type="expression" dxfId="14" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3989,7 +4696,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
+  <conditionalFormatting sqref="J19">
     <cfRule type="expression" dxfId="13" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -3997,7 +4704,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J20">
     <cfRule type="expression" dxfId="12" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4005,44 +4712,44 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="11" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
-    <cfRule type="expression" dxfId="11" priority="23">
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="24">
+    <cfRule type="expression" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C21">
-    <cfRule type="expression" dxfId="10" priority="21">
+  <conditionalFormatting sqref="N18">
+    <cfRule type="expression" dxfId="9" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="22">
+    <cfRule type="expression" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="9" priority="19">
+  <conditionalFormatting sqref="N20">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="20">
+    <cfRule type="expression" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18">
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="A22:A28 D23:E23 G23 S23:S28 P23:Q23 D22:I22 D24:G28 M24:Q28 M23:N23 H23:K28">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4050,7 +4757,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K22:M22 S22 O22:P22 L23:L28">
     <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4058,7 +4765,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="B22:C28">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4066,7 +4773,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J22">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4074,7 +4781,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4082,7 +4789,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="O23">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4090,7 +4797,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="N22">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4098,7 +4805,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
+  <conditionalFormatting sqref="R22:R28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4113,10 +4820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E43"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4751,6 +5458,210 @@
       </c>
       <c r="E43" s="11"/>
     </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="11">
+        <v>14</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="11">
+        <v>18</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="E57" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4759,10 +5670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
-  <dimension ref="A1:H437"/>
+  <dimension ref="A1:H556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="C447" sqref="C447"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="F440" sqref="F440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -10908,6 +11819,1672 @@
         <v>0.63</v>
       </c>
     </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B438" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D438" s="16">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B439" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D439" s="16">
+        <v>0.52890000000000004</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="64">
+      <c r="A440" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B440" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C440" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="D440" s="16"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B441" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D441" s="16">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B442" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D442" s="16">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B443" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C443" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D443" s="16">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B444" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D444" s="16">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B445" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D445" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B446" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D446" s="16">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B447" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D447" s="16">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D448" s="16">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B449" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D449" s="16">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B450" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D450" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B451" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D451" s="16">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B452" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D452" s="15">
+        <f>SUM(D445:D447)</f>
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B453" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D453" s="16">
+        <f>SUM(D448:D451)</f>
+        <v>0.45200000000000007</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B454" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D454" s="12">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B455" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C455" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D455" s="12">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B456" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D456" s="12">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="48">
+      <c r="A457" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B457" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C457" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="D457" s="11"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B458" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C458" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D458" s="12">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B459" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C459" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D459" s="12">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B460" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C460" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D460" s="12">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B461" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C461" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D461" s="12">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B462" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C462" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D462" s="12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B463" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C463" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D463" s="12">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B464" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C464" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D464" s="12">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B465" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C465" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D465" s="12">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B466" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C466" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D466" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B467" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C467" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D467" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B468" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C468" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D468" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B469" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C469" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D469" s="12">
+        <f>SUM(D462:D464)</f>
+        <v>0.57100000000000006</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B470" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D470" s="12">
+        <f>SUM(D465:D468)</f>
+        <v>0.42900000000000005</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B471" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C471" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D471" s="16">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B472" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C472" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D472" s="16">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="16">
+      <c r="A473" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B473" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C473" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D473" s="16">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B474" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C474" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D474" s="16">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="64">
+      <c r="A475" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B475" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C475" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D475" s="16"/>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B476" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C476" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D476" s="16">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B477" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C477" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D477" s="16">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B478" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C478" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D478" s="16">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B479" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C479" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D479" s="16">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B480" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D480" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B481" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C481" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D481" s="16">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B482" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D482" s="16">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B483" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D483" s="16">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B484" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C484" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D484" s="16">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B485" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C485" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D485" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B486" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D486" s="16">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B487" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C487" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D487" s="15">
+        <f>SUM(D480:D482)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B488" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C488" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D488" s="16">
+        <f>SUM(D483:D486)</f>
+        <v>0.47200000000000003</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B489" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D489" s="12">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B490" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D490" s="12">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="64">
+      <c r="A491" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B491" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C491" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="D491" s="11"/>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B492" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D492" s="12">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B493" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D493" s="12">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B494" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C494" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D494" s="12">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B495" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C495" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D495" s="12">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B496" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C496" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D496" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B497" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C497" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D497" s="12">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B498" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C498" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D498" s="12">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B499" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C499" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D499" s="12">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B500" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C500" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D500" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B501" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C501" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D501" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C502" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D502" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B503" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C503" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D503" s="12">
+        <f>SUM(D496:D498)</f>
+        <v>0.48700000000000004</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C504" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D504" s="12">
+        <f>SUM(D499:D502)</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B505" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C505" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D505" s="16">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B506" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C506" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D506" s="16">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="48">
+      <c r="A507" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B507" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C507" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="D507" s="16"/>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B508" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C508" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D508" s="16">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B509" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C509" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D509" s="16">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B510" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C510" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D510" s="16">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B511" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C511" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D511" s="16">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B512" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C512" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D512" s="16">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B513" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C513" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D513" s="16">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B514" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C514" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D514" s="16">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B515" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C515" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D515" s="16">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B516" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C516" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D516" s="16">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B517" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C517" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D517" s="16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B518" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C518" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D518" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B519" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C519" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D519" s="15">
+        <f>SUM(D512:D514)</f>
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B520" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C520" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D520" s="16">
+        <f>SUM(D515:D518)</f>
+        <v>0.43699999999999994</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B521" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C521" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D521" s="12">
+        <v>0.2782</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B522" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C522" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D522" s="12">
+        <v>0.33119999999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="16">
+      <c r="A523" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B523" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C523" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="D523" s="12">
+        <v>0.1099</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C524" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D524" s="12">
+        <v>0.28070000000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="80">
+      <c r="A525" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B525" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C525" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="D525" s="12"/>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B526" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C526" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D526" s="12">
+        <v>0.57640000000000002</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B527" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C527" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D527" s="12">
+        <v>0.42359999999999998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B528" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C528" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D528" s="12">
+        <v>0.52149999999999996</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B529" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C529" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D529" s="12">
+        <v>0.47849999999999998</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B530" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C530" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D530" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B531" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C531" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D531" s="12">
+        <v>0.21229999999999999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B532" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C532" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D532" s="12">
+        <v>0.1933</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B533" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C533" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D533" s="12">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B534" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C534" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D534" s="12">
+        <v>0.1449</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B535" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C535" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D535" s="12">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B536" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C536" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D536" s="12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B537" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C537" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D537" s="12">
+        <f>SUM(D530:D532)</f>
+        <v>0.41559999999999997</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B538" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C538" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D538" s="12">
+        <f>SUM(D533:D536)</f>
+        <v>0.58249999999999991</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B539" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C539" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D539" s="16">
+        <v>0.35849999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B540" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C540" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D540" s="16">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="16">
+      <c r="A541" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B541" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C541" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="D541" s="16">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B542" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C542" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D542" s="16">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="64">
+      <c r="A543" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B543" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C543" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D543" s="16"/>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B544" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C544" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D544" s="16">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B545" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C545" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D545" s="16">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B546" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C546" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D546" s="16">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B547" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C547" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D547" s="16">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B548" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C548" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D548" s="16">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B549" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C549" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D549" s="16">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B550" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C550" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D550" s="16">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B551" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C551" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D551" s="16">
+        <v>0.29849999999999999</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B552" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C552" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D552" s="16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B553" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C553" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D553" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B554" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C554" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D554" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B555" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C555" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D555" s="15">
+        <f>SUM(D548:D550)</f>
+        <v>0.48300000000000004</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B556" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C556" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D556" s="16">
+        <f>SUM(D551:D554)</f>
+        <v>0.50649999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10915,10 +13492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11236,6 +13813,9 @@
       <c r="G14">
         <v>25</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -11380,6 +13960,32 @@
       </c>
       <c r="H22">
         <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23">
+        <v>1296</v>
+      </c>
+      <c r="C23">
+        <v>1064</v>
+      </c>
+      <c r="D23">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>179</v>
+      </c>
+      <c r="F23">
+        <v>148</v>
+      </c>
+      <c r="G23">
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -13136,6 +15742,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -13378,17 +15995,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
@@ -13398,6 +16004,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13414,21 +16037,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{FD81F136-49F8-9C4A-962C-98BCEAD89FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216B6C82-E927-2C48-ABEA-C7A782A8635E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC65E0-1DCE-B94A-A542-C8A6D9CA7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="604">
   <si>
     <t>Sample Size</t>
   </si>
@@ -2333,28 +2333,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -2878,10 +2857,10 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4549,198 +4528,198 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1 R1:XFD1 A29:XFD1048576 T2:XFD28">
-    <cfRule type="expression" dxfId="32" priority="272">
+    <cfRule type="expression" dxfId="29" priority="289">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="273">
+    <cfRule type="expression" priority="290">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="31" priority="270">
+    <cfRule type="expression" dxfId="28" priority="287">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="271">
+    <cfRule type="expression" priority="288">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="27" priority="76">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
+    <cfRule type="expression" dxfId="26" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="25" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="24" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="23" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="22" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="21" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="20" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="27" priority="59">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="60">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
+    <cfRule type="expression" dxfId="19" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
-    <cfRule type="expression" dxfId="26" priority="56">
+  <conditionalFormatting sqref="B15:C21">
+    <cfRule type="expression" dxfId="18" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="57">
+    <cfRule type="expression" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="25" priority="54">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="17" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="55">
+    <cfRule type="expression" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="24" priority="51">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="16" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="23" priority="49">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="15" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="22" priority="47">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="14" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="21" priority="45">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="20" priority="43">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="12" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="11" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
-    <cfRule type="expression" dxfId="19" priority="40">
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" dxfId="10" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C21">
-    <cfRule type="expression" dxfId="18" priority="38">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="17" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="16" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="15" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="14" priority="30">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="13" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="11" priority="24">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="10" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="23">
+    <cfRule type="expression" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="expression" dxfId="9" priority="20">
+    <cfRule type="expression" dxfId="9" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="21">
+    <cfRule type="expression" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="8" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="19">
+    <cfRule type="expression" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13492,10 +13471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13986,6 +13965,58 @@
       </c>
       <c r="H23">
         <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24">
+        <v>792</v>
+      </c>
+      <c r="C24">
+        <v>493</v>
+      </c>
+      <c r="D24">
+        <v>84</v>
+      </c>
+      <c r="E24">
+        <v>205</v>
+      </c>
+      <c r="F24">
+        <v>226</v>
+      </c>
+      <c r="G24">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25">
+        <v>1162</v>
+      </c>
+      <c r="C25">
+        <v>1261</v>
+      </c>
+      <c r="D25">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>297</v>
+      </c>
+      <c r="F25">
+        <v>224</v>
+      </c>
+      <c r="G25">
+        <v>84</v>
+      </c>
+      <c r="H25">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -15733,15 +15764,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -15750,6 +15772,15 @@
     <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15996,14 +16027,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -16016,6 +16039,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC65E0-1DCE-B94A-A542-C8A6D9CA7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F012695-90BB-D145-B25C-6788AC47B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="605">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1097,9 +1097,6 @@
     <t>Lima, Peru and Montevideo, Uruguay, respectively</t>
   </si>
   <si>
-    <t xml:space="preserve">More than half (55%) of all respondents reported that they had received at least a high school diploma or vocational degree, and the remaining 45% of respondents received a middle school diploma or less. </t>
-  </si>
-  <si>
     <t>Departments and cities were selected to achieve a nationally representative sample of the country. Within cities and towns, neighborhoods were selected as the primary sampling unit using probability proportional to size sampling. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
   </si>
   <si>
@@ -1662,9 +1659,6 @@
     <t>Most respondents (57%) reported that they had received up to a middle school diploma, and the remaining 43% of respondents received at least a high school diploma or vocational degree.</t>
   </si>
   <si>
-    <t>Regions and districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks selected via simple random sampling. The number of enumeration areas assigned to each city or town was determined based on the relative population size of each city or town. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t>In total, 36 interviewers worked on this project, including 25 female interviewers. Enumerators worked in nine groups of four interviewers with one supervisor each. Interviews were conducted in English and Spanish.</t>
   </si>
   <si>
@@ -1680,24 +1674,12 @@
     <t>Costa Rican</t>
   </si>
   <si>
-    <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Costa Rica (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t>Just over one-third (35%) of respondents identified themselves as white, followed by Mestizo (26%), Afro-Costa Rican (15%), and Indigenous.</t>
-  </si>
-  <si>
     <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 45% of respondents received at least a high school diploma or vocational degree.</t>
   </si>
   <si>
-    <t xml:space="preserve">Regions and provinces were selected to achieve a nationally representative sample of the country. Enumeration areas were randomly selected according to neighbohoods within each city and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">In total, 40 interviewers worked on this project, including 24 female interviewers. Enumerators worked in 10 groups of four interviewers with four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
   </si>
   <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 37% of all interviews in the field. During data processing, 532 of the interviews (approximately 53% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 47 minutes in length and ranged from 40 to 88 minutes. </t>
-  </si>
-  <si>
     <t>Belize, El Salvador, Guatemala, Honduras, Nicaragua, and Panama</t>
   </si>
   <si>
@@ -1707,66 +1689,7 @@
     <t>Salvadoran</t>
   </si>
   <si>
-    <t>CID Gallup based the sampling frame on 2022 population figures from the General Directorate of Statistics and Census (DIGESTYC) in El Salvador,  acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearly two-thirds (63%) of respondents identified themselves as Hispanic, followed by 20% of respondents who did not identify with any ethnicity,11% who identified as Indigenous, and 5% who identified as White. </t>
-  </si>
-  <si>
     <t>Most respondents (53%) reported that they had received up to a middle school diploma, and the remaining 47% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <r>
-      <t>Regions and departments were selected to achieve a nationally representative sample in El Salvador. In cities, &lt;i&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">municipios&lt;/i&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and &lt;i&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cantóns&lt;/i&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> served as the primary sampling unit and were randomly selected based on relative population sizes and socioeconomic distribution. Within each neighborhood, enumeration areas were constructed around randomly selected sampling points and the number of interviews per enumeration area was determined by the population distribution in each primary sampling unit. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 43 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 11 groups of four interviewers with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 34% of all interviews in the field. During data processing, 37% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 34 to 97 minutes. </t>
   </si>
   <si>
     <t>Belize, Costa Rica, Guatemala, Honduras, Nicaragua, and Panama</t>
@@ -1970,6 +1893,42 @@
   </si>
   <si>
     <t>Thirty-six percent (36%) of the interviews took place in the North Atlantic region, followed by 27% in the Central region, 20% in the South East region, and 17% in the Western region.</t>
+  </si>
+  <si>
+    <t>Regions and districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks selected via simple random sampling. The number of enumeration areas assigned to each city or town was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on the 2022 projected population figures from the National Institute of Statistics and Census of Costa Rica (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Forty-two percent (42%) of respondents identified themselves as White, followed by Mestizo (30%) and Afro-Costa Rican (20%).</t>
+  </si>
+  <si>
+    <t>Provinces and cantons were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Districts were then selected as the primary sampling unit using probability proportionate to size sampling. Within districts, individual enumeration areas consisted of neighborhood blocks and were selected via simple random sampling. The number of enumeration areas assigned to each canton was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 37% of all interviews in the field. During data processing, 533 interviews (approximately 53% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 47 minutes in length and ranged from 41 to 88 minutes.</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on  2018 population figures from the General Directorate of Statistics and Census of El Salvador (DIGESTYC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most (63%) respondents identified themselves as Mestizo, followed by 20% of respondents who did not identify with any ethnicity and 11% who identified as Indigenous. </t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Municipalities were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas were selected at the &lt;i&gt;cantón&lt;/i&gt;, or neighborhood, level via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 43 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 11 groups of four interviewers with one supervisor each. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 34% of all interviews in the field. During data processing, 744 interviews (approximately 37% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 34 to 97 minutes.</t>
+  </si>
+  <si>
+    <t>More than half (55%) of all respondents reported that they had received at least a high school diploma or vocational degree, and the remaining 45% of respondents received up to a middle school diploma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data for Argentina was collected in 2016, 2018, and 2022. Data for Brazil was collected in 2014, 2017, and 2022. </t>
   </si>
 </sst>
 </file>
@@ -2333,7 +2292,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2856,11 +2822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:S28"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2964,7 +2930,7 @@
         <v>107</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>115</v>
@@ -2976,7 +2942,7 @@
         <v>324</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>168</v>
@@ -3023,7 +2989,7 @@
         <v>170</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>115</v>
@@ -3041,7 +3007,7 @@
         <v>171</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R3" s="19" t="s">
         <v>325</v>
@@ -3079,7 +3045,7 @@
         <v>166</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>172</v>
@@ -3088,16 +3054,16 @@
         <v>115</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O4" s="19" t="s">
         <v>173</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="19" t="s">
         <v>123</v>
@@ -3141,7 +3107,7 @@
         <v>174</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>115</v>
@@ -3153,7 +3119,7 @@
         <v>329</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P5" s="40" t="s">
         <v>176</v>
@@ -3191,16 +3157,16 @@
         <v>314</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" s="43" t="s">
         <v>189</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>115</v>
@@ -3221,7 +3187,7 @@
         <v>193</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S6" s="43" t="s">
         <v>194</v>
@@ -3250,7 +3216,7 @@
         <v>314</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="46" t="s">
         <v>195</v>
@@ -3259,7 +3225,7 @@
         <v>196</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>197</v>
@@ -3280,13 +3246,13 @@
         <v>201</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S7" s="43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="126" customHeight="1">
+    <row r="8" spans="1:23" s="43" customFormat="1" ht="328">
       <c r="A8" s="49" t="s">
         <v>141</v>
       </c>
@@ -3309,7 +3275,7 @@
         <v>333</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>203</v>
@@ -3318,7 +3284,7 @@
         <v>334</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>115</v>
@@ -3327,7 +3293,7 @@
         <v>204</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>335</v>
+        <v>603</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>205</v>
@@ -3339,7 +3305,7 @@
         <v>207</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>352</v>
+        <v>604</v>
       </c>
       <c r="S8" s="43" t="s">
         <v>208</v>
@@ -3377,13 +3343,13 @@
         <v>148</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>241</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>305</v>
@@ -3398,7 +3364,7 @@
         <v>244</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S9" s="19" t="s">
         <v>245</v>
@@ -3436,13 +3402,13 @@
         <v>247</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>307</v>
@@ -3457,7 +3423,7 @@
         <v>249</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S10" s="19" t="s">
         <v>250</v>
@@ -3492,22 +3458,22 @@
         <v>309</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>241</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>310</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>251</v>
@@ -3516,7 +3482,7 @@
         <v>311</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S11" s="19" t="s">
         <v>252</v>
@@ -3554,7 +3520,7 @@
         <v>247</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>254</v>
@@ -3575,7 +3541,7 @@
         <v>258</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S12" s="19" t="s">
         <v>259</v>
@@ -3610,10 +3576,10 @@
         <v>260</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>241</v>
@@ -3625,16 +3591,16 @@
         <v>315</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P13" s="19" t="s">
         <v>316</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S13" s="19" t="s">
         <v>262</v>
@@ -3670,10 +3636,10 @@
         <v>318</v>
       </c>
       <c r="J14" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>373</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>263</v>
@@ -3694,7 +3660,7 @@
         <v>322</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S14" s="19" t="s">
         <v>265</v>
@@ -3723,40 +3689,40 @@
         <v>304</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M15" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="P15" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="Q15" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="R15" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="S15" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="192">
@@ -3782,40 +3748,40 @@
         <v>304</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M16" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="O16" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="P16" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q16" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="P16" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q16" s="19" t="s">
+      <c r="R16" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S16" s="19" t="s">
         <v>406</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="192">
@@ -3841,40 +3807,40 @@
         <v>304</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M17" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="N17" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="O17" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="P17" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="Q17" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="R17" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S17" s="19" t="s">
         <v>414</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="192">
@@ -3900,40 +3866,40 @@
         <v>304</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M18" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="O18" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="P18" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="Q18" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="R18" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S18" s="19" t="s">
         <v>422</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="192">
@@ -3959,40 +3925,40 @@
         <v>304</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M19" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="N19" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="O19" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="P19" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="Q19" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="R19" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S19" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="192">
@@ -4018,40 +3984,40 @@
         <v>304</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M20" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="O20" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>434</v>
       </c>
       <c r="P20" s="19" t="s">
         <v>243</v>
       </c>
       <c r="Q20" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S20" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="335">
@@ -4077,43 +4043,43 @@
         <v>306</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>247</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>241</v>
       </c>
       <c r="M21" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="N21" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="O21" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="P21" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="Q21" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="R21" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S21" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="R21" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="335">
+    </row>
+    <row r="22" spans="1:19" ht="320">
       <c r="A22" s="4" t="s">
         <v>159</v>
       </c>
@@ -4133,46 +4099,46 @@
         <v>2022</v>
       </c>
       <c r="G22" t="s">
+        <v>516</v>
+      </c>
+      <c r="H22" t="s">
         <v>517</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L22" t="s">
         <v>115</v>
       </c>
       <c r="M22" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="N22" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="O22" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="P22" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="O22" s="64" t="s">
+      <c r="Q22" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="P22" s="64" t="s">
+      <c r="R22" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="Q22" s="19" t="s">
+      <c r="S22" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="R22" s="40" t="s">
-        <v>526</v>
-      </c>
-      <c r="S22" s="64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="256">
+    </row>
+    <row r="23" spans="1:19" ht="320">
       <c r="A23" s="13" t="s">
         <v>160</v>
       </c>
@@ -4195,40 +4161,40 @@
         <v>306</v>
       </c>
       <c r="H23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="L23" t="s">
         <v>115</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="R23" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="335">
@@ -4251,43 +4217,43 @@
         <v>2022</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="L24" t="s">
         <v>115</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="R24" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S24" s="19" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="272">
@@ -4310,43 +4276,43 @@
         <v>2022</v>
       </c>
       <c r="G25" t="s">
+        <v>516</v>
+      </c>
+      <c r="H25" t="s">
         <v>517</v>
       </c>
-      <c r="H25" t="s">
-        <v>518</v>
-      </c>
       <c r="I25" s="41" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L25" t="s">
         <v>115</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="288">
@@ -4369,43 +4335,43 @@
         <v>2022</v>
       </c>
       <c r="G26" t="s">
+        <v>516</v>
+      </c>
+      <c r="H26" t="s">
         <v>517</v>
       </c>
-      <c r="H26" t="s">
-        <v>518</v>
-      </c>
       <c r="I26" s="13" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="L26" t="s">
         <v>115</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="409.6">
@@ -4428,43 +4394,43 @@
         <v>2022</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="H27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="L27" t="s">
         <v>115</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="R27" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="224">
@@ -4487,248 +4453,256 @@
         <v>2022</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="H28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="L28" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="R28" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1 R1:XFD1 A29:XFD1048576 T2:XFD28">
-    <cfRule type="expression" dxfId="29" priority="289">
+  <conditionalFormatting sqref="A1:K1 R1:XFD1 A29:XFD1048576 T2:XFD7 T9:XFD28">
+    <cfRule type="expression" dxfId="30" priority="308">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="290">
+    <cfRule type="expression" priority="309">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="28" priority="287">
+    <cfRule type="expression" dxfId="29" priority="306">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="288">
+    <cfRule type="expression" priority="307">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="97">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="28" priority="95">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="94">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S7">
+    <cfRule type="expression" dxfId="27" priority="92">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="93">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="26" priority="90">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="91">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="25" priority="87">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="24" priority="85">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="23" priority="83">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="22" priority="81">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="21" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="27" priority="76">
+  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
+    <cfRule type="expression" dxfId="20" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="B15:C21">
+    <cfRule type="expression" dxfId="19" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S8">
-    <cfRule type="expression" dxfId="26" priority="73">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="18" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="74">
+    <cfRule type="expression" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="25" priority="71">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="17" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="72">
+    <cfRule type="expression" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="24" priority="68">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="16" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="23" priority="66">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="15" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="22" priority="64">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="14" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="21" priority="62">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="13" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="20" priority="60">
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="12" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" dxfId="11" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
-    <cfRule type="expression" dxfId="19" priority="57">
+  <conditionalFormatting sqref="N18">
+    <cfRule type="expression" dxfId="10" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="58">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C21">
-    <cfRule type="expression" dxfId="18" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="17" priority="53">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="54">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="16" priority="51">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="52">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="15" priority="49">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="50">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="14" priority="47">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="48">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="13" priority="45">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="12" priority="43">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="11" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="42">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="10" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="40">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
-    <cfRule type="expression" dxfId="9" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="38">
+    <cfRule type="expression" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="8" priority="35">
+    <cfRule type="expression" dxfId="9" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="36">
+    <cfRule type="expression" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" priority="17">
+    <cfRule type="expression" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28 D23:E23 G23 S23:S28 P23:Q23 D22:I22 D24:G28 M24:Q28 M23:N23 H23:K28">
+    <cfRule type="expression" dxfId="8" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:M22 S22 O22:P22 L23:L28">
     <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4736,7 +4710,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:M22 S22 O22:P22 L23:L28">
+  <conditionalFormatting sqref="B22:C28">
     <cfRule type="expression" dxfId="6" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4744,7 +4718,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C28">
+  <conditionalFormatting sqref="J22">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4752,7 +4726,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4760,7 +4734,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="O23">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4768,7 +4742,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
+  <conditionalFormatting sqref="N22">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4776,7 +4750,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
+  <conditionalFormatting sqref="R22:R28">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4784,7 +4758,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R28">
+  <conditionalFormatting sqref="A8:XFD8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5082,7 +5056,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D19" s="59">
         <v>31</v>
@@ -5111,7 +5085,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>184</v>
@@ -5169,10 +5143,10 @@
         <v>99</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>376</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5183,7 +5157,7 @@
         <v>105</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>182</v>
@@ -5198,7 +5172,7 @@
         <v>99</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D27" s="59">
         <v>28</v>
@@ -5216,7 +5190,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5227,10 +5201,10 @@
         <v>99</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5256,10 +5230,10 @@
         <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E31" s="11"/>
     </row>
@@ -5285,10 +5259,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5314,10 +5288,10 @@
         <v>99</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E35" s="11"/>
     </row>
@@ -5372,10 +5346,10 @@
         <v>99</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -5401,10 +5375,10 @@
         <v>26</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5430,7 +5404,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D43" s="59">
         <v>19</v>
@@ -5457,13 +5431,13 @@
         <v>159</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E45" s="11"/>
     </row>
@@ -5489,10 +5463,10 @@
         <v>99</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5515,7 +5489,7 @@
         <v>161</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>27</v>
@@ -5573,7 +5547,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>27</v>
@@ -5613,7 +5587,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>105</v>
@@ -5628,16 +5602,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E57" s="11"/>
     </row>
@@ -5827,7 +5801,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="53"/>
       <c r="G11" s="32"/>
@@ -6070,7 +6044,7 @@
         <v>133</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" s="55"/>
     </row>
@@ -6265,7 +6239,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D42" s="53">
         <v>0.54</v>
@@ -6279,7 +6253,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D43" s="53">
         <v>0.46</v>
@@ -6293,7 +6267,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D44" s="53"/>
     </row>
@@ -6558,7 +6532,7 @@
         <v>133</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D63" s="55"/>
     </row>
@@ -6839,7 +6813,7 @@
         <v>133</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D83" s="16"/>
     </row>
@@ -7103,7 +7077,7 @@
         <v>133</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -7535,7 +7509,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D133" s="5"/>
     </row>
@@ -7771,7 +7745,7 @@
         <v>133</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D150" s="16"/>
     </row>
@@ -7979,7 +7953,7 @@
         <v>273</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D165" s="12">
         <v>0.16</v>
@@ -8007,7 +7981,7 @@
         <v>276</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D167" s="12">
         <v>0.08</v>
@@ -8021,7 +7995,7 @@
         <v>277</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D168" s="12">
         <v>0.06</v>
@@ -8063,7 +8037,7 @@
         <v>282</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D171" s="12">
         <v>0.04</v>
@@ -8105,7 +8079,7 @@
         <v>133</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -8341,7 +8315,7 @@
         <v>133</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D191" s="16"/>
     </row>
@@ -8593,7 +8567,7 @@
         <v>133</v>
       </c>
       <c r="C209" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D209" s="12"/>
     </row>
@@ -8831,7 +8805,7 @@
         <v>133</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D226" s="16"/>
     </row>
@@ -9083,7 +9057,7 @@
         <v>98</v>
       </c>
       <c r="C244" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D244" s="12">
         <v>0.05</v>
@@ -9153,7 +9127,7 @@
         <v>133</v>
       </c>
       <c r="C249" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -9349,7 +9323,7 @@
         <v>94</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D263" s="16">
         <v>0.35</v>
@@ -9363,7 +9337,7 @@
         <v>96</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D264" s="16">
         <v>0.26</v>
@@ -9377,7 +9351,7 @@
         <v>101</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D265" s="16">
         <v>0.04</v>
@@ -9391,7 +9365,7 @@
         <v>95</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D266" s="16">
         <v>0.1</v>
@@ -9405,7 +9379,7 @@
         <v>97</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D267" s="16">
         <v>0.1</v>
@@ -9419,7 +9393,7 @@
         <v>98</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D268" s="16">
         <v>0.09</v>
@@ -9433,7 +9407,7 @@
         <v>100</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D269" s="16">
         <v>0.06</v>
@@ -9447,7 +9421,7 @@
         <v>133</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D270" s="16"/>
     </row>
@@ -9643,7 +9617,7 @@
         <v>94</v>
       </c>
       <c r="C284" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D284" s="12">
         <v>0.32</v>
@@ -9657,7 +9631,7 @@
         <v>96</v>
       </c>
       <c r="C285" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D285" s="12">
         <v>0.2</v>
@@ -9671,7 +9645,7 @@
         <v>95</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D286" s="12">
         <v>0.1</v>
@@ -9685,7 +9659,7 @@
         <v>97</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D287" s="12">
         <v>0.08</v>
@@ -9699,7 +9673,7 @@
         <v>98</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D288" s="12">
         <v>0.08</v>
@@ -9713,7 +9687,7 @@
         <v>100</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D289" s="12">
         <v>0.06</v>
@@ -9727,7 +9701,7 @@
         <v>101</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D290" s="12">
         <v>0.05</v>
@@ -9741,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D291" s="12">
         <v>0.04</v>
@@ -9755,7 +9729,7 @@
         <v>103</v>
       </c>
       <c r="C292" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D292" s="12">
         <v>0.04</v>
@@ -9766,10 +9740,10 @@
         <v>144</v>
       </c>
       <c r="B293" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C293" s="33" t="s">
         <v>465</v>
-      </c>
-      <c r="C293" s="33" t="s">
-        <v>466</v>
       </c>
       <c r="D293" s="12">
         <v>0.02</v>
@@ -9780,10 +9754,10 @@
         <v>144</v>
       </c>
       <c r="B294" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C294" s="33" t="s">
         <v>467</v>
-      </c>
-      <c r="C294" s="33" t="s">
-        <v>468</v>
       </c>
       <c r="D294" s="12">
         <v>0.02</v>
@@ -9797,7 +9771,7 @@
         <v>133</v>
       </c>
       <c r="C295" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -10000,7 +9974,7 @@
         <v>94</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D309" s="16">
         <v>0.3</v>
@@ -10014,7 +9988,7 @@
         <v>96</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D310" s="16">
         <v>0.14000000000000001</v>
@@ -10028,7 +10002,7 @@
         <v>95</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D311" s="16">
         <v>0.13</v>
@@ -10042,7 +10016,7 @@
         <v>97</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D312" s="16">
         <v>0.11</v>
@@ -10056,7 +10030,7 @@
         <v>98</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D313" s="16">
         <v>0.08</v>
@@ -10070,7 +10044,7 @@
         <v>100</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D314" s="16">
         <v>0.08</v>
@@ -10084,7 +10058,7 @@
         <v>101</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D315" s="16">
         <v>0.09</v>
@@ -10098,7 +10072,7 @@
         <v>102</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D316" s="16">
         <v>0.03</v>
@@ -10112,7 +10086,7 @@
         <v>103</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D317" s="16">
         <v>0.02</v>
@@ -10123,10 +10097,10 @@
         <v>145</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D318" s="16">
         <v>0.02</v>
@@ -10140,7 +10114,7 @@
         <v>133</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D319" s="16"/>
     </row>
@@ -10336,7 +10310,7 @@
         <v>94</v>
       </c>
       <c r="C333" s="60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D333" s="61">
         <v>0.38</v>
@@ -10350,7 +10324,7 @@
         <v>96</v>
       </c>
       <c r="C334" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D334" s="12">
         <v>0.26</v>
@@ -10364,7 +10338,7 @@
         <v>95</v>
       </c>
       <c r="C335" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D335" s="12">
         <v>0.13</v>
@@ -10378,7 +10352,7 @@
         <v>97</v>
       </c>
       <c r="C336" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D336" s="12">
         <v>0.1</v>
@@ -10392,7 +10366,7 @@
         <v>98</v>
       </c>
       <c r="C337" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D337" s="12">
         <v>0.08</v>
@@ -10406,7 +10380,7 @@
         <v>278</v>
       </c>
       <c r="C338" s="60" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D338" s="12">
         <v>0.04</v>
@@ -10420,7 +10394,7 @@
         <v>133</v>
       </c>
       <c r="C339" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -10616,7 +10590,7 @@
         <v>94</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D353" s="16">
         <v>0.31</v>
@@ -10630,7 +10604,7 @@
         <v>96</v>
       </c>
       <c r="C354" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D354" s="16">
         <v>0.14000000000000001</v>
@@ -10644,7 +10618,7 @@
         <v>95</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D355" s="16">
         <v>0.13</v>
@@ -10658,7 +10632,7 @@
         <v>97</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D356" s="16">
         <v>0.09</v>
@@ -10672,7 +10646,7 @@
         <v>98</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D357" s="16">
         <v>7.0000000000000007E-2</v>
@@ -10686,7 +10660,7 @@
         <v>100</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D358" s="16">
         <v>7.0000000000000007E-2</v>
@@ -10700,7 +10674,7 @@
         <v>101</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D359" s="16">
         <v>0.06</v>
@@ -10714,7 +10688,7 @@
         <v>102</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D360" s="16">
         <v>0.06</v>
@@ -10728,7 +10702,7 @@
         <v>103</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D361" s="16">
         <v>0.04</v>
@@ -10739,10 +10713,10 @@
         <v>147</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D362" s="16">
         <v>0.03</v>
@@ -10756,7 +10730,7 @@
         <v>133</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D363" s="16"/>
     </row>
@@ -10952,7 +10926,7 @@
         <v>94</v>
       </c>
       <c r="C377" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D377" s="61">
         <v>0.39</v>
@@ -10966,7 +10940,7 @@
         <v>96</v>
       </c>
       <c r="C378" s="60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D378" s="12">
         <v>0.13</v>
@@ -10980,7 +10954,7 @@
         <v>95</v>
       </c>
       <c r="C379" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D379" s="12">
         <v>0.1</v>
@@ -10994,7 +10968,7 @@
         <v>97</v>
       </c>
       <c r="C380" s="60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D380" s="12">
         <v>0.08</v>
@@ -11008,7 +10982,7 @@
         <v>98</v>
       </c>
       <c r="C381" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D381" s="12">
         <v>0.08</v>
@@ -11022,7 +10996,7 @@
         <v>100</v>
       </c>
       <c r="C382" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D382" s="12">
         <v>7.0000000000000007E-2</v>
@@ -11036,7 +11010,7 @@
         <v>101</v>
       </c>
       <c r="C383" s="60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D383" s="12">
         <v>0.04</v>
@@ -11050,7 +11024,7 @@
         <v>102</v>
       </c>
       <c r="C384" s="60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D384" s="12">
         <v>0.04</v>
@@ -11064,7 +11038,7 @@
         <v>103</v>
       </c>
       <c r="C385" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D385" s="12">
         <v>0.04</v>
@@ -11075,10 +11049,10 @@
         <v>148</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C386" s="60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D386" s="12">
         <v>0.02</v>
@@ -11089,10 +11063,10 @@
         <v>148</v>
       </c>
       <c r="B387" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C387" s="33" t="s">
         <v>505</v>
-      </c>
-      <c r="C387" s="33" t="s">
-        <v>506</v>
       </c>
       <c r="D387" s="12">
         <v>0.01</v>
@@ -11106,7 +11080,7 @@
         <v>133</v>
       </c>
       <c r="C388" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -11302,7 +11276,7 @@
         <v>94</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D402" s="16">
         <v>0.46</v>
@@ -11316,7 +11290,7 @@
         <v>96</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D403" s="16">
         <v>0.27</v>
@@ -11330,7 +11304,7 @@
         <v>95</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D404" s="16">
         <v>0.09</v>
@@ -11344,7 +11318,7 @@
         <v>97</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D405" s="16">
         <v>0.06</v>
@@ -11358,7 +11332,7 @@
         <v>98</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D406" s="16">
         <v>0.06</v>
@@ -11372,7 +11346,7 @@
         <v>100</v>
       </c>
       <c r="C407" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D407" s="16">
         <v>0.06</v>
@@ -11386,7 +11360,7 @@
         <v>133</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D408" s="16"/>
     </row>
@@ -11582,7 +11556,7 @@
         <v>94</v>
       </c>
       <c r="C422" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D422" s="61">
         <v>0.95</v>
@@ -11596,7 +11570,7 @@
         <v>96</v>
       </c>
       <c r="C423" s="60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D423" s="12">
         <v>0.05</v>
@@ -11610,7 +11584,7 @@
         <v>133</v>
       </c>
       <c r="C424" s="60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -11806,7 +11780,7 @@
         <v>94</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D438" s="16">
         <v>0.47199999999999998</v>
@@ -11820,7 +11794,7 @@
         <v>96</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D439" s="16">
         <v>0.52890000000000004</v>
@@ -11834,7 +11808,7 @@
         <v>133</v>
       </c>
       <c r="C440" s="19" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D440" s="16"/>
     </row>
@@ -12072,7 +12046,7 @@
         <v>133</v>
       </c>
       <c r="C457" s="67" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D457" s="11"/>
     </row>
@@ -12282,7 +12256,7 @@
         <v>96</v>
       </c>
       <c r="C472" s="13" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D472" s="16">
         <v>0.221</v>
@@ -12296,7 +12270,7 @@
         <v>274</v>
       </c>
       <c r="C473" s="19" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D473" s="16">
         <v>0.193</v>
@@ -12310,7 +12284,7 @@
         <v>276</v>
       </c>
       <c r="C474" s="13" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D474" s="16">
         <v>0.107</v>
@@ -12324,7 +12298,7 @@
         <v>133</v>
       </c>
       <c r="C475" s="19" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D475" s="16"/>
     </row>
@@ -12520,7 +12494,7 @@
         <v>94</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D489" s="12">
         <v>0.63400000000000001</v>
@@ -12534,7 +12508,7 @@
         <v>96</v>
       </c>
       <c r="C490" s="11" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D490" s="12">
         <v>0.36599999999999999</v>
@@ -12548,7 +12522,7 @@
         <v>133</v>
       </c>
       <c r="C491" s="67" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D491" s="11"/>
     </row>
@@ -12744,7 +12718,7 @@
         <v>94</v>
       </c>
       <c r="C505" s="13" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D505" s="16">
         <v>0.249</v>
@@ -12758,7 +12732,7 @@
         <v>96</v>
       </c>
       <c r="C506" s="13" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D506" s="16">
         <v>0.751</v>
@@ -12772,7 +12746,7 @@
         <v>133</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D507" s="16"/>
     </row>
@@ -12968,7 +12942,7 @@
         <v>94</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D521" s="12">
         <v>0.2782</v>
@@ -12996,7 +12970,7 @@
         <v>274</v>
       </c>
       <c r="C523" s="33" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D523" s="12">
         <v>0.1099</v>
@@ -13010,7 +12984,7 @@
         <v>276</v>
       </c>
       <c r="C524" s="11" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D524" s="12">
         <v>0.28070000000000001</v>
@@ -13024,7 +12998,7 @@
         <v>133</v>
       </c>
       <c r="C525" s="67" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D525" s="12"/>
     </row>
@@ -13220,7 +13194,7 @@
         <v>94</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D539" s="16">
         <v>0.35849999999999999</v>
@@ -13248,7 +13222,7 @@
         <v>274</v>
       </c>
       <c r="C541" s="19" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D541" s="16">
         <v>0.17249999999999999</v>
@@ -13262,7 +13236,7 @@
         <v>276</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D542" s="16">
         <v>0.20100000000000001</v>
@@ -13276,7 +13250,7 @@
         <v>133</v>
       </c>
       <c r="C543" s="19" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D543" s="16"/>
     </row>
@@ -13471,10 +13445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8BEAD-D473-7B4F-A0F1-FD90B83F8C12}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13487,7 +13461,7 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C1" t="s">
@@ -13998,7 +13972,7 @@
         <v>161</v>
       </c>
       <c r="B25">
-        <v>1162</v>
+        <v>1626</v>
       </c>
       <c r="C25">
         <v>1261</v>
@@ -14010,13 +13984,90 @@
         <v>297</v>
       </c>
       <c r="F25">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G25">
         <v>84</v>
       </c>
       <c r="H25">
         <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26">
+        <v>1692</v>
+      </c>
+      <c r="C26">
+        <v>1185</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>367</v>
+      </c>
+      <c r="F26">
+        <v>233</v>
+      </c>
+      <c r="G26">
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27">
+        <v>5746</v>
+      </c>
+      <c r="C27">
+        <v>3853</v>
+      </c>
+      <c r="D27">
+        <v>76</v>
+      </c>
+      <c r="E27">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28">
+        <v>3255</v>
+      </c>
+      <c r="C28">
+        <v>3125</v>
+      </c>
+      <c r="D28">
+        <v>130</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29">
+        <v>12580</v>
+      </c>
+      <c r="C29">
+        <v>7116</v>
+      </c>
+      <c r="D29">
+        <v>170</v>
+      </c>
+      <c r="E29">
+        <v>5294</v>
       </c>
     </row>
   </sheetData>
@@ -15764,26 +15815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -16026,7 +16057,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -16043,29 +16113,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F012695-90BB-D145-B25C-6788AC47B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8F012695-90BB-D145-B25C-6788AC47B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A1A9004-CC1A-9B41-B13A-C16405C517C6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="613">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1767,9 +1767,6 @@
     <t>All interviews in Nicaragua were conducted using a CATI (Computer Assisted Telephone Interviewing) system. Generation of the cellular RDD (Resilient Distributed Datasets) frame is based on the phone number blocks used in the telephone numbering plan by using pre-codes and stratifying them by provider distribution. The RDD cellular framework for Nicaragua uses a national numbering plan provided by the government. Using this numbering plan, CID Gallup developed a probabilistic design for pulling “seed” blocks from which actual phone numbers were randomly generated. For the mobile sample, CID Gallup classified mobile providers, which are used for residential services and commercial services, and excluded commercial numbers from the sample. The mobile sample was sorted by the amount of allocated numbering blocks. All cell numbers were used and subdivided into blocks of 100 numbers each, each block was enriched by random digits in order to create a seed, and then the last 2-digits were randomized to create the numbers to be called.</t>
   </si>
   <si>
-    <t xml:space="preserve">In total, 44 interviewers worked on this project, including 25 female interviewers. Enumberators worked under the supervision of four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The supervisory team directly oversaw 46% of all interviews. During data processing, 62% of the interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 40 minutes in length and ranged from 21 to 109 minutes. </t>
   </si>
   <si>
@@ -1783,9 +1780,6 @@
   </si>
   <si>
     <t>CID Gallup based the sampling frame on 2022 population figures from the National Institute of Statistics and Census of Panama (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearly one-third (30%) of respondenets idnentified themselves as Afro-descendant, followed by Hispanic (29%), Indigenous (16%), Mestizo (3%), and five percent of respondents reported that they did not know. </t>
   </si>
   <si>
     <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 49% of respondents received up to a middle school diploma.</t>
@@ -1820,9 +1814,6 @@
     <t xml:space="preserve">In total, 68 interviewers worked on this project, including 59 female interviewers. Enumerators worked in 17 groups of four with a total of 17 supvisors overseeing the project. Interviews were conducted in Spanish. </t>
   </si>
   <si>
-    <t>The supervisory team directly oversaw 36% of al interviews in the field. During data processing, 41% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 99 minutes.</t>
-  </si>
-  <si>
     <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Nicaragua</t>
   </si>
   <si>
@@ -1844,9 +1835,6 @@
     <t>the rest of the country</t>
   </si>
   <si>
-    <t>Forty-seven percent (47%) of the interviews took place in the Metropolitan area while the remaining 53% of the interviews took place in the rest of the country.</t>
-  </si>
-  <si>
     <t>Forty-four percent (44%) of the interviews took place in the South region, followed by 29% in the Metro region, and 27% in the North region.</t>
   </si>
   <si>
@@ -1929,6 +1917,42 @@
   </si>
   <si>
     <t xml:space="preserve">Data for Argentina was collected in 2016, 2018, and 2022. Data for Brazil was collected in 2014, 2017, and 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total, 44 interviewers worked on this project, including 25 female interviewers. Enumerators worked under the supervision of four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearly one-third (30%) of respondents idnentified themselves as Afro-descendant, followed by Hispanic (29%), Indigenous (16%), Mestizo (3%), and five percent of respondents reported that they did not know. </t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 36% of all interviews in the field. During data processing, 41% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 99 minutes.</t>
+  </si>
+  <si>
+    <t>all seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San José </t>
+  </si>
+  <si>
+    <t>Alajuela</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
+    <t>Heredia</t>
+  </si>
+  <si>
+    <t>Puntarenas</t>
+  </si>
+  <si>
+    <t>Guanacaste</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>The majority of interviews took place in San José (34%), Alajuela (20%), and Cartago (11%).</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2316,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2822,11 +2888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3293,7 +3359,7 @@
         <v>204</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>205</v>
@@ -3305,7 +3371,7 @@
         <v>207</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="S8" s="43" t="s">
         <v>208</v>
@@ -4123,7 +4189,7 @@
         <v>521</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P22" s="64" t="s">
         <v>522</v>
@@ -4170,25 +4236,25 @@
         <v>247</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L23" t="s">
         <v>115</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N23" s="19" t="s">
         <v>527</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P23" s="19" t="s">
         <v>528</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="R23" s="40" t="s">
         <v>524</v>
@@ -4229,25 +4295,25 @@
         <v>247</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L24" t="s">
         <v>115</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>532</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R24" s="40" t="s">
         <v>524</v>
@@ -4421,16 +4487,16 @@
         <v>557</v>
       </c>
       <c r="P27" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q27" s="19" t="s">
         <v>558</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>559</v>
       </c>
       <c r="R27" s="40" t="s">
         <v>524</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="224">
@@ -4453,81 +4519,134 @@
         <v>2022</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H28" t="s">
         <v>517</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L28" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="O28" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="P28" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="O28" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>567</v>
-      </c>
       <c r="Q28" s="19" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="R28" s="40" t="s">
         <v>524</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1 R1:XFD1 A29:XFD1048576 T2:XFD7 T9:XFD28">
-    <cfRule type="expression" dxfId="30" priority="308">
+    <cfRule type="expression" dxfId="36" priority="321">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="309">
+    <cfRule type="expression" priority="322">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="29" priority="306">
+    <cfRule type="expression" dxfId="35" priority="319">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="307">
+    <cfRule type="expression" priority="320">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="110">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="34" priority="108">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="109">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="107">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S7">
+    <cfRule type="expression" dxfId="33" priority="105">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="106">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="32" priority="103">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="104">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="102">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="31" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="101">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="30" priority="98">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="99">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="29" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="28" priority="95">
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="28" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="96">
+    <cfRule type="expression" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="94">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S7">
+  <conditionalFormatting sqref="J13">
     <cfRule type="expression" dxfId="27" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4535,20 +4654,20 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="26" priority="90">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="89">
+  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
+    <cfRule type="expression" dxfId="26" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+  <conditionalFormatting sqref="B15:C21">
     <cfRule type="expression" dxfId="25" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4556,7 +4675,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
+  <conditionalFormatting sqref="J15">
     <cfRule type="expression" dxfId="24" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4564,7 +4683,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J16">
     <cfRule type="expression" dxfId="23" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4572,7 +4691,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
+  <conditionalFormatting sqref="J17">
     <cfRule type="expression" dxfId="22" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4580,7 +4699,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="J18">
     <cfRule type="expression" dxfId="21" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4588,177 +4707,108 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="20" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
-    <cfRule type="expression" dxfId="20" priority="76">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="19" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C21">
-    <cfRule type="expression" dxfId="19" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="18" priority="72">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="17" priority="70">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="16" priority="68">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="69">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="15" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="67">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="14" priority="64">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="13" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="63">
+    <cfRule type="expression" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="12" priority="60">
+    <cfRule type="expression" dxfId="18" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="61">
+    <cfRule type="expression" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="11" priority="58">
+    <cfRule type="expression" dxfId="17" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="59">
+    <cfRule type="expression" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="expression" dxfId="10" priority="56">
+    <cfRule type="expression" dxfId="16" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="57">
+    <cfRule type="expression" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="9" priority="54">
+    <cfRule type="expression" dxfId="15" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="55">
+    <cfRule type="expression" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:XFD8">
+    <cfRule type="expression" dxfId="6" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C28">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" priority="19">
+    <cfRule type="expression" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A28 D23:E23 G23 S23:S28 P23:Q23 D22:I22 D24:G28 M24:Q28 M23:N23 H23:K28">
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:M22 S22 O22:P22 L23:L28">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C28">
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="5" priority="11">
+  <conditionalFormatting sqref="D23:E23 D24:G28 D22:I22 G23 S23:S28">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="4" priority="9">
+  <conditionalFormatting sqref="H23:Q28">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:Q22">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R22:R28">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:XFD8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4775,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5431,7 +5481,7 @@
         <v>159</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>377</v>
@@ -5452,7 +5502,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>185</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5466,7 +5516,7 @@
         <v>373</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>443</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5489,13 +5539,13 @@
         <v>161</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="11">
-        <v>14</v>
+      <c r="D49" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="E49" s="11"/>
     </row>
@@ -5547,7 +5597,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>27</v>
@@ -5587,7 +5637,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>105</v>
@@ -5602,16 +5652,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="D57" s="66" t="s">
         <v>570</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>573</v>
       </c>
       <c r="E57" s="11"/>
     </row>
@@ -5623,10 +5673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B7FB5B-1ADA-344B-BEC0-179A66FAE9C7}">
-  <dimension ref="A1:H556"/>
+  <dimension ref="A1:H561"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="F440" sqref="F440"/>
+    <sheetView topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -11780,10 +11830,10 @@
         <v>94</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="D438" s="16">
-        <v>0.47199999999999998</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -11794,36 +11844,38 @@
         <v>96</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="D439" s="16">
-        <v>0.52890000000000004</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" ht="64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C440" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="D440" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D440" s="16">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>51</v>
+        <v>608</v>
       </c>
       <c r="D441" s="16">
-        <v>0.72099999999999997</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -11831,13 +11883,13 @@
         <v>160</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>52</v>
+        <v>609</v>
       </c>
       <c r="D442" s="16">
-        <v>0.27900000000000003</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -11845,13 +11897,13 @@
         <v>160</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>54</v>
+        <v>610</v>
       </c>
       <c r="D443" s="16">
-        <v>0.497</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -11859,41 +11911,39 @@
         <v>160</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>55</v>
+        <v>611</v>
       </c>
       <c r="D444" s="16">
-        <v>0.503</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="32">
       <c r="A445" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C445" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D445" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C445" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="D445" s="16"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D446" s="16">
-        <v>0.35499999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -11901,13 +11951,13 @@
         <v>160</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D447" s="16">
-        <v>0.16600000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -11915,13 +11965,13 @@
         <v>160</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D448" s="16">
-        <v>0.158</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -11929,13 +11979,13 @@
         <v>160</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D449" s="16">
-        <v>0.27100000000000002</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -11946,10 +11996,10 @@
         <v>56</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D450" s="16">
-        <v>1.0999999999999999E-2</v>
+        <v>2.4925224327018942E-2</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -11960,10 +12010,10 @@
         <v>56</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D451" s="16">
-        <v>1.2E-2</v>
+        <v>0.3559322033898305</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -11974,11 +12024,10 @@
         <v>56</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D452" s="15">
-        <f>SUM(D445:D447)</f>
-        <v>0.54600000000000004</v>
+        <v>59</v>
+      </c>
+      <c r="D452" s="16">
+        <v>0.16650049850448653</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -11989,79 +12038,82 @@
         <v>56</v>
       </c>
       <c r="C453" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D453" s="16">
+        <v>0.15852442671984049</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B454" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D454" s="16">
+        <v>0.2711864406779661</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B455" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D455" s="16">
+        <v>1.0967098703888335E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B456" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D456" s="16">
+        <v>1.1964107676969093E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B457" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D457" s="15">
+        <f>SUM(D450:D452)</f>
+        <v>0.54735792622133594</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B458" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C458" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D453" s="16">
-        <f>SUM(D448:D451)</f>
-        <v>0.45200000000000007</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B454" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C454" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D454" s="12">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B455" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C455" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D455" s="12">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B456" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C456" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D456" s="12">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" ht="48">
-      <c r="A457" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B457" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C457" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="D457" s="11"/>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B458" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C458" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D458" s="12">
-        <v>0.45600000000000002</v>
+      <c r="D458" s="16">
+        <f>SUM(D453:D456)</f>
+        <v>0.45264207377866406</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -12069,13 +12121,13 @@
         <v>159</v>
       </c>
       <c r="B459" s="11" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D459" s="12">
-        <v>0.54400000000000004</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -12083,13 +12135,13 @@
         <v>159</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D460" s="12">
-        <v>0.49199999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -12097,41 +12149,39 @@
         <v>159</v>
       </c>
       <c r="B461" s="11" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D461" s="12">
-        <v>0.50800000000000001</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="48">
       <c r="A462" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C462" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D462" s="12">
-        <v>9.9000000000000005E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C462" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="D462" s="11"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D463" s="12">
-        <v>0.32300000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -12139,13 +12189,13 @@
         <v>159</v>
       </c>
       <c r="B464" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D464" s="12">
-        <v>0.14899999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -12153,13 +12203,13 @@
         <v>159</v>
       </c>
       <c r="B465" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D465" s="12">
-        <v>0.33500000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -12167,13 +12217,13 @@
         <v>159</v>
       </c>
       <c r="B466" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D466" s="12">
-        <v>6.7000000000000004E-2</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -12184,10 +12234,10 @@
         <v>56</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D467" s="12">
-        <v>1.7000000000000001E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -12198,10 +12248,10 @@
         <v>56</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D468" s="12">
-        <v>0.01</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -12212,11 +12262,10 @@
         <v>56</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D469" s="12">
-        <f>SUM(D462:D464)</f>
-        <v>0.57100000000000006</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -12227,93 +12276,96 @@
         <v>56</v>
       </c>
       <c r="C470" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D470" s="12">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B471" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C471" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D471" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B472" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D472" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B473" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D473" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B474" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D474" s="12">
+        <f>SUM(D467:D469)</f>
+        <v>0.57100000000000006</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B475" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C475" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D470" s="12">
-        <f>SUM(D465:D468)</f>
+      <c r="D475" s="12">
+        <f>SUM(D470:D473)</f>
         <v>0.42900000000000005</v>
       </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B471" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C471" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D471" s="16">
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B472" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C472" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="D472" s="16">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" ht="16">
-      <c r="A473" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B473" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C473" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="D473" s="16">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B474" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C474" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D474" s="16">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" ht="64">
-      <c r="A475" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B475" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C475" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="D475" s="16"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C476" s="13" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D476" s="16">
-        <v>0.63400000000000001</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -12321,27 +12373,27 @@
         <v>161</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>52</v>
+        <v>574</v>
       </c>
       <c r="D477" s="16">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="16">
       <c r="A478" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C478" s="13" t="s">
-        <v>54</v>
+        <v>274</v>
+      </c>
+      <c r="C478" s="19" t="s">
+        <v>575</v>
       </c>
       <c r="D478" s="16">
-        <v>0.45300000000000001</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -12349,41 +12401,39 @@
         <v>161</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>55</v>
+        <v>576</v>
       </c>
       <c r="D479" s="16">
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="64">
       <c r="A480" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C480" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D480" s="16">
-        <v>6.5000000000000002E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C480" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D480" s="16"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C481" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D481" s="16">
-        <v>0.309</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -12391,13 +12441,13 @@
         <v>161</v>
       </c>
       <c r="B482" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C482" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D482" s="16">
-        <v>0.151</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -12405,13 +12455,13 @@
         <v>161</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C483" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D483" s="16">
-        <v>0.35499999999999998</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -12419,13 +12469,13 @@
         <v>161</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D484" s="16">
-        <v>8.2000000000000003E-2</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -12436,10 +12486,10 @@
         <v>56</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D485" s="16">
-        <v>1.0999999999999999E-2</v>
+        <v>6.5304087736789626E-2</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -12450,10 +12500,10 @@
         <v>56</v>
       </c>
       <c r="C486" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D486" s="16">
-        <v>2.4E-2</v>
+        <v>0.30957128614157525</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -12464,11 +12514,10 @@
         <v>56</v>
       </c>
       <c r="C487" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D487" s="15">
-        <f>SUM(D480:D482)</f>
-        <v>0.52500000000000002</v>
+        <v>59</v>
+      </c>
+      <c r="D487" s="16">
+        <v>0.15154536390827517</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -12479,79 +12528,82 @@
         <v>56</v>
       </c>
       <c r="C488" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D488" s="16">
+        <v>0.3559322033898305</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B489" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D489" s="16">
+        <v>8.175473579262213E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B490" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D490" s="16">
+        <v>1.1465603190428714E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B491" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D491" s="16">
+        <v>2.4426719840478565E-2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B492" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D492" s="15">
+        <f>SUM(D485:D487)</f>
+        <v>0.52642073778664011</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B493" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C493" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D488" s="16">
-        <f>SUM(D483:D486)</f>
-        <v>0.47200000000000003</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B489" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C489" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="D489" s="12">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B490" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C490" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="D490" s="12">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" ht="64">
-      <c r="A491" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B491" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C491" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="D491" s="11"/>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B492" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C492" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D492" s="12">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B493" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C493" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D493" s="12">
-        <v>0.317</v>
+      <c r="D493" s="16">
+        <f>SUM(D488:D491)</f>
+        <v>0.47357926221335989</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -12559,13 +12611,13 @@
         <v>165</v>
       </c>
       <c r="B494" s="11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>54</v>
+        <v>571</v>
       </c>
       <c r="D494" s="12">
-        <v>0.47799999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -12573,41 +12625,39 @@
         <v>165</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C495" s="11" t="s">
-        <v>55</v>
+        <v>572</v>
       </c>
       <c r="D495" s="12">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="64">
       <c r="A496" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B496" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C496" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D496" s="12">
-        <v>2.1999999999999999E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C496" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="D496" s="11"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D497" s="12">
-        <v>0.26300000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -12615,13 +12665,13 @@
         <v>165</v>
       </c>
       <c r="B498" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D498" s="12">
-        <v>0.20200000000000001</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -12629,13 +12679,13 @@
         <v>165</v>
       </c>
       <c r="B499" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D499" s="12">
-        <v>0.27600000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -12643,13 +12693,13 @@
         <v>165</v>
       </c>
       <c r="B500" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D500" s="12">
-        <v>0.17499999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -12660,10 +12710,10 @@
         <v>56</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D501" s="12">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -12674,10 +12724,10 @@
         <v>56</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D502" s="12">
-        <v>0.03</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -12688,11 +12738,10 @@
         <v>56</v>
       </c>
       <c r="C503" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D503" s="12">
-        <f>SUM(D496:D498)</f>
-        <v>0.48700000000000004</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -12703,79 +12752,82 @@
         <v>56</v>
       </c>
       <c r="C504" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D504" s="12">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B505" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C505" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D505" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C506" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D506" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B507" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C507" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D507" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B508" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C508" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D508" s="12">
+        <f>SUM(D501:D503)</f>
+        <v>0.48700000000000004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C509" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D504" s="12">
-        <f>SUM(D499:D502)</f>
+      <c r="D509" s="12">
+        <f>SUM(D504:D507)</f>
         <v>0.51</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B505" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C505" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D505" s="16">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B506" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C506" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="D506" s="16">
-        <v>0.751</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" ht="48">
-      <c r="A507" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B507" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C507" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="D507" s="16"/>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B508" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C508" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D508" s="16">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B509" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C509" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D509" s="16">
-        <v>0.316</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -12783,13 +12835,13 @@
         <v>179</v>
       </c>
       <c r="B510" s="13" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C510" s="13" t="s">
-        <v>54</v>
+        <v>579</v>
       </c>
       <c r="D510" s="16">
-        <v>0.47899999999999998</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -12797,41 +12849,39 @@
         <v>179</v>
       </c>
       <c r="B511" s="13" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C511" s="13" t="s">
-        <v>55</v>
+        <v>572</v>
       </c>
       <c r="D511" s="16">
-        <v>0.52100000000000002</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="48">
       <c r="A512" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B512" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C512" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D512" s="16">
-        <v>4.3999999999999997E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C512" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="D512" s="16"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B513" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C513" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D513" s="16">
-        <v>0.22700000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -12839,13 +12889,13 @@
         <v>179</v>
       </c>
       <c r="B514" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C514" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D514" s="16">
-        <v>0.28299999999999997</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -12853,13 +12903,13 @@
         <v>179</v>
       </c>
       <c r="B515" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C515" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D515" s="16">
-        <v>0.21</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -12867,13 +12917,13 @@
         <v>179</v>
       </c>
       <c r="B516" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C516" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D516" s="16">
-        <v>0.14899999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -12884,10 +12934,10 @@
         <v>56</v>
       </c>
       <c r="C517" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D517" s="16">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -12898,10 +12948,10 @@
         <v>56</v>
       </c>
       <c r="C518" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D518" s="16">
-        <v>3.5000000000000003E-2</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -12912,11 +12962,10 @@
         <v>56</v>
       </c>
       <c r="C519" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D519" s="15">
-        <f>SUM(D512:D514)</f>
-        <v>0.55400000000000005</v>
+        <v>59</v>
+      </c>
+      <c r="D519" s="16">
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -12927,93 +12976,96 @@
         <v>56</v>
       </c>
       <c r="C520" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D520" s="16">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B521" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C521" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D521" s="16">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B522" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C522" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D522" s="16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B523" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C523" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D523" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B524" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C524" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D524" s="15">
+        <f>SUM(D517:D519)</f>
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B525" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C525" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D520" s="16">
-        <f>SUM(D515:D518)</f>
+      <c r="D525" s="16">
+        <f>SUM(D520:D523)</f>
         <v>0.43699999999999994</v>
       </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="A521" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B521" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C521" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="D521" s="12">
-        <v>0.2782</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="A522" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B522" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C522" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D522" s="12">
-        <v>0.33119999999999999</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" ht="16">
-      <c r="A523" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B523" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C523" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D523" s="12">
-        <v>0.1099</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="A524" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B524" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C524" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="D524" s="12">
-        <v>0.28070000000000001</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" ht="80">
-      <c r="A525" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B525" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C525" s="67" t="s">
-        <v>588</v>
-      </c>
-      <c r="D525" s="12"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B526" s="11" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C526" s="11" t="s">
-        <v>51</v>
+        <v>581</v>
       </c>
       <c r="D526" s="12">
-        <v>0.57640000000000002</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -13021,27 +13073,27 @@
         <v>162</v>
       </c>
       <c r="B527" s="11" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D527" s="12">
-        <v>0.42359999999999998</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>0.33119999999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="16">
       <c r="A528" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B528" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C528" s="11" t="s">
-        <v>54</v>
+        <v>274</v>
+      </c>
+      <c r="C528" s="33" t="s">
+        <v>582</v>
       </c>
       <c r="D528" s="12">
-        <v>0.52149999999999996</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -13049,41 +13101,39 @@
         <v>162</v>
       </c>
       <c r="B529" s="11" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="C529" s="11" t="s">
-        <v>55</v>
+        <v>583</v>
       </c>
       <c r="D529" s="12">
-        <v>0.47849999999999998</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
+        <v>0.28070000000000001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="80">
       <c r="A530" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B530" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C530" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D530" s="12">
-        <v>0.01</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C530" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="D530" s="12"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B531" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C531" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D531" s="12">
-        <v>0.21229999999999999</v>
+        <v>0.57640000000000002</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -13091,13 +13141,13 @@
         <v>162</v>
       </c>
       <c r="B532" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C532" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D532" s="12">
-        <v>0.1933</v>
+        <v>0.42359999999999998</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -13105,13 +13155,13 @@
         <v>162</v>
       </c>
       <c r="B533" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C533" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D533" s="12">
-        <v>0.37959999999999999</v>
+        <v>0.52149999999999996</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -13119,13 +13169,13 @@
         <v>162</v>
       </c>
       <c r="B534" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C534" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D534" s="12">
-        <v>0.1449</v>
+        <v>0.47849999999999998</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -13136,10 +13186,10 @@
         <v>56</v>
       </c>
       <c r="C535" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D535" s="12">
-        <v>4.8500000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -13150,10 +13200,10 @@
         <v>56</v>
       </c>
       <c r="C536" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D536" s="12">
-        <v>9.4999999999999998E-3</v>
+        <v>0.21229999999999999</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -13164,11 +13214,10 @@
         <v>56</v>
       </c>
       <c r="C537" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D537" s="12">
-        <f>SUM(D530:D532)</f>
-        <v>0.41559999999999997</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -13179,93 +13228,96 @@
         <v>56</v>
       </c>
       <c r="C538" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D538" s="12">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B539" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C539" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D539" s="12">
+        <v>0.1449</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B540" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C540" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D540" s="12">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B541" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C541" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D541" s="12">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B542" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C542" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D542" s="12">
+        <f>SUM(D535:D537)</f>
+        <v>0.41559999999999997</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B543" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C543" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D538" s="12">
-        <f>SUM(D533:D536)</f>
+      <c r="D543" s="12">
+        <f>SUM(D538:D541)</f>
         <v>0.58249999999999991</v>
       </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="A539" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B539" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C539" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="D539" s="16">
-        <v>0.35849999999999999</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
-      <c r="A540" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B540" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C540" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D540" s="16">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" ht="16">
-      <c r="A541" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B541" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C541" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="D541" s="16">
-        <v>0.17249999999999999</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
-      <c r="A542" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B542" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C542" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="D542" s="16">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" ht="64">
-      <c r="A543" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B543" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C543" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="D543" s="16"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B544" s="13" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>51</v>
+        <v>585</v>
       </c>
       <c r="D544" s="16">
-        <v>0.53700000000000003</v>
+        <v>0.35849999999999999</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -13273,27 +13325,27 @@
         <v>164</v>
       </c>
       <c r="B545" s="13" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D545" s="16">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="16">
       <c r="A546" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B546" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C546" s="13" t="s">
-        <v>54</v>
+        <v>274</v>
+      </c>
+      <c r="C546" s="19" t="s">
+        <v>586</v>
       </c>
       <c r="D546" s="16">
-        <v>0.51100000000000001</v>
+        <v>0.17249999999999999</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -13301,41 +13353,39 @@
         <v>164</v>
       </c>
       <c r="B547" s="13" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="D547" s="16">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="64">
       <c r="A548" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B548" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C548" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D548" s="16">
-        <v>1.6E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C548" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D548" s="16"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B549" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D549" s="16">
-        <v>0.26600000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -13343,13 +13393,13 @@
         <v>164</v>
       </c>
       <c r="B550" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D550" s="16">
-        <v>0.20100000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -13357,13 +13407,13 @@
         <v>164</v>
       </c>
       <c r="B551" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D551" s="16">
-        <v>0.29849999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -13371,13 +13421,13 @@
         <v>164</v>
       </c>
       <c r="B552" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C552" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D552" s="16">
-        <v>0.16</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -13388,10 +13438,10 @@
         <v>56</v>
       </c>
       <c r="C553" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D553" s="16">
-        <v>3.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -13402,10 +13452,10 @@
         <v>56</v>
       </c>
       <c r="C554" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D554" s="16">
-        <v>0.01</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -13416,11 +13466,10 @@
         <v>56</v>
       </c>
       <c r="C555" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D555" s="15">
-        <f>SUM(D548:D550)</f>
-        <v>0.48300000000000004</v>
+        <v>59</v>
+      </c>
+      <c r="D555" s="16">
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -13431,10 +13480,81 @@
         <v>56</v>
       </c>
       <c r="C556" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D556" s="16">
+        <v>0.29849999999999999</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B557" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C557" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D557" s="16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B558" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C558" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D558" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B559" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C559" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D559" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B560" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C560" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D560" s="15">
+        <f>SUM(D553:D555)</f>
+        <v>0.48300000000000004</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B561" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C561" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D556" s="16">
-        <f>SUM(D551:D554)</f>
+      <c r="D561" s="16">
+        <f>SUM(D556:D559)</f>
         <v>0.50649999999999995</v>
       </c>
     </row>
@@ -15815,6 +15935,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -16057,17 +16188,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16078,6 +16198,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16096,23 +16233,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>

--- a/Data/method_summaryData.xlsx
+++ b/Data/method_summaryData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8F012695-90BB-D145-B25C-6788AC47B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A1A9004-CC1A-9B41-B13A-C16405C517C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5439D5-CB54-4543-9B3D-664BEA8F05BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{77AD0726-88D8-44DD-9080-F543DD60C64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Frame" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="612">
   <si>
     <t>Sample Size</t>
   </si>
@@ -1701,24 +1701,9 @@
     <t>Guatemala City, Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercaplan based the sampling frame on the 2018 population figures from the Guatemalan National Institute of Statistics (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most respondents (81%) identified themselves as Mestizo or Latina, followed by Maya (12%). </t>
-  </si>
-  <si>
     <t>Most respondents (58%) reported that they had received at least a high school diploma or vocational degree, and the remaining 42% of respondents received up to a middle school diploma.</t>
   </si>
   <si>
-    <t>Regions and departments were selected to achieve a nationally representative sample in Guatemala. Districts and municipalities were selected and neighborhoods were randomly selected within the districts and municipalities based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four with five supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 480 interviews (24% of the sample) in the field. During data validation, 335 interviews were conducted by telephone back-check and 327 interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing and checks for abnormal interview length. Interviews averaged 45 minutes in length.</t>
-  </si>
-  <si>
     <t>Belize, Costa Rica, El Salvador, Honduras, Nicaragua, and Panama</t>
   </si>
   <si>
@@ -1728,24 +1713,9 @@
     <t>San Pedro Sula, Honduras</t>
   </si>
   <si>
-    <t>Mercaplan based the sampling frame on the 2013 census and Population Projections 2013-2050 from the National Institute of Statistics (INE) in Honduras, acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than half (56%) of respondents identified themselves as Mestizo, followed by White (17%), 12% of respondents who identified as "Other", and Afro-descendant (8%). </t>
-  </si>
-  <si>
-    <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 41% of respondents received up to a middle school diploma.</t>
-  </si>
-  <si>
-    <t>Regions and departments were selected to achieve a nationally representative sample in Honduras. Districts and municipalities were selected in urban areas and villages in rural areas. Neighborhoods were randomly selected within the districts and municipalities or villages based on relative population sizes and socioeconomic distribution. A random selection of neighborhoods was made, followed by a random selection of blocks and homes. The enumerator’s starting point was determined using random route household selection within each sampling unit. The enumerator then used the right-hand rule to determine the direction of the route from the randomly selected starting point and used the Last Birthday method to select respondents.</t>
-  </si>
-  <si>
     <t xml:space="preserve">In total, 29 interviewers worked on this project. Enumerators worked in groups with 11 supervisors overseeing the project. Interviews were conducted in Spanish. </t>
   </si>
   <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 410 interviews (20% of the sample) in the field. During data validation, 410 interviews were conducted by telephone back-check and 450 interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing and checks for abnormal interview length. Interviews averaged 37 minutes in length and ranged from 29 to 45 minutes. </t>
-  </si>
-  <si>
     <t>Belize, Costa Rica, El Salvador, Guatemala, Nicaragua, and Panama</t>
   </si>
   <si>
@@ -1755,21 +1725,6 @@
     <t>Nicaraguan</t>
   </si>
   <si>
-    <t>CID Gallup based the initial sampling frame on the most recent population projections from the Nicaraguan National Institute of Information Development (INIDE).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-quarter (26%) of respondents identified themselves as Hispanic, followed by 20% of respondents who identified as "Other", White (19%),  Afro-Nicaraguan (17%), and Indigenous (12%). </t>
-  </si>
-  <si>
-    <t>Most respondents (55%) reported that they had received up to a middle school diploma, and the remaining 44% of respondents received at least a high school diploma or vocational degree.</t>
-  </si>
-  <si>
-    <t>All interviews in Nicaragua were conducted using a CATI (Computer Assisted Telephone Interviewing) system. Generation of the cellular RDD (Resilient Distributed Datasets) frame is based on the phone number blocks used in the telephone numbering plan by using pre-codes and stratifying them by provider distribution. The RDD cellular framework for Nicaragua uses a national numbering plan provided by the government. Using this numbering plan, CID Gallup developed a probabilistic design for pulling “seed” blocks from which actual phone numbers were randomly generated. For the mobile sample, CID Gallup classified mobile providers, which are used for residential services and commercial services, and excluded commercial numbers from the sample. The mobile sample was sorted by the amount of allocated numbering blocks. All cell numbers were used and subdivided into blocks of 100 numbers each, each block was enriched by random digits in order to create a seed, and then the last 2-digits were randomized to create the numbers to be called.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supervisory team directly oversaw 46% of all interviews. During data processing, 62% of the interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 40 minutes in length and ranged from 21 to 109 minutes. </t>
-  </si>
-  <si>
     <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Panama</t>
   </si>
   <si>
@@ -1785,35 +1740,6 @@
     <t>Most respondents (51%) reported that they had received at least a high school diploma or vocational degree, and the remaining 49% of respondents received up to a middle school diploma.</t>
   </si>
   <si>
-    <r>
-      <t>Regions, provinces, and &lt;i&gt;comarcas&lt;/i&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>were selected to achieve a nationally representative sample in Panama. Interviewers were assigned a segment starting point that was selected systematically to coincide with the region. Interviewers performed a systemic random route, while paying close attention to target quotas for gender, age, and income. Interviewers used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">In total, 68 interviewers worked on this project, including 59 female interviewers. Enumerators worked in 17 groups of four with a total of 17 supvisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
     <t>Belize, Costa Rica, El Salvador, Honduras, Guatemala, and Nicaragua</t>
   </si>
   <si>
@@ -1883,9 +1809,6 @@
     <t>Thirty-six percent (36%) of the interviews took place in the North Atlantic region, followed by 27% in the Central region, 20% in the South East region, and 17% in the Western region.</t>
   </si>
   <si>
-    <t>Regions and districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks selected via simple random sampling. The number of enumeration areas assigned to each city or town was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t>CID Gallup based the sampling frame on the 2022 projected population figures from the National Institute of Statistics and Census of Costa Rica (INEC), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
   </si>
   <si>
@@ -1904,9 +1827,6 @@
     <t xml:space="preserve">Most (63%) respondents identified themselves as Mestizo, followed by 20% of respondents who did not identify with any ethnicity and 11% who identified as Indigenous. </t>
   </si>
   <si>
-    <t>Regions and departments were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Municipalities were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas were selected at the &lt;i&gt;cantón&lt;/i&gt;, or neighborhood, level via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
-  </si>
-  <si>
     <t>In total, 43 interviewers worked on this project, including 28 female interviewers. Enumerators worked in 11 groups of four interviewers with one supervisor each. Interviews were conducted in Spanish.</t>
   </si>
   <si>
@@ -1919,15 +1839,6 @@
     <t xml:space="preserve">Data for Argentina was collected in 2016, 2018, and 2022. Data for Brazil was collected in 2014, 2017, and 2022. </t>
   </si>
   <si>
-    <t xml:space="preserve">In total, 44 interviewers worked on this project, including 25 female interviewers. Enumerators worked under the supervision of four supervisors overseeing the project. Interviews were conducted in Spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearly one-third (30%) of respondents idnentified themselves as Afro-descendant, followed by Hispanic (29%), Indigenous (16%), Mestizo (3%), and five percent of respondents reported that they did not know. </t>
-  </si>
-  <si>
-    <t>The supervisory team directly oversaw 36% of all interviews in the field. During data processing, 41% of all interviews were selected for audio review by the central office. Additional quality control measures included geo-fencing, telephone back-checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 99 minutes.</t>
-  </si>
-  <si>
     <t>all seven</t>
   </si>
   <si>
@@ -1953,6 +1864,70 @@
   </si>
   <si>
     <t>The majority of interviews took place in San José (34%), Alajuela (20%), and Cartago (11%).</t>
+  </si>
+  <si>
+    <t>Regions and districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Cities and towns were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks selected via simple random sampling. The number of enumeration areas assigned to each city or town was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Municipalities were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas were selected at the &lt;i&gt;cantón&lt;/i&gt;, or neighborhood, level via simple random sampling. The number of enumeration areas assigned to each municipality was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercaplan based the sampling frame on 2016 and 2018 population figures from the Guatemalan National Institute of Statistics (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most respondents (77%) identified themselves as Mestizo, followed by Mayan (16%). </t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. In urban areas, municipalities were selected as the primary sampling unit using probability proportionate to size sampling. In rural areas, towns and villages were selected as the primary sampling unit using the same method. Individual enumeration areas consisted of neighborhood and were selected via simple random sampling. The number of interviews assigned to each enumeration area was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 20 interviewers worked on this project, including 12 female interviewers. Enumerators worked in five groups of four interviewers with one supervisor each. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw all interviews in the field and validated 24% of all interviews in-person. During data processing, 327 interviews (approximately 16% of the sample) were selected for audio review by the central office and 335 interviews (approximately 17% of the sample) were backchecked via telephone. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. After quality control, 54 interviews were rejected from the final sample. Interviews averaged 45 minutes in length.</t>
+  </si>
+  <si>
+    <t>Mercaplan based the sampling frame on 2013 and 2017 population figures from the National Statistics Institute of Honduras (INE), acquiring a proportionally stratified sample by region, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t>Most (56%) respondents identified themselves as Mestizo, followed by White (17%), Afro-Honduran (8%), and Indigenous (6%).</t>
+  </si>
+  <si>
+    <t>Regions and departments were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. In urban areas, municipalities were selected as the primary sampling unit using probability proportionate to size sampling. In rural areas, towns and villages were selected as the primary sampling unit using the same method. Individual enumeration areas consisted of neighborhood and were selected via simple random sampling. The number of interviews assigned to each enumeration area was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used the Last Birthday method to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household. 
+Due to a lack of accessibility, the Ocotepeque and Islas de la Bahía departments were excluded from the study. Due to security challenges, one enumeration area was split between two neighborhoods in the city of Catacamas. Both neighborhoods share the same socioeconomic characteristics.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw all interviews in the field and validated 23% of all interviews in-person. During data processing, 450 interviews (approximately 23% of the sample) were selected for audio review by the central office and 410 interviews (approximately 21% of the sample) were backchecked via telephone. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. After quality control, 90 interviews were rejected from the final sample. Interviews averaged 37 minutes in length and ranged from 30 to 45 minutes.</t>
+  </si>
+  <si>
+    <t>CID Gallup based the sampling frame on the most recent population projections from the Nicaraguan National Institute of Information Development (INIDE), acquiring a proportionally stratified sample by department, age, gender, socioeconomic status, and level of urbanization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty-six percent (26%) of respondents identified themselves as Mestizo, followed by Afro-Nicaraguan (21%) and White (19%). Twenty percent (20%) identified as “Other.” </t>
+  </si>
+  <si>
+    <t>Most respondents (56%) reported that they had received up to a middle school diploma, and the remaining 44% of respondents received at least a high school diploma or vocational degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All interviews in Nicaragua were conducted using a CATI (computer-assisted telephone interviewing) system via random digit dialing (RDD). For landline users, “seed” blocks of telephone numbers were randomly selected from Nicaragua’s national number framework. The number of seed blocks in a particular department was determined based on relative population size and departments were identified by area codes. To reach mobile cell phone users, cell phone numbers were first classified by residential and commercial use and commercial mobile phone numbers were excluded from the sample. Seed blocks were stratified across mobile providers and divided into segments of 100 phone numbers each. Within each segment, phone numbers were selected randomly based on the last two digits. Two attempts were made to reach each respondent before the system removed the phone number and selected a new one. </t>
+  </si>
+  <si>
+    <t>In total, 44 interviewers, including 25 female interviewers, and four supervisors worked on this project. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 46% of all interviews. During data processing, 629 interviews (approximately 62% of the sample) were selected for audio review by the central office. Additional quality control measures included audio quality checks and checks for abnormal interview length. Interviews averaged 40 minutes in length and ranged from 21 to 99 minutes.</t>
+  </si>
+  <si>
+    <t>Thirty-five percent (35%) of respondents identified themselves as Mestizo, followed by Afro-Panamanian (19%) and Indigenous (17%).</t>
+  </si>
+  <si>
+    <t>Regions, provinces and &lt;i&gt;comarcas&lt;/i&gt;, and districts were selected to achieve a nationally representative sample of the country based on population density and geographic coverage. Within districts, &lt;i&gt;corregimientos&lt;/i&gt;, or jurisdictions, were then selected as the primary sampling unit using probability proportionate to size sampling. Individual enumeration areas consisted of neighborhood blocks and were selected via simple random sampling. The number of enumeration areas assigned to each district was determined based on relative population size. Within each enumeration area, survey administrators performed a systematic random route to sample households and used a Kish grid to select respondents. If the selected respondent declined to be interviewed or otherwise did not meet the characteristics of the target quota, the interviewer moved on to the next household.</t>
+  </si>
+  <si>
+    <t>In total, 68 interviewers worked on this project, including 59 female interviewers. Enumerators worked in 17 groups of four interviewers with one supervisor each. Interviews were conducted in Spanish.</t>
+  </si>
+  <si>
+    <t>The supervisory team directly oversaw 36% of all interviews in the field. During data processing, 829 interviews (approximately 41% of the sample) were selected for audio review by the central office. Additional quality control measures included geo-fencing, audio quality checks, and checks for abnormal interview length. Interviews averaged 46 minutes in length and ranged from 35 to 61 minutes.</t>
   </si>
 </sst>
 </file>
@@ -2316,21 +2291,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -2888,11 +2849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A370D2-6729-6642-9050-0182FD4A6CB8}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3359,7 +3320,7 @@
         <v>204</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>205</v>
@@ -3371,7 +3332,7 @@
         <v>207</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="S8" s="43" t="s">
         <v>208</v>
@@ -4189,7 +4150,7 @@
         <v>521</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P22" s="64" t="s">
         <v>522</v>
@@ -4236,25 +4197,25 @@
         <v>247</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="L23" t="s">
         <v>115</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="N23" s="19" t="s">
         <v>527</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="P23" s="19" t="s">
         <v>528</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="R23" s="40" t="s">
         <v>524</v>
@@ -4263,7 +4224,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="335">
+    <row r="24" spans="1:19" ht="320">
       <c r="A24" s="2" t="s">
         <v>161</v>
       </c>
@@ -4295,25 +4256,25 @@
         <v>247</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="L24" t="s">
         <v>115</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>532</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="R24" s="40" t="s">
         <v>524</v>
@@ -4322,7 +4283,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="272">
+    <row r="25" spans="1:19" ht="365">
       <c r="A25" s="41" t="s">
         <v>162</v>
       </c>
@@ -4354,34 +4315,34 @@
         <v>535</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="L25" t="s">
         <v>115</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>539</v>
+        <v>595</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="R25" s="40" t="s">
         <v>524</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="288">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="409.6">
       <c r="A26" s="13" t="s">
         <v>164</v>
       </c>
@@ -4407,40 +4368,40 @@
         <v>517</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="L26" t="s">
         <v>115</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="R26" s="40" t="s">
         <v>524</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="409.6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="350">
       <c r="A27" s="13" t="s">
         <v>179</v>
       </c>
@@ -4460,46 +4421,46 @@
         <v>2022</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H27" t="s">
         <v>517</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="L27" t="s">
         <v>115</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>557</v>
+        <v>604</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>605</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="R27" s="40" t="s">
         <v>524</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="224">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="350">
       <c r="A28" s="13" t="s">
         <v>165</v>
       </c>
@@ -4519,247 +4480,247 @@
         <v>2022</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H28" t="s">
         <v>517</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>247</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="L28" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="R28" s="40" t="s">
         <v>524</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1 R1:XFD1 A29:XFD1048576 T2:XFD7 T9:XFD28">
-    <cfRule type="expression" dxfId="36" priority="321">
+    <cfRule type="expression" dxfId="34" priority="334">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="322">
+    <cfRule type="expression" priority="335">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:Q1">
-    <cfRule type="expression" dxfId="35" priority="319">
+    <cfRule type="expression" dxfId="33" priority="332">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="320">
+    <cfRule type="expression" priority="333">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
+    <cfRule type="expression" priority="123">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:S5">
+    <cfRule type="expression" dxfId="32" priority="121">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="122">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="120">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S7">
+    <cfRule type="expression" dxfId="31" priority="118">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="119">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="30" priority="116">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="117">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="115">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
+    <cfRule type="expression" dxfId="29" priority="113">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="114">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10 J14 J12">
+    <cfRule type="expression" dxfId="28" priority="111">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="112">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="27" priority="109">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S5">
-    <cfRule type="expression" dxfId="34" priority="108">
+  <conditionalFormatting sqref="N9:N14">
+    <cfRule type="expression" dxfId="26" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="109">
+    <cfRule type="expression" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="107">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6 K6:S6 A7:S7">
-    <cfRule type="expression" dxfId="33" priority="105">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="25" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="32" priority="103">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" priority="102">
+  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
+    <cfRule type="expression" dxfId="24" priority="102">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M14 A9:I14 O9:S14">
-    <cfRule type="expression" dxfId="31" priority="100">
+  <conditionalFormatting sqref="B15:C21">
+    <cfRule type="expression" dxfId="23" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J10 J14 J12">
-    <cfRule type="expression" dxfId="30" priority="98">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="22" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="29" priority="96">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="21" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N14">
-    <cfRule type="expression" dxfId="28" priority="94">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="expression" dxfId="20" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="27" priority="92">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="19" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="expression" dxfId="18" priority="90">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21 K15:Q15 I15:I20 K16:M16 O16:Q16 K17:Q17 K18:M18 O18:Q18 K19:Q19 K20:M20 O20:Q20 K21:Q21 D15:H21 R15:S21">
-    <cfRule type="expression" dxfId="26" priority="89">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="17" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="90">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C21">
-    <cfRule type="expression" dxfId="25" priority="87">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="88">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="24" priority="85">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="86">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="23" priority="83">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="22" priority="81">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="21" priority="79">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="80">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="20" priority="77">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="19" priority="75">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="76">
+    <cfRule type="expression" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="18" priority="73">
+    <cfRule type="expression" dxfId="16" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="74">
+    <cfRule type="expression" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="17" priority="71">
+    <cfRule type="expression" dxfId="15" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="72">
+    <cfRule type="expression" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="expression" dxfId="16" priority="69">
+    <cfRule type="expression" dxfId="14" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="70">
+    <cfRule type="expression" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="15" priority="67">
+    <cfRule type="expression" dxfId="13" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="68">
+    <cfRule type="expression" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:XFD8">
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15">
+    <cfRule type="expression" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4825,7 +4786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBD0801-F392-8E43-BE7F-67B3A843B1CB}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -5481,7 +5442,7 @@
         <v>159</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>377</v>
@@ -5516,7 +5477,7 @@
         <v>373</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5539,7 +5500,7 @@
         <v>161</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>27</v>
@@ -5597,7 +5558,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>27</v>
@@ -5637,7 +5598,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>105</v>
@@ -5652,16 +5613,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="E57" s="11"/>
     </row>
@@ -11830,7 +11791,7 @@
         <v>94</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="D438" s="16">
         <v>0.34</v>
@@ -11844,7 +11805,7 @@
         <v>96</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="D439" s="16">
         <v>0.2</v>
@@ -11858,7 +11819,7 @@
         <v>95</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="D440" s="16">
         <v>0.11</v>
@@ -11872,7 +11833,7 @@
         <v>97</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="D441" s="16">
         <v>0.1</v>
@@ -11886,7 +11847,7 @@
         <v>98</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="D442" s="16">
         <v>0.09</v>
@@ -11900,7 +11861,7 @@
         <v>100</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="D443" s="16">
         <v>0.08</v>
@@ -11914,7 +11875,7 @@
         <v>101</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="D444" s="16">
         <v>0.08</v>
@@ -11928,7 +11889,7 @@
         <v>133</v>
       </c>
       <c r="C445" s="19" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D445" s="16"/>
     </row>
@@ -12166,7 +12127,7 @@
         <v>133</v>
       </c>
       <c r="C462" s="67" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="D462" s="11"/>
     </row>
@@ -12376,7 +12337,7 @@
         <v>96</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="D477" s="16">
         <v>0.221</v>
@@ -12390,7 +12351,7 @@
         <v>274</v>
       </c>
       <c r="C478" s="19" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D478" s="16">
         <v>0.193</v>
@@ -12404,7 +12365,7 @@
         <v>276</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="D479" s="16">
         <v>0.107</v>
@@ -12418,7 +12379,7 @@
         <v>133</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="D480" s="16"/>
     </row>
@@ -12614,7 +12575,7 @@
         <v>94</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="D494" s="12">
         <v>0.63400000000000001</v>
@@ -12628,7 +12589,7 @@
         <v>96</v>
       </c>
       <c r="C495" s="11" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D495" s="12">
         <v>0.36599999999999999</v>
@@ -12642,7 +12603,7 @@
         <v>133</v>
       </c>
       <c r="C496" s="67" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="D496" s="11"/>
     </row>
@@ -12838,7 +12799,7 @@
         <v>94</v>
       </c>
       <c r="C510" s="13" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="D510" s="16">
         <v>0.249</v>
@@ -12852,7 +12813,7 @@
         <v>96</v>
       </c>
       <c r="C511" s="13" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D511" s="16">
         <v>0.751</v>
@@ -12866,7 +12827,7 @@
         <v>133</v>
       </c>
       <c r="C512" s="19" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="D512" s="16"/>
     </row>
@@ -13062,7 +13023,7 @@
         <v>94</v>
       </c>
       <c r="C526" s="11" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D526" s="12">
         <v>0.2782</v>
@@ -13090,7 +13051,7 @@
         <v>274</v>
       </c>
       <c r="C528" s="33" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D528" s="12">
         <v>0.1099</v>
@@ -13104,7 +13065,7 @@
         <v>276</v>
       </c>
       <c r="C529" s="11" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D529" s="12">
         <v>0.28070000000000001</v>
@@ -13118,7 +13079,7 @@
         <v>133</v>
       </c>
       <c r="C530" s="67" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D530" s="12"/>
     </row>
@@ -13314,7 +13275,7 @@
         <v>94</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D544" s="16">
         <v>0.35849999999999999</v>
@@ -13342,7 +13303,7 @@
         <v>274</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D546" s="16">
         <v>0.17249999999999999</v>
@@ -13356,7 +13317,7 @@
         <v>276</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D547" s="16">
         <v>0.20100000000000001</v>
@@ -13370,7 +13331,7 @@
         <v>133</v>
       </c>
       <c r="C548" s="19" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D548" s="16"/>
     </row>
@@ -15935,17 +15896,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -16188,6 +16138,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16198,23 +16159,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BE83E1-4A56-468A-AE3B-AA02AC75EB69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16233,6 +16177,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A173B992-D409-46D4-A356-39CAA5E52A01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7423736F-E14C-4FBF-A48B-0B9C870C6645}">
   <ds:schemaRefs>
